--- a/src/main/file/接口文档-测试项目.xlsx
+++ b/src/main/file/接口文档-测试项目.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="810"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="810" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="API汇总信息" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="276">
   <si>
     <t>汇总信息</t>
   </si>
@@ -276,26 +276,6 @@
     <t>是否枚举</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>l</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ocation</t>
-    </r>
-  </si>
-  <si>
     <t>用户地理位置</t>
   </si>
   <si>
@@ -319,26 +299,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>g</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ender</t>
-    </r>
-  </si>
-  <si>
     <t>子女性别</t>
   </si>
   <si>
@@ -348,9 +308,6 @@
     <t>子女性别，为男女两种,取自字典值</t>
   </si>
   <si>
-    <t>currentLocation</t>
-  </si>
-  <si>
     <t>子女当前地理位置</t>
   </si>
   <si>
@@ -487,26 +444,6 @@
   </si>
   <si>
     <t>查看用户子女的详细信息</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>pi/commonuser/getDetail</t>
-    </r>
   </si>
   <si>
     <t>targetUserId</t>
@@ -1654,6 +1591,144 @@
   </si>
   <si>
     <t>返回结果</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求示例</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>http://</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>119.23.220.163:8080/api/recommend/show/login?token=mh8L3fkqVurouLvpmKmWWw%3D%3D&amp;page=1</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://119.23.220.163:8080/api/commonuser/login?phone=18817368269</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回示例</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "code" : "0000",
+  "msg" : "Success",
+  "detail" : "成功",
+  "data" : {
+    "token" : "mh8L3fkqVurouLvpmKmWWw=="
+  }
+}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取字典接口</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据类型获取字典列表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据类型获取字典列表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/api/dict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/query</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ype</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://119.23.220.163:8080/api/dict/query?type=Gender</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "code" : "0000",
+  "msg" : "Success",
+  "detail" : "成功",
+  "data" : [ {
+    "id" : 68,
+    "dictType" : "Gender",
+    "dictValue" : "Male",
+    "dictDesc" : "男"
+  }, {
+    "id" : 69,
+    "dictType" : "Gender",
+    "dictValue" : "Female",
+    "dictDesc" : "女"
+  } ]
+}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>data.label</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配的用户子女标签</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配的用户子女的标签</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1676,7 +1751,92 @@
     "bornLocation" : "河南,郑州",
     "currentLocation" : "上海市,上海市"
   }, {
+    "birthday" : "1988",{
+  "code" : "0000",
+  "msg" : "Success",
+  "detail" : "成功",
+  "data" : [ {
+    "birthday" : "1987",
+    "education" : 75,
+    "name" : "辛小姐",
+    "label" : "公务员,坐拥多套房产,多才多艺",
+    "userId" : 14288,
+    "bornLocation" : "河南,郑州",
+    "currentLocation" : "上海市,上海市"
+  }, {
+    "birthday" : "1986",
+    "education" : 74,
+    "name" : "陶小姐",
+    "label" : "坐拥多套房产,多才多艺",
+    "userId" : 14638,
+    "bornLocation" : "河南,郑州",
+    "currentLocation" : "上海市,上海市"
+  }, {
     "birthday" : "1988",
+    "education" : 75,
+    "name" : "庄小姐",
+    "label" : "公务员,多金优质,坐拥多套房产",
+    "userId" : 13666,
+    "bornLocation" : "河南,郑州",
+    "currentLocation" : "上海市,上海市"
+  }, {
+    "birthday" : "1987",
+    "education" : 73,
+    "name" : "唐小姐",
+    "label" : "公务员,多金优质,多才多艺",
+    "userId" : 13514,
+    "bornLocation" : "河南,郑州",
+    "currentLocation" : "上海市,上海市"
+  }, {
+    "birthday" : "1987",
+    "education" : 72,
+    "name" : "郝小姐",
+    "label" : "多金优质,坐拥多套房产",
+    "userId" : 13924,
+    "bornLocation" : "河南,郑州",
+    "currentLocation" : "上海市,上海市"
+  }, {
+    "birthday" : "1983",
+    "education" : 75,
+    "name" : "白小姐",
+    "label" : "公务员,多金优质",
+    "userId" : 13378,
+    "bornLocation" : "河南,郑州",
+    "currentLocation" : "上海市,上海市"
+  }, {
+    "birthday" : "1977",
+    "education" : 74,
+    "name" : "翟小姐",
+    "label" : "多才多艺",
+    "userId" : 14364,
+    "bornLocation" : "河南,郑州",
+    "currentLocation" : "上海市,上海市"
+  }, {
+    "birthday" : "1993",
+    "education" : 73,
+    "name" : "左小姐",
+    "label" : "海外名企,坐拥多套房产",
+    "userId" : 13650,
+    "bornLocation" : "河南,郑州",
+    "currentLocation" : "上海市,上海市"
+  }, {
+    "birthday" : "1990",
+    "education" : 73,
+    "name" : "齐小姐",
+    "label" : "海外名企,多才多艺",
+    "userId" : 13710,
+    "bornLocation" : "河南,郑州",
+    "currentLocation" : "上海市,上海市"
+  }, {
+    "birthday" : "1997",
+    "education" : 73,
+    "name" : "熊小姐",
+    "label" : "公务员,多金优质",
+    "userId" : 14866,
+    "bornLocation" : "河南,郑州",
+    "currentLocation" : "上海市,上海市"
+  } ]
+}
     "education" : 75,
     "name" : "庄小姐",
     "userId" : 13666,
@@ -1736,33 +1896,26 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>请求示例</t>
+    <t>targetUserId</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>http://</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>119.23.220.163:8080/api/recommend/show/login?token=mh8L3fkqVurouLvpmKmWWw%3D%3D&amp;page=1</t>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pi/commonuser/getDetail</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>http://119.23.220.163:8080/api/commonuser/login?phone=18817368269</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回示例</t>
+    <t>http://119.23.220.163:8080/api/commonuser/getDetail?targetUserId=53000</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1771,75 +1924,82 @@
   "msg" : "Success",
   "detail" : "成功",
   "data" : {
-    "token" : "mh8L3fkqVurouLvpmKmWWw=="
+    "id" : 53000,
+    "name" : "程小姐",
+    "parentId" : 53000,
+    "gender" : 69,
+    "bornLocation" : "海南,海口",
+    "currentLocation" : "海南,海口",
+    "birthday" : "1994",
+    "height" : 155,
+    "education" : 71,
+    "profession" : "",
+    "company" : 90,
+    "position" : "",
+    "schoolType" : null,
+    "school" : "",
+    "income" : 83,
+    "car" : false,
+    "house" : 77,
+    "photo" : null,
+    "hobby" : "运动健身,电影,读书",
+    "score" : 12,
+    "label" : "",
+    "createdate" : 1503382696000,
+    "lastmodified" : 1503382696000,
+    "parent" : null
   }
 }</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>POST</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ocation</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>获取字典接口</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ender</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>GET</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据类型获取字典列表</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据类型获取字典列表</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>/api/dict</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/query</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ype</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典类型</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://119.23.220.163:8080/api/dict/query?type=Gender</t>
+    <t>currentLocation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://119.23.220.163:8080/api/recommend/show/unlogin?location=%E5%AE%89%E5%BE%BD%2C%E5%90%88%E8%82%A5&amp;gender=68&amp;currentLocation=%E4%B8%8A%E6%B5%B7%E5%B8%82%2C%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;page=4</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1848,18 +2008,88 @@
   "msg" : "Success",
   "detail" : "成功",
   "data" : [ {
-    "id" : 68,
-    "dictType" : "Gender",
-    "dictValue" : "Male",
-    "dictDesc" : "男"
+    "birthday" : "1994",
+    "education" : 75,
+    "name" : "尤小姐",
+    "label" : "多金优质,多才多艺",
+    "userId" : 53426,
+    "bornLocation" : "安徽,合肥",
+    "currentLocation" : "上海市,上海市"
   }, {
-    "id" : 69,
-    "dictType" : "Gender",
-    "dictValue" : "Female",
-    "dictDesc" : "女"
+    "birthday" : "1990",
+    "education" : 72,
+    "name" : "常小姐",
+    "label" : "坐拥多套房产,多才多艺",
+    "userId" : 54194,
+    "bornLocation" : "安徽,合肥",
+    "currentLocation" : "上海市,上海市"
+  }, {
+    "birthday" : "1981",
+    "education" : 74,
+    "name" : "路小姐",
+    "label" : "海外名企,多金优质,多才多艺",
+    "userId" : 1988,
+    "bornLocation" : "安徽,合肥",
+    "currentLocation" : "上海市,上海市"
+  }, {
+    "birthday" : "1994",
+    "education" : 73,
+    "name" : "鲁小姐",
+    "label" : "公务员,多金优质,多才多艺",
+    "userId" : 1734,
+    "bornLocation" : "安徽,合肥",
+    "currentLocation" : "上海市,上海市"
+  }, {
+    "birthday" : "1983",
+    "education" : 74,
+    "name" : "谭小姐",
+    "label" : "公务员,多金优质",
+    "userId" : 968,
+    "bornLocation" : "安徽,合肥",
+    "currentLocation" : "上海市,上海市"
+  }, {
+    "birthday" : "1987",
+    "education" : 72,
+    "name" : "林小姐",
+    "label" : "多金优质,坐拥多套房产",
+    "userId" : 54480,
+    "bornLocation" : "安徽,合肥",
+    "currentLocation" : "上海市,上海市"
+  }, {
+    "birthday" : "1981",
+    "education" : 73,
+    "name" : "夏小姐",
+    "label" : "多金优质",
+    "userId" : 54754,
+    "bornLocation" : "安徽,合肥",
+    "currentLocation" : "上海市,上海市"
+  }, {
+    "birthday" : "1982",
+    "education" : 74,
+    "name" : "庄小姐",
+    "label" : "多金优质,多才多艺",
+    "userId" : 272,
+    "bornLocation" : "安徽,合肥",
+    "currentLocation" : "上海市,上海市"
+  }, {
+    "birthday" : "1993",
+    "education" : 75,
+    "name" : "孟小姐",
+    "label" : "多金优质,多才多艺",
+    "userId" : 26,
+    "bornLocation" : "安徽,合肥",
+    "currentLocation" : "上海市,上海市"
+  }, {
+    "birthday" : "1998",
+    "education" : 72,
+    "name" : "王小姐",
+    "label" : "公务员,多金优质",
+    "userId" : 54044,
+    "bornLocation" : "安徽,合肥",
+    "currentLocation" : "上海市,上海市"
   } ]
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1952,7 +2182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2025,6 +2255,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2032,7 +2342,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2051,6 +2361,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2063,33 +2386,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2100,10 +2446,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2446,8 +2788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -2461,7 +2803,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2471,7 +2813,7 @@
       </c>
     </row>
     <row r="4" spans="1:1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2526,8 +2868,8 @@
       </c>
     </row>
     <row r="15" spans="1:1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="36" t="s">
-        <v>259</v>
+      <c r="A15" s="20" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -2562,45 +2904,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -2650,7 +2992,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>53</v>
@@ -2663,10 +3005,10 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -2674,23 +3016,23 @@
         <v>2</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -2801,38 +3143,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -2888,7 +3230,7 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>50</v>
@@ -2898,10 +3240,10 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -2928,13 +3270,13 @@
         <v>36</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>37</v>
@@ -2946,7 +3288,7 @@
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>50</v>
@@ -2959,7 +3301,7 @@
         <v>32</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -2968,10 +3310,10 @@
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>20</v>
@@ -2981,7 +3323,7 @@
         <v>32</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -2990,7 +3332,7 @@
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>50</v>
@@ -3003,7 +3345,7 @@
         <v>32</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
@@ -3012,7 +3354,7 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>50</v>
@@ -3025,7 +3367,7 @@
         <v>32</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
@@ -3034,10 +3376,10 @@
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>20</v>
@@ -3047,7 +3389,7 @@
         <v>32</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3081,45 +3423,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -3169,10 +3511,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>50</v>
@@ -3182,10 +3524,10 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -3193,10 +3535,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>50</v>
@@ -3209,7 +3551,7 @@
         <v>32</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -3217,13 +3559,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>20</v>
@@ -3233,7 +3575,7 @@
         <v>32</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -3344,8 +3686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -3357,51 +3699,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="B2" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="B3" s="47" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>263</v>
+      <c r="B4" s="17" t="s">
+        <v>258</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>260</v>
+      <c r="D4" s="15" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -3444,11 +3786,11 @@
       <c r="A8" s="7">
         <v>1</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>265</v>
+      <c r="B8" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>260</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>50</v>
@@ -3458,10 +3800,10 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -3543,144 +3885,144 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="21" t="s">
-        <v>250</v>
+      <c r="A16" s="16" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
+      <c r="A17" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="21" t="s">
-        <v>251</v>
+      <c r="A19" s="16" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
+      <c r="A20" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3719,51 +4061,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -3918,81 +4260,81 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="21" t="s">
-        <v>253</v>
+      <c r="A17" s="16" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
+      <c r="A18" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="21" t="s">
-        <v>256</v>
+      <c r="A20" s="16" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
+      <c r="A21" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4013,10 +4355,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -4032,38 +4374,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -4075,8 +4417,8 @@
       <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>249</v>
+      <c r="D4" s="15" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -4119,11 +4461,11 @@
       <c r="A8" s="7">
         <v>1</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>50</v>
@@ -4134,21 +4476,21 @@
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>2</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>32</v>
@@ -4156,18 +4498,18 @@
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>3</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>65</v>
+      <c r="B10" s="18" t="s">
+        <v>273</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>40</v>
@@ -4180,7 +4522,7 @@
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -4188,13 +4530,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>32</v>
@@ -4286,16 +4628,16 @@
         <v>4</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -4303,16 +4645,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -4320,16 +4662,16 @@
         <v>6</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -4337,16 +4679,16 @@
         <v>7</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -4354,16 +4696,16 @@
         <v>8</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -4371,35 +4713,626 @@
         <v>9</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>88</v>
-      </c>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="7">
+        <v>10</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="36"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="33"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="33"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="33"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="33"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="33"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" s="33"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" s="33"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" s="33"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" s="33"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" s="33"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" s="33"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" s="33"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" s="33"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" s="33"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" s="33"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72" s="33"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="33"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" s="33"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" s="33"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" s="33"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="33"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" s="33"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="33"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" s="33"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="33"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78" s="33"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79" s="33"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80" s="33"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A81" s="33"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A82" s="33"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A83" s="33"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="33"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A84" s="33"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A85" s="33"/>
+      <c r="B85" s="33"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="33"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A86" s="33"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="33"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A87" s="33"/>
+      <c r="B87" s="33"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="33"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88" s="33"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A89" s="33"/>
+      <c r="B89" s="33"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="33"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A90" s="33"/>
+      <c r="B90" s="33"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="33"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A91" s="33"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="33"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A92" s="33"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A93" s="33"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A94" s="33"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A95" s="33"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
+      <c r="E95" s="33"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A96" s="33"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A97" s="33"/>
+      <c r="B97" s="33"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="33"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A98" s="33"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="33"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A99" s="33"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="33"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A100" s="33"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="33"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A101" s="33"/>
+      <c r="B101" s="33"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="33"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A102" s="33"/>
+      <c r="B102" s="33"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="33"/>
+      <c r="E102" s="33"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A103" s="33"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
+      <c r="E103" s="33"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A104" s="33"/>
+      <c r="B104" s="33"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="33"/>
+      <c r="E104" s="33"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A105" s="33"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
+      <c r="E105" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A30:E105"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A27" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:E26"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -4414,51 +5347,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="B2" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>246</v>
+      <c r="B4" s="14" t="s">
+        <v>242</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>248</v>
+      <c r="D4" s="15" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -4502,7 +5435,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>53</v>
@@ -4515,10 +5448,10 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -4526,13 +5459,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>32</v>
@@ -4624,16 +5557,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -4641,16 +5574,16 @@
         <v>5</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -4658,16 +5591,16 @@
         <v>6</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -4675,16 +5608,16 @@
         <v>7</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -4692,16 +5625,16 @@
         <v>8</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -4709,582 +5642,599 @@
         <v>9</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="21" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="21" t="s">
-        <v>251</v>
-      </c>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="7">
+        <v>10</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
+      <c r="A27" s="16" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
+      <c r="A28" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="26"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="26"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
+      <c r="A48" s="33"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="26"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="26"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="26"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="26"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="26"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="26"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="26"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="26"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="26"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
+      <c r="A58" s="33"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="26"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="26"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="26"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="26"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="26"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
+      <c r="A63" s="33"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="26"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="26"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
+      <c r="A65" s="33"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="26"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
+      <c r="A66" s="33"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="26"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
+      <c r="A67" s="33"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" s="26"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
+      <c r="A68" s="33"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="26"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
+      <c r="A69" s="33"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" s="26"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
+      <c r="A70" s="33"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" s="26"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
+      <c r="A71" s="33"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72" s="26"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
+      <c r="A72" s="33"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="33"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="26"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
+      <c r="A73" s="33"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="26"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
+      <c r="A74" s="33"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="26"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="26"/>
+      <c r="A75" s="33"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="33"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="26"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
+      <c r="A76" s="33"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="33"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="26"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
+      <c r="A77" s="33"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="33"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="26"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
+      <c r="A78" s="33"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" s="26"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
+      <c r="A79" s="33"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" s="26"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="26"/>
+      <c r="A80" s="33"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" s="26"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
+      <c r="A81" s="33"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82" s="26"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
+      <c r="A82" s="33"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A83" s="26"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
+      <c r="A83" s="33"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="33"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A84" s="26"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
+      <c r="A84" s="33"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" s="26"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
+      <c r="A85" s="33"/>
+      <c r="B85" s="33"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="33"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A86" s="26"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26"/>
+      <c r="A86" s="33"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="33"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A87" s="26"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
+      <c r="A87" s="33"/>
+      <c r="B87" s="33"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="33"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A88" s="26"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
+      <c r="A88" s="33"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A89" s="26"/>
-      <c r="B89" s="26"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
+      <c r="A89" s="33"/>
+      <c r="B89" s="33"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="33"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A90" s="26"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
+      <c r="A90" s="33"/>
+      <c r="B90" s="33"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="33"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A91" s="26"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
+      <c r="A91" s="33"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="33"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A92" s="26"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
+      <c r="A92" s="33"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A93" s="26"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
+      <c r="A93" s="33"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A94" s="26"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="26"/>
-      <c r="D94" s="26"/>
-      <c r="E94" s="26"/>
+      <c r="A94" s="33"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A95" s="26"/>
-      <c r="B95" s="26"/>
-      <c r="C95" s="26"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="26"/>
+      <c r="A95" s="33"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
+      <c r="E95" s="33"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A96" s="26"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="26"/>
+      <c r="A96" s="33"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A97" s="26"/>
-      <c r="B97" s="26"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="26"/>
-      <c r="E97" s="26"/>
+      <c r="A97" s="33"/>
+      <c r="B97" s="33"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="33"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A98" s="26"/>
-      <c r="B98" s="26"/>
-      <c r="C98" s="26"/>
-      <c r="D98" s="26"/>
-      <c r="E98" s="26"/>
+      <c r="A98" s="33"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="33"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A99" s="26"/>
-      <c r="B99" s="26"/>
-      <c r="C99" s="26"/>
-      <c r="D99" s="26"/>
-      <c r="E99" s="26"/>
+      <c r="A99" s="33"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="33"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A100" s="26"/>
-      <c r="B100" s="26"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="26"/>
-      <c r="E100" s="26"/>
+      <c r="A100" s="33"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="33"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A101" s="26"/>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
-      <c r="D101" s="26"/>
-      <c r="E101" s="26"/>
+      <c r="A101" s="33"/>
+      <c r="B101" s="33"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="33"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A102" s="26"/>
-      <c r="B102" s="26"/>
-      <c r="C102" s="26"/>
-      <c r="D102" s="26"/>
-      <c r="E102" s="26"/>
+      <c r="A102" s="33"/>
+      <c r="B102" s="33"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="33"/>
+      <c r="E102" s="33"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A103" s="33"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
+      <c r="E103" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A27:E102"/>
+    <mergeCell ref="A28:E103"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
-    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:E25"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A24" r:id="rId1"/>
+    <hyperlink ref="A25" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5292,10 +6242,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -5310,51 +6260,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>95</v>
+      <c r="B4" s="14" t="s">
+        <v>268</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>258</v>
+      <c r="D4" s="15" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -5397,24 +6347,24 @@
       <c r="A8" s="7">
         <v>1</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>96</v>
+      <c r="B8" s="7" t="s">
+        <v>267</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>32</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -5500,16 +6450,16 @@
         <v>1</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -5517,16 +6467,16 @@
         <v>2</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -5534,16 +6484,16 @@
         <v>3</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -5551,16 +6501,16 @@
         <v>4</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -5568,16 +6518,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -5585,16 +6535,16 @@
         <v>6</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -5602,16 +6552,16 @@
         <v>7</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -5619,16 +6569,16 @@
         <v>8</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -5636,16 +6586,16 @@
         <v>9</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>31</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -5653,16 +6603,16 @@
         <v>10</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>31</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -5670,16 +6620,16 @@
         <v>11</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
@@ -5687,16 +6637,16 @@
         <v>12</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -5704,16 +6654,16 @@
         <v>13</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -5721,16 +6671,16 @@
         <v>14</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -5738,16 +6688,16 @@
         <v>15</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -5756,13 +6706,13 @@
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -5771,22 +6721,588 @@
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>143</v>
-      </c>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+    </row>
+    <row r="34" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="36"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+    </row>
+    <row r="37" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="39"/>
+    </row>
+    <row r="38" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="40"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="42"/>
+    </row>
+    <row r="39" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="40"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="42"/>
+    </row>
+    <row r="40" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="40"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="42"/>
+    </row>
+    <row r="41" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="40"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="42"/>
+    </row>
+    <row r="42" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="40"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="42"/>
+    </row>
+    <row r="43" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="40"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="42"/>
+    </row>
+    <row r="44" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="40"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="42"/>
+    </row>
+    <row r="45" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="40"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="42"/>
+    </row>
+    <row r="46" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="40"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="42"/>
+    </row>
+    <row r="47" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="40"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="42"/>
+    </row>
+    <row r="48" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="40"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="42"/>
+    </row>
+    <row r="49" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="40"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="42"/>
+    </row>
+    <row r="50" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="40"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="42"/>
+    </row>
+    <row r="51" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="40"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="42"/>
+    </row>
+    <row r="52" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="40"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="42"/>
+    </row>
+    <row r="53" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="40"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="42"/>
+    </row>
+    <row r="54" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="40"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="42"/>
+    </row>
+    <row r="55" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="40"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="42"/>
+    </row>
+    <row r="56" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="40"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="42"/>
+    </row>
+    <row r="57" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="40"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="42"/>
+    </row>
+    <row r="58" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="40"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="42"/>
+    </row>
+    <row r="59" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="40"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="42"/>
+    </row>
+    <row r="60" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="40"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="42"/>
+    </row>
+    <row r="61" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="40"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="42"/>
+    </row>
+    <row r="62" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="40"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="42"/>
+    </row>
+    <row r="63" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="40"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="42"/>
+    </row>
+    <row r="64" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="40"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="42"/>
+    </row>
+    <row r="65" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="40"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="42"/>
+    </row>
+    <row r="66" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="40"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="42"/>
+    </row>
+    <row r="67" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="40"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="42"/>
+    </row>
+    <row r="68" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="43"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="45"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" s="23"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" s="23"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" s="23"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72" s="23"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" s="23"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" s="23"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" s="23"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" s="23"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" s="23"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78" s="23"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79" s="23"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80" s="23"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A81" s="23"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A82" s="23"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A83" s="23"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A84" s="23"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A85" s="23"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A86" s="23"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A87" s="23"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88" s="23"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A89" s="23"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A90" s="23"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A91" s="23"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A92" s="23"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="23"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A93" s="23"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A94" s="23"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A95" s="23"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A96" s="23"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A97" s="23"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A98" s="23"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="23"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A99" s="23"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A100" s="23"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="23"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A101" s="23"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A102" s="23"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="23"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="23"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A103" s="23"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="23"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="23"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A104" s="23"/>
+      <c r="B104" s="23"/>
+      <c r="C104" s="23"/>
+      <c r="D104" s="23"/>
+      <c r="E104" s="23"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A105" s="23"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="23"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="23"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A106" s="23"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="23"/>
+      <c r="D106" s="23"/>
+      <c r="E106" s="23"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A107" s="23"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="23"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="23"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A108" s="23"/>
+      <c r="B108" s="23"/>
+      <c r="C108" s="23"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="23"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A109" s="23"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="23"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="23"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A110" s="23"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="23"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A111" s="23"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="23"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="A37:E68"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A34:E34"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A34" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5795,7 +7311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -5811,45 +7327,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -5899,7 +7415,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>53</v>
@@ -5913,7 +7429,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -5921,21 +7437,21 @@
         <v>2</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -5943,21 +7459,21 @@
         <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -5965,21 +7481,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -5987,21 +7503,21 @@
         <v>5</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -6009,21 +7525,21 @@
         <v>6</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -6031,23 +7547,23 @@
         <v>7</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -6055,21 +7571,21 @@
         <v>8</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -6077,21 +7593,21 @@
         <v>9</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -6099,21 +7615,21 @@
         <v>10</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -6122,18 +7638,18 @@
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -6142,18 +7658,18 @@
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -6265,45 +7781,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -6353,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>53</v>
@@ -6366,10 +7882,10 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -6377,10 +7893,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>50</v>
@@ -6390,10 +7906,10 @@
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -6504,38 +8020,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -6591,7 +8107,7 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>50</v>
@@ -6601,10 +8117,10 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
@@ -6613,7 +8129,7 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>50</v>
@@ -6623,10 +8139,10 @@
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -6653,13 +8169,13 @@
         <v>36</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>37</v>
@@ -6671,7 +8187,7 @@
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>50</v>
@@ -6684,7 +8200,7 @@
         <v>32</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -6693,7 +8209,7 @@
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>50</v>
@@ -6706,7 +8222,7 @@
         <v>32</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -6715,10 +8231,10 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>20</v>
@@ -6728,7 +8244,7 @@
         <v>32</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -6737,10 +8253,10 @@
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>20</v>
@@ -6750,7 +8266,7 @@
         <v>32</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -6783,45 +8299,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -6871,10 +8387,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>50</v>
@@ -6884,10 +8400,10 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -6914,13 +8430,13 @@
         <v>36</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>37</v>
@@ -6931,10 +8447,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>50</v>
@@ -6947,7 +8463,7 @@
         <v>32</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -6955,10 +8471,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>50</v>
@@ -6971,7 +8487,7 @@
         <v>32</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -6979,13 +8495,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>20</v>
@@ -6995,7 +8511,7 @@
         <v>32</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -7003,13 +8519,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>20</v>
@@ -7019,7 +8535,7 @@
         <v>32</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/file/接口文档-测试项目.xlsx
+++ b/src/main/file/接口文档-测试项目.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="810" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="810" firstSheet="9" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="API汇总信息" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="登录时的信息推荐" sheetId="4" r:id="rId4"/>
     <sheet name="用户子女详情" sheetId="5" r:id="rId5"/>
     <sheet name="用户子女补充信息编辑" sheetId="9" r:id="rId6"/>
-    <sheet name="添加到收藏" sheetId="6" r:id="rId7"/>
+    <sheet name="添加或取消收藏" sheetId="6" r:id="rId7"/>
     <sheet name="发现-文章推送" sheetId="7" r:id="rId8"/>
     <sheet name="发现-文章详情" sheetId="10" r:id="rId9"/>
     <sheet name="收藏信息展示" sheetId="11" r:id="rId10"/>
@@ -26,13 +26,15 @@
     <sheet name="意见反馈" sheetId="13" r:id="rId12"/>
     <sheet name="打点数据" sheetId="14" r:id="rId13"/>
     <sheet name="前端根据类型获取字典" sheetId="17" r:id="rId14"/>
+    <sheet name="用户照片上传接口" sheetId="18" r:id="rId15"/>
+    <sheet name="用户头像上传接口" sheetId="20" r:id="rId16"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="300">
   <si>
     <t>汇总信息</t>
   </si>
@@ -902,32 +904,9 @@
     <t>文章在后端的发布时间，排序按照发布时间来排序</t>
   </si>
   <si>
-    <t>api/children/save</t>
-  </si>
-  <si>
     <t>用户的唯一标识ID</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ompany</t>
-    </r>
-  </si>
-  <si>
     <t>用户子女单位情况</t>
   </si>
   <si>
@@ -954,113 +933,30 @@
     <t>用户子女的子女所在单位,字典选择</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>osition</t>
-    </r>
-  </si>
-  <si>
     <t>用户子女职位</t>
   </si>
   <si>
     <t>用户职位情况</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ncome</t>
-    </r>
-  </si>
-  <si>
     <t>用户子女收入</t>
   </si>
   <si>
     <t>用户收入,字典选择</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>eight</t>
-    </r>
-  </si>
-  <si>
     <t>用户子女身高</t>
   </si>
   <si>
     <t>用户身高</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
     <t>用户子女房产情况</t>
   </si>
   <si>
     <t>用户房产情况,字典选择</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ar</t>
-    </r>
-  </si>
-  <si>
     <t>用户子女车辆情况</t>
   </si>
   <si>
@@ -1071,26 +967,6 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>OOLEAN</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>T</t>
     </r>
     <r>
@@ -1107,42 +983,16 @@
     <t>用户车辆情况</t>
   </si>
   <si>
-    <t>schoolType</t>
-  </si>
-  <si>
     <t>用户子女毕业学校情况</t>
   </si>
   <si>
     <t>用户毕业学校情况,字典选择</t>
   </si>
   <si>
-    <t>school</t>
-  </si>
-  <si>
     <t>用户子女毕业学校名称</t>
   </si>
   <si>
     <t>用户毕业学校名称</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>obby</t>
-    </r>
   </si>
   <si>
     <t>用户子女爱好</t>
@@ -1694,29 +1544,6 @@
   </si>
   <si>
     <t>字典类型</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://119.23.220.163:8080/api/dict/query?type=Gender</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "code" : "0000",
-  "msg" : "Success",
-  "detail" : "成功",
-  "data" : [ {
-    "id" : 68,
-    "dictType" : "Gender",
-    "dictValue" : "Male",
-    "dictDesc" : "男"
-  }, {
-    "id" : 69,
-    "dictType" : "Gender",
-    "dictValue" : "Female",
-    "dictDesc" : "女"
-  } ]
-}</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1915,10 +1742,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>http://119.23.220.163:8080/api/commonuser/getDetail?targetUserId=53000</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>{
   "code" : "0000",
   "msg" : "Success",
@@ -2089,6 +1912,496 @@
     "currentLocation" : "上海市,上海市"
   } ]
 }</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ompany</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>STRING</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OOLEAN</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>osition</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ncome</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>eight</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>house</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ar</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>schoolType</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>school</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>obby</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/children/save</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>http://119.23.220.163:8080/</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>api/children/save?token=RIFUeg%2FUZ%2BYs%2BjWDuO8uNg%3D%3D&amp;position=%E9%AB%98%E7%BA%A7UI%E8%AE%BE%E8%AE%A1%E5%B8%88YYY</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "code" : "0000",
+  "msg" : "Success",
+  "detail" : "成功",
+  "data" : null
+}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://119.23.220.163:8080/api/commonuser/getDetail?targetUserId=53000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "code" : "0000",
+  "msg" : "Success",
+  "detail" : "成功",
+  "data" : {
+    "income" : [ {
+      "id" : 81,
+      "dictType" : "Income",
+      "dictValue" : "1",
+      "dictDesc" : "5000以下"
+    }, {
+      "id" : 82,
+      "dictType" : "Income",
+      "dictValue" : "2",
+      "dictDesc" : "5000~10000元"
+    }, {
+      "id" : 83,
+      "dictType" : "Income",
+      "dictValue" : "3",
+      "dictDesc" : "10000~20000元"
+    }, {
+      "id" : 84,
+      "dictType" : "Income",
+      "dictValue" : "4",
+      "dictDesc" : "20000~50000元"
+    }, {
+      "id" : 85,
+      "dictType" : "Income",
+      "dictValue" : "5",
+      "dictDesc" : "50000以上"
+    } ],
+    "education" : [ {
+      "id" : 71,
+      "dictType" : "Education",
+      "dictValue" : "1",
+      "dictDesc" : "高中"
+    }, {
+      "id" : 72,
+      "dictType" : "Education",
+      "dictValue" : "2",
+      "dictDesc" : "大专"
+    }, {
+      "id" : 73,
+      "dictType" : "Education",
+      "dictValue" : "3",
+      "dictDesc" : "本科"
+    }, {
+      "id" : 74,
+      "dictType" : "Education",
+      "dictValue" : "4",
+      "dictDesc" : "硕士"
+    }, {
+      "id" : 75,
+      "dictType" : "Education",
+      "dictValue" : "5",
+      "dictDesc" : "博士"
+    } ],
+    "gender" : [ {
+      "id" : 68,
+      "dictType" : "Gender",
+      "dictValue" : "Male",
+      "dictDesc" : "男"
+    }, {
+      "id" : 69,
+      "dictType" : "Gender",
+      "dictValue" : "Female",
+      "dictDesc" : "女"
+    } ],
+    "companyType" : [ {
+      "id" : 86,
+      "dictType" : "Company",
+      "dictValue" : "1",
+      "dictDesc" : "政府"
+    }, {
+      "id" : 87,
+      "dictType" : "Company",
+      "dictValue" : "2",
+      "dictDesc" : "事业单位"
+    }, {
+      "id" : 88,
+      "dictType" : "Company",
+      "dictValue" : "3",
+      "dictDesc" : "国企"
+    }, {
+      "id" : 89,
+      "dictType" : "Company",
+      "dictValue" : "4",
+      "dictDesc" : "外企"
+    }, {
+      "id" : 90,
+      "dictType" : "Company",
+      "dictValue" : "5",
+      "dictDesc" : "民企"
+    } ],
+    "car" : [ {
+      "id" : 96,
+      "dictType" : "Car",
+      "dictValue" : "true",
+      "dictDesc" : "有车"
+    }, {
+      "id" : 97,
+      "dictType" : "Car",
+      "dictValue" : "false",
+      "dictDesc" : "无车"
+    } ],
+    "userType" : [ {
+      "id" : 1,
+      "dictType" : "USER_TYPE",
+      "dictValue" : "COMMON",
+      "dictDesc" : "普通用户"
+    }, {
+      "id" : 80,
+      "dictType" : "USER_TYPE",
+      "dictValue" : "ROBOT",
+      "dictDesc" : "机器用户"
+    } ],
+    "house" : [ {
+      "id" : 76,
+      "dictType" : "House",
+      "dictValue" : "1",
+      "dictDesc" : "无房产"
+    }, {
+      "id" : 77,
+      "dictType" : "House",
+      "dictValue" : "2",
+      "dictDesc" : "一套房产"
+    }, {
+      "id" : 78,
+      "dictType" : "House",
+      "dictValue" : "3",
+      "dictDesc" : "多套房产"
+    } ]
+  }
+}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://119.23.220.163:8080/api/dict/query</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://119.23.220.163:8080/api/collect/save?token=RIFUeg%2FUZ%2BYs%2BjWDuO8uNg%3D%3D&amp;targetUserId=1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "code" : "0000",
+  "msg" : "Success",
+  "detail" : "成功",
+  "data" : null
+}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加到收藏/取消收藏</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求示例</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://119.23.220.163:8080/api/collect/getAll?token=RIFUeg%2FUZ%2BYs%2BjWDuO8uNg%3D%3D</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "code" : "0000",
+  "msg" : "Success",
+  "detail" : "成功",
+  "data" : [ {
+    "birthday" : "1982",
+    "education" : 72,
+    "name" : "鲁先生",
+    "label" : "公务员",
+    "userId" : 1,
+    "bornLocation" : "安徽,合肥",
+    "currentLocation" : "安徽,合肥"
+  } ]
+}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传照片</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>oken</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>待上传照片</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>token值</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ILE</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/upload/image</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>http://119.23.220.163:8080</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/api/upload/image</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "code" : "0000",
+  "msg" : "Success",
+  "detail" : "成功",
+  "data" : null
+}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/upload/icon</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://119.23.220.163:8080/api/upload/icon</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2342,7 +2655,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2374,6 +2687,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2398,9 +2712,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2409,6 +2720,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2445,6 +2759,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2869,7 +3186,7 @@
     </row>
     <row r="15" spans="1:1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A15" s="20" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2886,10 +3203,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -2904,45 +3221,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="B3" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -3008,7 +3325,7 @@
         <v>89</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -3019,7 +3336,7 @@
         <v>92</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>94</v>
@@ -3032,7 +3349,7 @@
         <v>89</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -3113,13 +3430,152 @@
         <v>48</v>
       </c>
     </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+    </row>
+    <row r="18" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+    </row>
+    <row r="21" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="A21:E34"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A18:E18"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A18" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3143,38 +3599,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="B3" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -3230,7 +3686,7 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="8" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>50</v>
@@ -3243,7 +3699,7 @@
         <v>89</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -3288,7 +3744,7 @@
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="8" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>50</v>
@@ -3301,7 +3757,7 @@
         <v>32</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -3310,10 +3766,10 @@
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="8" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>20</v>
@@ -3323,7 +3779,7 @@
         <v>32</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -3332,7 +3788,7 @@
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="8" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>50</v>
@@ -3345,7 +3801,7 @@
         <v>32</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
@@ -3354,7 +3810,7 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="8" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>50</v>
@@ -3367,7 +3823,7 @@
         <v>32</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
@@ -3376,10 +3832,10 @@
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="8" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>20</v>
@@ -3389,7 +3845,7 @@
         <v>32</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3423,45 +3879,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="B3" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -3511,10 +3967,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>50</v>
@@ -3527,7 +3983,7 @@
         <v>89</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -3535,10 +3991,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>50</v>
@@ -3551,7 +4007,7 @@
         <v>32</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -3559,10 +4015,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>81</v>
@@ -3575,7 +4031,7 @@
         <v>32</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -3684,10 +4140,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:E17"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -3699,51 +4155,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>256</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="B2" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="B3" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -3787,10 +4243,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>50</v>
@@ -3803,7 +4259,7 @@
         <v>89</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -3886,12 +4342,12 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A17" s="34" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
@@ -3900,12 +4356,12 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="31" t="s">
-        <v>262</v>
+      <c r="A20" s="32" t="s">
+        <v>278</v>
       </c>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
@@ -4024,19 +4480,983 @@
       <c r="D36" s="32"/>
       <c r="E36" s="32"/>
     </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="32"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="32"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="32"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="32"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="32"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="32"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" s="32"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" s="32"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" s="32"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" s="32"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" s="32"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" s="32"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" s="32"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" s="32"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" s="32"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" s="32"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" s="32"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" s="32"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" s="32"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72" s="32"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" s="32"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" s="32"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A20:E74"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A20:E36"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A17" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="35.1640625" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+    </row>
+    <row r="11" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="7">
+        <v>1</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="7">
+        <v>2</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="7">
+        <v>3</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+    </row>
+    <row r="18" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A21:E26"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A18" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="35.1640625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="23" style="24" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" style="24" customWidth="1"/>
+    <col min="9" max="16384" width="9.33203125" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="7">
+        <v>1</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="7">
+        <v>2</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="7">
+        <v>3</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A21:E26"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A18" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4061,51 +5481,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -4261,80 +5681,80 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
+      <c r="A18" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
+      <c r="A21" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4357,7 +5777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -4374,38 +5794,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -4418,7 +5838,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -4462,7 +5882,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>58</v>
@@ -4484,7 +5904,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>60</v>
@@ -4506,7 +5926,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>63</v>
@@ -4730,21 +6150,21 @@
         <v>10</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -4753,7 +6173,7 @@
     </row>
     <row r="27" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A27" s="34" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
@@ -4769,7 +6189,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -4777,538 +6197,538 @@
       <c r="E29" s="22"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="33" t="s">
-        <v>275</v>
-      </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
+      <c r="A30" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="33"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="33"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="33"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="33"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="33"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="33"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="33"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="33"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="33"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="33"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="33"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="33"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="33"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="33"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="33"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="33"/>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="33"/>
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="33"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="33"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="33"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="33"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="33"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="33"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="33"/>
-      <c r="B64" s="33"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
+      <c r="A64" s="37"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="33"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="33"/>
-      <c r="B66" s="33"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="33"/>
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
+      <c r="A67" s="37"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" s="33"/>
-      <c r="B68" s="33"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="33"/>
-      <c r="B69" s="33"/>
-      <c r="C69" s="33"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="33"/>
+      <c r="A69" s="37"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" s="33"/>
-      <c r="B70" s="33"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" s="33"/>
-      <c r="B71" s="33"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="33"/>
+      <c r="A71" s="37"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72" s="33"/>
-      <c r="B72" s="33"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33"/>
-      <c r="E72" s="33"/>
+      <c r="A72" s="37"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="37"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="33"/>
-      <c r="B73" s="33"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33"/>
+      <c r="A73" s="37"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="33"/>
-      <c r="B74" s="33"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="33"/>
-      <c r="B75" s="33"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33"/>
-      <c r="E75" s="33"/>
+      <c r="A75" s="37"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="33"/>
-      <c r="B76" s="33"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="33"/>
-      <c r="B77" s="33"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33"/>
-      <c r="E77" s="33"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="37"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="33"/>
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
+      <c r="A78" s="37"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="37"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" s="33"/>
-      <c r="B79" s="33"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="33"/>
+      <c r="A79" s="37"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" s="33"/>
-      <c r="B80" s="33"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33"/>
+      <c r="A80" s="37"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="37"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" s="33"/>
-      <c r="B81" s="33"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="33"/>
+      <c r="A81" s="37"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="37"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="37"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82" s="33"/>
-      <c r="B82" s="33"/>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
-      <c r="E82" s="33"/>
+      <c r="A82" s="37"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="37"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="37"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A83" s="33"/>
-      <c r="B83" s="33"/>
-      <c r="C83" s="33"/>
-      <c r="D83" s="33"/>
-      <c r="E83" s="33"/>
+      <c r="A83" s="37"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A84" s="33"/>
-      <c r="B84" s="33"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
+      <c r="A84" s="37"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" s="33"/>
-      <c r="B85" s="33"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33"/>
+      <c r="A85" s="37"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A86" s="33"/>
-      <c r="B86" s="33"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
+      <c r="A86" s="37"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="37"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A87" s="33"/>
-      <c r="B87" s="33"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33"/>
+      <c r="A87" s="37"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="37"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A88" s="33"/>
-      <c r="B88" s="33"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
+      <c r="A88" s="37"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="37"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A89" s="33"/>
-      <c r="B89" s="33"/>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="33"/>
+      <c r="A89" s="37"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="37"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A90" s="33"/>
-      <c r="B90" s="33"/>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="33"/>
+      <c r="A90" s="37"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="37"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A91" s="33"/>
-      <c r="B91" s="33"/>
-      <c r="C91" s="33"/>
-      <c r="D91" s="33"/>
-      <c r="E91" s="33"/>
+      <c r="A91" s="37"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="37"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A92" s="33"/>
-      <c r="B92" s="33"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="33"/>
+      <c r="A92" s="37"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="37"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A93" s="33"/>
-      <c r="B93" s="33"/>
-      <c r="C93" s="33"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="33"/>
+      <c r="A93" s="37"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A94" s="33"/>
-      <c r="B94" s="33"/>
-      <c r="C94" s="33"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="33"/>
+      <c r="A94" s="37"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="37"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A95" s="33"/>
-      <c r="B95" s="33"/>
-      <c r="C95" s="33"/>
-      <c r="D95" s="33"/>
-      <c r="E95" s="33"/>
+      <c r="A95" s="37"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="37"/>
+      <c r="D95" s="37"/>
+      <c r="E95" s="37"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A96" s="33"/>
-      <c r="B96" s="33"/>
-      <c r="C96" s="33"/>
-      <c r="D96" s="33"/>
-      <c r="E96" s="33"/>
+      <c r="A96" s="37"/>
+      <c r="B96" s="37"/>
+      <c r="C96" s="37"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="37"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A97" s="33"/>
-      <c r="B97" s="33"/>
-      <c r="C97" s="33"/>
-      <c r="D97" s="33"/>
-      <c r="E97" s="33"/>
+      <c r="A97" s="37"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="37"/>
+      <c r="D97" s="37"/>
+      <c r="E97" s="37"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A98" s="33"/>
-      <c r="B98" s="33"/>
-      <c r="C98" s="33"/>
-      <c r="D98" s="33"/>
-      <c r="E98" s="33"/>
+      <c r="A98" s="37"/>
+      <c r="B98" s="37"/>
+      <c r="C98" s="37"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="37"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A99" s="33"/>
-      <c r="B99" s="33"/>
-      <c r="C99" s="33"/>
-      <c r="D99" s="33"/>
-      <c r="E99" s="33"/>
+      <c r="A99" s="37"/>
+      <c r="B99" s="37"/>
+      <c r="C99" s="37"/>
+      <c r="D99" s="37"/>
+      <c r="E99" s="37"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A100" s="33"/>
-      <c r="B100" s="33"/>
-      <c r="C100" s="33"/>
-      <c r="D100" s="33"/>
-      <c r="E100" s="33"/>
+      <c r="A100" s="37"/>
+      <c r="B100" s="37"/>
+      <c r="C100" s="37"/>
+      <c r="D100" s="37"/>
+      <c r="E100" s="37"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A101" s="33"/>
-      <c r="B101" s="33"/>
-      <c r="C101" s="33"/>
-      <c r="D101" s="33"/>
-      <c r="E101" s="33"/>
+      <c r="A101" s="37"/>
+      <c r="B101" s="37"/>
+      <c r="C101" s="37"/>
+      <c r="D101" s="37"/>
+      <c r="E101" s="37"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A102" s="33"/>
-      <c r="B102" s="33"/>
-      <c r="C102" s="33"/>
-      <c r="D102" s="33"/>
-      <c r="E102" s="33"/>
+      <c r="A102" s="37"/>
+      <c r="B102" s="37"/>
+      <c r="C102" s="37"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="37"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A103" s="33"/>
-      <c r="B103" s="33"/>
-      <c r="C103" s="33"/>
-      <c r="D103" s="33"/>
-      <c r="E103" s="33"/>
+      <c r="A103" s="37"/>
+      <c r="B103" s="37"/>
+      <c r="C103" s="37"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="37"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A104" s="33"/>
-      <c r="B104" s="33"/>
-      <c r="C104" s="33"/>
-      <c r="D104" s="33"/>
-      <c r="E104" s="33"/>
+      <c r="A104" s="37"/>
+      <c r="B104" s="37"/>
+      <c r="C104" s="37"/>
+      <c r="D104" s="37"/>
+      <c r="E104" s="37"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A105" s="33"/>
-      <c r="B105" s="33"/>
-      <c r="C105" s="33"/>
-      <c r="D105" s="33"/>
-      <c r="E105" s="33"/>
+      <c r="A105" s="37"/>
+      <c r="B105" s="37"/>
+      <c r="C105" s="37"/>
+      <c r="D105" s="37"/>
+      <c r="E105" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5347,51 +6767,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -5435,7 +6855,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>53</v>
@@ -5459,7 +6879,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>66</v>
@@ -5557,7 +6977,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>69</v>
@@ -5574,7 +6994,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>72</v>
@@ -5591,7 +7011,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>75</v>
@@ -5608,7 +7028,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>78</v>
@@ -5642,7 +7062,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>84</v>
@@ -5659,26 +7079,26 @@
         <v>10</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A25" s="34" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -5687,542 +7107,542 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
+      <c r="A28" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="33"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="33"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="33"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="33"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="33"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="33"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="33"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="33"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="33"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="33"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="33"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="33"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="33"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="33"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="33"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="33"/>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="33"/>
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="33"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="33"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="33"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="33"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="33"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="33"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="33"/>
-      <c r="B64" s="33"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
+      <c r="A64" s="37"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="33"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="33"/>
-      <c r="B66" s="33"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="33"/>
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
+      <c r="A67" s="37"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" s="33"/>
-      <c r="B68" s="33"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="33"/>
-      <c r="B69" s="33"/>
-      <c r="C69" s="33"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="33"/>
+      <c r="A69" s="37"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" s="33"/>
-      <c r="B70" s="33"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" s="33"/>
-      <c r="B71" s="33"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="33"/>
+      <c r="A71" s="37"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72" s="33"/>
-      <c r="B72" s="33"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33"/>
-      <c r="E72" s="33"/>
+      <c r="A72" s="37"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="37"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="33"/>
-      <c r="B73" s="33"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33"/>
+      <c r="A73" s="37"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="33"/>
-      <c r="B74" s="33"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="33"/>
-      <c r="B75" s="33"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33"/>
-      <c r="E75" s="33"/>
+      <c r="A75" s="37"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="33"/>
-      <c r="B76" s="33"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="33"/>
-      <c r="B77" s="33"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33"/>
-      <c r="E77" s="33"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="37"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="33"/>
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
+      <c r="A78" s="37"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="37"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" s="33"/>
-      <c r="B79" s="33"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="33"/>
+      <c r="A79" s="37"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" s="33"/>
-      <c r="B80" s="33"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33"/>
+      <c r="A80" s="37"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="37"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" s="33"/>
-      <c r="B81" s="33"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="33"/>
+      <c r="A81" s="37"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="37"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="37"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82" s="33"/>
-      <c r="B82" s="33"/>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
-      <c r="E82" s="33"/>
+      <c r="A82" s="37"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="37"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="37"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A83" s="33"/>
-      <c r="B83" s="33"/>
-      <c r="C83" s="33"/>
-      <c r="D83" s="33"/>
-      <c r="E83" s="33"/>
+      <c r="A83" s="37"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A84" s="33"/>
-      <c r="B84" s="33"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
+      <c r="A84" s="37"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" s="33"/>
-      <c r="B85" s="33"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33"/>
+      <c r="A85" s="37"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A86" s="33"/>
-      <c r="B86" s="33"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
+      <c r="A86" s="37"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="37"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A87" s="33"/>
-      <c r="B87" s="33"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33"/>
+      <c r="A87" s="37"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="37"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A88" s="33"/>
-      <c r="B88" s="33"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
+      <c r="A88" s="37"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="37"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A89" s="33"/>
-      <c r="B89" s="33"/>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="33"/>
+      <c r="A89" s="37"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="37"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A90" s="33"/>
-      <c r="B90" s="33"/>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="33"/>
+      <c r="A90" s="37"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="37"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A91" s="33"/>
-      <c r="B91" s="33"/>
-      <c r="C91" s="33"/>
-      <c r="D91" s="33"/>
-      <c r="E91" s="33"/>
+      <c r="A91" s="37"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="37"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A92" s="33"/>
-      <c r="B92" s="33"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="33"/>
+      <c r="A92" s="37"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="37"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A93" s="33"/>
-      <c r="B93" s="33"/>
-      <c r="C93" s="33"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="33"/>
+      <c r="A93" s="37"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A94" s="33"/>
-      <c r="B94" s="33"/>
-      <c r="C94" s="33"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="33"/>
+      <c r="A94" s="37"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="37"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A95" s="33"/>
-      <c r="B95" s="33"/>
-      <c r="C95" s="33"/>
-      <c r="D95" s="33"/>
-      <c r="E95" s="33"/>
+      <c r="A95" s="37"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="37"/>
+      <c r="D95" s="37"/>
+      <c r="E95" s="37"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A96" s="33"/>
-      <c r="B96" s="33"/>
-      <c r="C96" s="33"/>
-      <c r="D96" s="33"/>
-      <c r="E96" s="33"/>
+      <c r="A96" s="37"/>
+      <c r="B96" s="37"/>
+      <c r="C96" s="37"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="37"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A97" s="33"/>
-      <c r="B97" s="33"/>
-      <c r="C97" s="33"/>
-      <c r="D97" s="33"/>
-      <c r="E97" s="33"/>
+      <c r="A97" s="37"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="37"/>
+      <c r="D97" s="37"/>
+      <c r="E97" s="37"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A98" s="33"/>
-      <c r="B98" s="33"/>
-      <c r="C98" s="33"/>
-      <c r="D98" s="33"/>
-      <c r="E98" s="33"/>
+      <c r="A98" s="37"/>
+      <c r="B98" s="37"/>
+      <c r="C98" s="37"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="37"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A99" s="33"/>
-      <c r="B99" s="33"/>
-      <c r="C99" s="33"/>
-      <c r="D99" s="33"/>
-      <c r="E99" s="33"/>
+      <c r="A99" s="37"/>
+      <c r="B99" s="37"/>
+      <c r="C99" s="37"/>
+      <c r="D99" s="37"/>
+      <c r="E99" s="37"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A100" s="33"/>
-      <c r="B100" s="33"/>
-      <c r="C100" s="33"/>
-      <c r="D100" s="33"/>
-      <c r="E100" s="33"/>
+      <c r="A100" s="37"/>
+      <c r="B100" s="37"/>
+      <c r="C100" s="37"/>
+      <c r="D100" s="37"/>
+      <c r="E100" s="37"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A101" s="33"/>
-      <c r="B101" s="33"/>
-      <c r="C101" s="33"/>
-      <c r="D101" s="33"/>
-      <c r="E101" s="33"/>
+      <c r="A101" s="37"/>
+      <c r="B101" s="37"/>
+      <c r="C101" s="37"/>
+      <c r="D101" s="37"/>
+      <c r="E101" s="37"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A102" s="33"/>
-      <c r="B102" s="33"/>
-      <c r="C102" s="33"/>
-      <c r="D102" s="33"/>
-      <c r="E102" s="33"/>
+      <c r="A102" s="37"/>
+      <c r="B102" s="37"/>
+      <c r="C102" s="37"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="37"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A103" s="33"/>
-      <c r="B103" s="33"/>
-      <c r="C103" s="33"/>
-      <c r="D103" s="33"/>
-      <c r="E103" s="33"/>
+      <c r="A103" s="37"/>
+      <c r="B103" s="37"/>
+      <c r="C103" s="37"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6244,8 +7664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -6260,51 +7680,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -6348,7 +7768,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>93</v>
@@ -6732,7 +8152,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -6741,7 +8161,7 @@
     </row>
     <row r="34" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A34" s="34" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
@@ -6757,7 +8177,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
@@ -6765,230 +8185,230 @@
       <c r="E36" s="21"/>
     </row>
     <row r="37" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="39"/>
+      <c r="A37" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="40"/>
     </row>
     <row r="38" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="40"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="42"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="43"/>
     </row>
     <row r="39" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="40"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="42"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="43"/>
     </row>
     <row r="40" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="40"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="42"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="43"/>
     </row>
     <row r="41" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="40"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="42"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="43"/>
     </row>
     <row r="42" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="40"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="42"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="43"/>
     </row>
     <row r="43" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="40"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="42"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="43"/>
     </row>
     <row r="44" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="40"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="42"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="43"/>
     </row>
     <row r="45" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="40"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="42"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="43"/>
     </row>
     <row r="46" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="40"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="42"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="43"/>
     </row>
     <row r="47" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="40"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="42"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="43"/>
     </row>
     <row r="48" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="40"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="42"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="43"/>
     </row>
     <row r="49" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="40"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="42"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="43"/>
     </row>
     <row r="50" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="40"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="42"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="43"/>
     </row>
     <row r="51" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="40"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="42"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="43"/>
     </row>
     <row r="52" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="40"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="42"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="43"/>
     </row>
     <row r="53" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="40"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="42"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="43"/>
     </row>
     <row r="54" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="40"/>
-      <c r="B54" s="41"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="42"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="43"/>
     </row>
     <row r="55" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="40"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="42"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="43"/>
     </row>
     <row r="56" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="40"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="42"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="43"/>
     </row>
     <row r="57" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="40"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="42"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="43"/>
     </row>
     <row r="58" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="40"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="42"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="43"/>
     </row>
     <row r="59" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="40"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="42"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="43"/>
     </row>
     <row r="60" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="40"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="42"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="43"/>
     </row>
     <row r="61" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="40"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="42"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="43"/>
     </row>
     <row r="62" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="40"/>
-      <c r="B62" s="41"/>
-      <c r="C62" s="41"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="42"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="43"/>
     </row>
     <row r="63" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="40"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="42"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="43"/>
     </row>
     <row r="64" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="40"/>
-      <c r="B64" s="41"/>
-      <c r="C64" s="41"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="42"/>
+      <c r="A64" s="41"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="43"/>
     </row>
     <row r="65" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="40"/>
-      <c r="B65" s="41"/>
-      <c r="C65" s="41"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="42"/>
+      <c r="A65" s="41"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="43"/>
     </row>
     <row r="66" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="40"/>
-      <c r="B66" s="41"/>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="42"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="43"/>
     </row>
     <row r="67" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="40"/>
-      <c r="B67" s="41"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="42"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="43"/>
     </row>
     <row r="68" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="43"/>
-      <c r="B68" s="44"/>
-      <c r="C68" s="44"/>
-      <c r="D68" s="44"/>
-      <c r="E68" s="45"/>
+      <c r="A68" s="44"/>
+      <c r="B68" s="45"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="46"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="23"/>
@@ -7309,10 +8729,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -7327,45 +8747,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>159</v>
+      <c r="B4" s="17" t="s">
+        <v>274</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -7429,21 +8849,21 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>2</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>163</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>89</v>
@@ -7451,21 +8871,21 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>3</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>165</v>
+      <c r="B10" s="18" t="s">
+        <v>266</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D10" s="8" t="s">
         <v>163</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>263</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>89</v>
@@ -7473,18 +8893,18 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>4</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>168</v>
+      <c r="B11" s="18" t="s">
+        <v>267</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>61</v>
@@ -7495,18 +8915,18 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>5</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>171</v>
+      <c r="B12" s="18" t="s">
+        <v>268</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>31</v>
@@ -7517,21 +8937,21 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>6</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>174</v>
+      <c r="B13" s="18" t="s">
+        <v>269</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>61</v>
+        <v>169</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>264</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>89</v>
@@ -7539,45 +8959,45 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>7</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>177</v>
+      <c r="B14" s="18" t="s">
+        <v>270</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>179</v>
+        <v>171</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>265</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>89</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="8" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>8</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>182</v>
+      <c r="B15" s="18" t="s">
+        <v>271</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>89</v>
@@ -7585,18 +9005,18 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="8" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>9</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>185</v>
+      <c r="B16" s="18" t="s">
+        <v>272</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>50</v>
@@ -7607,18 +9027,18 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>10</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>188</v>
+      <c r="B17" s="18" t="s">
+        <v>273</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>50</v>
@@ -7629,7 +9049,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -7638,7 +9058,7 @@
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="8" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>50</v>
@@ -7649,7 +9069,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -7658,7 +9078,7 @@
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="8" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>138</v>
@@ -7669,7 +9089,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -7750,23 +9170,96 @@
         <v>48</v>
       </c>
     </row>
+    <row r="27" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="36"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A32:E36"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A29" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -7781,38 +9274,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="B2" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -7990,13 +9483,93 @@
         <v>48</v>
       </c>
     </row>
+    <row r="17" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="24" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A22:E27"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A19" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8020,38 +9593,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -8299,45 +9872,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="B3" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -8387,10 +9960,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>50</v>
@@ -8403,7 +9976,7 @@
         <v>89</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -8447,7 +10020,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>153</v>
@@ -8471,7 +10044,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>155</v>
@@ -8495,13 +10068,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>20</v>
@@ -8511,7 +10084,7 @@
         <v>32</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -8519,7 +10092,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>157</v>

--- a/src/main/file/接口文档-测试项目.xlsx
+++ b/src/main/file/接口文档-测试项目.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="810" firstSheet="9" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="810"/>
   </bookViews>
   <sheets>
     <sheet name="API汇总信息" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="300">
   <si>
     <t>汇总信息</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>发现-文章推送</t>
-  </si>
-  <si>
-    <t>用户基础信息编辑</t>
   </si>
   <si>
     <t>用户补充信息编辑</t>
@@ -1160,12 +1157,6 @@
     <t>用户的唯一标识码</t>
   </si>
   <si>
-    <t>收藏的用户id</t>
-  </si>
-  <si>
-    <t>收藏的用户编号</t>
-  </si>
-  <si>
     <t>用户消息提醒的集合</t>
   </si>
   <si>
@@ -1291,56 +1282,10 @@
     <t>api/feedback/save</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>serId</t>
-    </r>
-  </si>
-  <si>
     <t>反馈内容</t>
   </si>
   <si>
     <t>反馈意见的内容</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ommitTime</t>
-    </r>
-  </si>
-  <si>
-    <t>反馈时间</t>
-  </si>
-  <si>
-    <t>反馈意见的提交时间</t>
   </si>
   <si>
     <t>api/commonuser/login</t>
@@ -2402,6 +2347,60 @@
   </si>
   <si>
     <t>http://119.23.220.163:8080/api/upload/icon</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>用户t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>oken</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录之后的识别码</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>http://119.23.220.163:8080</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/api/feedback/save?token=RIFUeg%2FUZ%2BYs%2BjWDuO8uNg%3D%3D&amp;content=%E4%BD%A0%E8%BF%99%E4%B8%AA%E5%A4%A7%E5%82%BB%E9%80%BC%E5%93%88%E5%93%88%E5%93%88%E5%93%88%E5%93%88</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片上传</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像上传</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户基础信息添加</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2672,7 +2671,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2686,6 +2684,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2751,6 +2750,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2759,9 +2761,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3103,10 +3102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -3120,73 +3119,83 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="15" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13" t="s">
+    <row r="11" spans="1:1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="13" t="s">
+    <row r="13" spans="1:1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="13" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="15" spans="1:1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="20" t="s">
-        <v>243</v>
+      <c r="A15" s="19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="19" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="19" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -3195,6 +3204,14 @@
     <hyperlink ref="A2" location="账号登录!A1" display="账号注册\登录"/>
     <hyperlink ref="A4" location="登录时的信息推荐!A1" display="登陆时的信息推荐"/>
     <hyperlink ref="A15" location="前端根据类型获取字典!A1" display="获取字典接口"/>
+    <hyperlink ref="A16" location="用户照片上传接口!A1" display="照片上传"/>
+    <hyperlink ref="A17" location="用户头像上传接口!A1" display="头像上传"/>
+    <hyperlink ref="A13" location="意见反馈!A1" display="意见反馈"/>
+    <hyperlink ref="A11" location="收藏信息展示!A1" display="收藏信息展示"/>
+    <hyperlink ref="A9" location="用户子女补充信息编辑!A1" display="用户补充信息编辑"/>
+    <hyperlink ref="A6" location="添加或取消收藏!A1" display="添加到收藏"/>
+    <hyperlink ref="A5" location="用户子女详情!A1" display="用户子女详情"/>
+    <hyperlink ref="A3" location="未登录时的信息推荐!A1" display="未登录时的信息推荐"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3203,10 +3220,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -3232,10 +3249,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -3244,10 +3261,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -3256,52 +3273,52 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -3309,165 +3326,148 @@
         <v>1</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
-        <v>2</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="A12" s="7">
+        <v>1</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>37</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="E13" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="7">
-        <v>3</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-    </row>
-    <row r="18" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+    </row>
+    <row r="17" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-    </row>
-    <row r="21" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="32" t="s">
-        <v>285</v>
-      </c>
+      <c r="A19" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+    </row>
+    <row r="20" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
       <c r="D21" s="32"/>
@@ -3557,24 +3557,17 @@
       <c r="D33" s="32"/>
       <c r="E33" s="32"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A21:E34"/>
+    <mergeCell ref="A20:E33"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
-    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A17:E17"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A18" r:id="rId1"/>
+    <hyperlink ref="A17" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3610,10 +3603,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -3622,10 +3615,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -3634,50 +3627,50 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -3686,56 +3679,56 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -3744,20 +3737,20 @@
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -3766,20 +3759,20 @@
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -3788,20 +3781,20 @@
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
@@ -3810,20 +3803,20 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
@@ -3832,20 +3825,20 @@
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3861,10 +3854,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -3890,10 +3883,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -3902,10 +3895,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -3914,76 +3907,76 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>1</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>202</v>
+      <c r="B8" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>294</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>198</v>
+        <v>88</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -3991,135 +3984,195 @@
         <v>2</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
-        <v>3</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="A13" s="7">
+        <v>1</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>37</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="E14" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="7">
-        <v>3</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>48</v>
-      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+    </row>
+    <row r="18" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A21:E26"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A18" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4166,10 +4219,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>245</v>
+        <v>13</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>238</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -4178,115 +4231,115 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
+        <v>14</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>244</v>
+      <c r="D4" s="14" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>1</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>249</v>
+      <c r="B8" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>242</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -4294,16 +4347,16 @@
         <v>1</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -4311,16 +4364,16 @@
         <v>2</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -4328,26 +4381,26 @@
         <v>3</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="16" t="s">
-        <v>235</v>
+      <c r="A16" s="15" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A17" s="34" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
@@ -4355,13 +4408,13 @@
       <c r="E17" s="36"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="16" t="s">
-        <v>236</v>
+      <c r="A19" s="15" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="32" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
@@ -4794,307 +4847,307 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>286</v>
+        <v>13</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>279</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
       <c r="F2" s="27"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>286</v>
-      </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+        <v>14</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
+      <c r="D4" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
+      <c r="A5" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
+        <v>20</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>1</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>291</v>
+      <c r="B8" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>284</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>2</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>293</v>
+      <c r="B9" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>286</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
+      <c r="A10" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
     </row>
     <row r="11" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
+        <v>32</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>1</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>2</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>3</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
+      <c r="A17" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A18" s="34" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
       <c r="E18" s="36"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
+      <c r="A20" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="32" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
@@ -5157,21 +5210,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A18" sqref="A18:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="35.1640625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="51.6640625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" style="24" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="23" style="24" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" style="24" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" style="24" customWidth="1"/>
-    <col min="9" max="16384" width="9.33203125" style="24"/>
+    <col min="1" max="1" width="35.1640625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="23" style="23" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" style="23" customWidth="1"/>
+    <col min="9" max="16384" width="9.33203125" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -5186,10 +5239,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>286</v>
+        <v>13</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>279</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -5198,135 +5251,135 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>286</v>
-      </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
+        <v>14</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>287</v>
+      <c r="D4" s="14" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="24" t="s">
-        <v>20</v>
+      <c r="A5" s="23" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>1</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>291</v>
+      <c r="B8" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>284</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>2</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>293</v>
+      <c r="B9" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>286</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="24" t="s">
-        <v>20</v>
+      <c r="A10" s="23" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -5334,16 +5387,16 @@
         <v>1</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -5351,16 +5404,16 @@
         <v>2</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -5368,26 +5421,26 @@
         <v>3</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="16" t="s">
-        <v>235</v>
+      <c r="A17" s="15" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A18" s="34" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
@@ -5395,13 +5448,13 @@
       <c r="E18" s="36"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="16" t="s">
-        <v>236</v>
+      <c r="A20" s="15" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="32" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
@@ -5492,10 +5545,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -5504,10 +5557,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>16</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -5516,49 +5569,49 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -5566,49 +5619,49 @@
         <v>1</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="D8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -5616,16 +5669,16 @@
         <v>1</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -5633,16 +5686,16 @@
         <v>2</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -5650,16 +5703,16 @@
         <v>3</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -5667,26 +5720,26 @@
         <v>4</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="16" t="s">
-        <v>237</v>
+      <c r="A17" s="15" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A18" s="30" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
@@ -5694,13 +5747,13 @@
       <c r="E18" s="31"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="16" t="s">
-        <v>240</v>
+      <c r="A20" s="15" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="32" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
@@ -5805,7 +5858,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>2</v>
@@ -5817,10 +5870,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -5829,120 +5882,120 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>234</v>
+      <c r="D4" s="14" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>1</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>257</v>
+      <c r="B8" s="17" t="s">
+        <v>250</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>2</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>258</v>
+      <c r="B9" s="17" t="s">
+        <v>251</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>61</v>
-      </c>
       <c r="E9" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>3</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>259</v>
+      <c r="B10" s="17" t="s">
+        <v>252</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -5950,16 +6003,16 @@
         <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="E11" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -5967,29 +6020,29 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -5997,16 +6050,16 @@
         <v>1</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -6014,16 +6067,16 @@
         <v>2</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="D16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -6031,16 +6084,16 @@
         <v>3</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="E17" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -6048,16 +6101,16 @@
         <v>4</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="D18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -6065,16 +6118,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -6082,16 +6135,16 @@
         <v>6</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="D20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -6099,16 +6152,16 @@
         <v>7</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="D21" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -6116,16 +6169,16 @@
         <v>8</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -6133,16 +6186,16 @@
         <v>9</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -6150,30 +6203,30 @@
         <v>10</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
+      <c r="A26" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
     </row>
     <row r="27" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A27" s="34" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
@@ -6181,24 +6234,24 @@
       <c r="E27" s="36"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
+      <c r="A29" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="37" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -6778,10 +6831,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -6790,10 +6843,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -6802,52 +6855,52 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>233</v>
+      <c r="D4" s="14" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -6855,23 +6908,23 @@
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -6879,16 +6932,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="E9" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -6896,29 +6949,29 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -6926,16 +6979,16 @@
         <v>1</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -6943,16 +6996,16 @@
         <v>2</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -6960,16 +7013,16 @@
         <v>3</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -6977,16 +7030,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -6994,16 +7047,16 @@
         <v>5</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -7011,16 +7064,16 @@
         <v>6</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -7028,16 +7081,16 @@
         <v>7</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -7045,16 +7098,16 @@
         <v>8</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="E20" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -7062,16 +7115,16 @@
         <v>9</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -7079,26 +7132,26 @@
         <v>10</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="16" t="s">
-        <v>235</v>
+      <c r="A24" s="15" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A25" s="34" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -7106,13 +7159,13 @@
       <c r="E25" s="36"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="16" t="s">
-        <v>236</v>
+      <c r="A27" s="15" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="37" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
@@ -7664,7 +7717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A34" sqref="A34:E34"/>
     </sheetView>
   </sheetViews>
@@ -7691,7 +7744,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>4</v>
@@ -7703,10 +7756,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -7715,52 +7768,52 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>242</v>
+      <c r="D4" s="14" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -7768,50 +7821,50 @@
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>94</v>
-      </c>
       <c r="E8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -7819,16 +7872,16 @@
         <v>1</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -7836,16 +7889,16 @@
         <v>2</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -7853,16 +7906,16 @@
         <v>3</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -7870,16 +7923,16 @@
         <v>1</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -7887,16 +7940,16 @@
         <v>2</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -7904,16 +7957,16 @@
         <v>3</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -7921,16 +7974,16 @@
         <v>4</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -7938,16 +7991,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -7955,16 +8008,16 @@
         <v>6</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="D20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -7972,16 +8025,16 @@
         <v>7</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -7989,16 +8042,16 @@
         <v>8</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="D22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -8006,16 +8059,16 @@
         <v>9</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="D23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -8023,16 +8076,16 @@
         <v>10</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="D24" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -8040,16 +8093,16 @@
         <v>11</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>126</v>
-      </c>
       <c r="D25" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
@@ -8057,16 +8110,16 @@
         <v>12</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="D26" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -8074,16 +8127,16 @@
         <v>13</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="D27" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -8091,16 +8144,16 @@
         <v>14</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="D28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -8108,16 +8161,16 @@
         <v>15</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="D29" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -8126,13 +8179,13 @@
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -8141,27 +8194,27 @@
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>139</v>
-      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
+      <c r="A33" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
     </row>
     <row r="34" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A34" s="34" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
@@ -8169,24 +8222,24 @@
       <c r="E34" s="36"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
+      <c r="A36" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
     </row>
     <row r="37" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="38" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
@@ -8411,305 +8464,305 @@
       <c r="E68" s="46"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="23"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
+      <c r="A69" s="22"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" s="23"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
+      <c r="A70" s="22"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" s="23"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
+      <c r="A71" s="22"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72" s="23"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
+      <c r="A72" s="22"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="23"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
+      <c r="A73" s="22"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="23"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
+      <c r="A74" s="22"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="23"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
+      <c r="A75" s="22"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="23"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
+      <c r="A76" s="22"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="23"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
+      <c r="A77" s="22"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="23"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
+      <c r="A78" s="22"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" s="23"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
+      <c r="A79" s="22"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" s="23"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
+      <c r="A80" s="22"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" s="23"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
+      <c r="A81" s="22"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82" s="23"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="23"/>
+      <c r="A82" s="22"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A83" s="23"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23"/>
+      <c r="A83" s="22"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A84" s="23"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
+      <c r="A84" s="22"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" s="23"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
+      <c r="A85" s="22"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A86" s="23"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="23"/>
+      <c r="A86" s="22"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A87" s="23"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="23"/>
+      <c r="A87" s="22"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A88" s="23"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="23"/>
+      <c r="A88" s="22"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A89" s="23"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
+      <c r="A89" s="22"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A90" s="23"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="23"/>
+      <c r="A90" s="22"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A91" s="23"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
+      <c r="A91" s="22"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A92" s="23"/>
-      <c r="B92" s="23"/>
-      <c r="C92" s="23"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="23"/>
+      <c r="A92" s="22"/>
+      <c r="B92" s="22"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A93" s="23"/>
-      <c r="B93" s="23"/>
-      <c r="C93" s="23"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="23"/>
+      <c r="A93" s="22"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A94" s="23"/>
-      <c r="B94" s="23"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="23"/>
+      <c r="A94" s="22"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A95" s="23"/>
-      <c r="B95" s="23"/>
-      <c r="C95" s="23"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="23"/>
+      <c r="A95" s="22"/>
+      <c r="B95" s="22"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="22"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A96" s="23"/>
-      <c r="B96" s="23"/>
-      <c r="C96" s="23"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
+      <c r="A96" s="22"/>
+      <c r="B96" s="22"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="22"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A97" s="23"/>
-      <c r="B97" s="23"/>
-      <c r="C97" s="23"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="23"/>
+      <c r="A97" s="22"/>
+      <c r="B97" s="22"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="22"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A98" s="23"/>
-      <c r="B98" s="23"/>
-      <c r="C98" s="23"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="23"/>
+      <c r="A98" s="22"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A99" s="23"/>
-      <c r="B99" s="23"/>
-      <c r="C99" s="23"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="23"/>
+      <c r="A99" s="22"/>
+      <c r="B99" s="22"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="22"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A100" s="23"/>
-      <c r="B100" s="23"/>
-      <c r="C100" s="23"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="23"/>
+      <c r="A100" s="22"/>
+      <c r="B100" s="22"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="22"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A101" s="23"/>
-      <c r="B101" s="23"/>
-      <c r="C101" s="23"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="23"/>
+      <c r="A101" s="22"/>
+      <c r="B101" s="22"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
+      <c r="E101" s="22"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A102" s="23"/>
-      <c r="B102" s="23"/>
-      <c r="C102" s="23"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="23"/>
+      <c r="A102" s="22"/>
+      <c r="B102" s="22"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="22"/>
+      <c r="E102" s="22"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A103" s="23"/>
-      <c r="B103" s="23"/>
-      <c r="C103" s="23"/>
-      <c r="D103" s="23"/>
-      <c r="E103" s="23"/>
+      <c r="A103" s="22"/>
+      <c r="B103" s="22"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A104" s="23"/>
-      <c r="B104" s="23"/>
-      <c r="C104" s="23"/>
-      <c r="D104" s="23"/>
-      <c r="E104" s="23"/>
+      <c r="A104" s="22"/>
+      <c r="B104" s="22"/>
+      <c r="C104" s="22"/>
+      <c r="D104" s="22"/>
+      <c r="E104" s="22"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A105" s="23"/>
-      <c r="B105" s="23"/>
-      <c r="C105" s="23"/>
-      <c r="D105" s="23"/>
-      <c r="E105" s="23"/>
+      <c r="A105" s="22"/>
+      <c r="B105" s="22"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="22"/>
+      <c r="E105" s="22"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A106" s="23"/>
-      <c r="B106" s="23"/>
-      <c r="C106" s="23"/>
-      <c r="D106" s="23"/>
-      <c r="E106" s="23"/>
+      <c r="A106" s="22"/>
+      <c r="B106" s="22"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="22"/>
+      <c r="E106" s="22"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A107" s="23"/>
-      <c r="B107" s="23"/>
-      <c r="C107" s="23"/>
-      <c r="D107" s="23"/>
-      <c r="E107" s="23"/>
+      <c r="A107" s="22"/>
+      <c r="B107" s="22"/>
+      <c r="C107" s="22"/>
+      <c r="D107" s="22"/>
+      <c r="E107" s="22"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A108" s="23"/>
-      <c r="B108" s="23"/>
-      <c r="C108" s="23"/>
-      <c r="D108" s="23"/>
-      <c r="E108" s="23"/>
+      <c r="A108" s="22"/>
+      <c r="B108" s="22"/>
+      <c r="C108" s="22"/>
+      <c r="D108" s="22"/>
+      <c r="E108" s="22"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A109" s="23"/>
-      <c r="B109" s="23"/>
-      <c r="C109" s="23"/>
-      <c r="D109" s="23"/>
-      <c r="E109" s="23"/>
+      <c r="A109" s="22"/>
+      <c r="B109" s="22"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="22"/>
+      <c r="E109" s="22"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A110" s="23"/>
-      <c r="B110" s="23"/>
-      <c r="C110" s="23"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="23"/>
+      <c r="A110" s="22"/>
+      <c r="B110" s="22"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="22"/>
+      <c r="E110" s="22"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A111" s="23"/>
-      <c r="B111" s="23"/>
-      <c r="C111" s="23"/>
-      <c r="D111" s="23"/>
-      <c r="E111" s="23"/>
+      <c r="A111" s="22"/>
+      <c r="B111" s="22"/>
+      <c r="C111" s="22"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8731,8 +8784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:E36"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -8758,7 +8811,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>4</v>
@@ -8770,10 +8823,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -8782,52 +8835,52 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -8835,221 +8888,221 @@
         <v>1</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>2</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>262</v>
+      <c r="B9" s="17" t="s">
+        <v>255</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>161</v>
-      </c>
       <c r="E9" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>3</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>266</v>
+      <c r="B10" s="17" t="s">
+        <v>259</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>263</v>
+        <v>162</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>4</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>267</v>
+      <c r="B11" s="17" t="s">
+        <v>260</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>5</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>268</v>
+      <c r="B12" s="17" t="s">
+        <v>261</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>6</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>269</v>
+      <c r="B13" s="17" t="s">
+        <v>262</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>264</v>
+        <v>168</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>257</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>7</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>270</v>
+      <c r="B14" s="17" t="s">
+        <v>263</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>265</v>
+        <v>170</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>258</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>8</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>271</v>
+      <c r="B15" s="17" t="s">
+        <v>264</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>9</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>272</v>
+      <c r="B16" s="17" t="s">
+        <v>265</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>10</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>273</v>
+      <c r="B17" s="17" t="s">
+        <v>266</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -9058,18 +9111,18 @@
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -9078,45 +9131,45 @@
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -9124,16 +9177,16 @@
         <v>1</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="D23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="E23" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
@@ -9141,16 +9194,16 @@
         <v>2</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="D24" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -9158,27 +9211,27 @@
         <v>3</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="D25" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="24" t="s">
-        <v>235</v>
+    </row>
+    <row r="27" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="23" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A29" s="34" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -9186,24 +9239,24 @@
       <c r="E29" s="36"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
+      <c r="A31" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="32" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
@@ -9259,7 +9312,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A18" sqref="A18:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -9285,10 +9338,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -9297,10 +9350,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -9309,52 +9362,52 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -9362,23 +9415,23 @@
         <v>1</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -9386,50 +9439,50 @@
         <v>2</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -9437,16 +9490,16 @@
         <v>1</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -9454,16 +9507,16 @@
         <v>2</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -9471,27 +9524,27 @@
         <v>3</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="24" t="s">
-        <v>283</v>
+    </row>
+    <row r="17" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="23" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A19" s="34" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -9499,24 +9552,24 @@
       <c r="E19" s="36"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
+      <c r="A21" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="50" t="s">
-        <v>281</v>
+      <c r="A22" s="47" t="s">
+        <v>274</v>
       </c>
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
@@ -9604,7 +9657,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>6</v>
@@ -9616,10 +9669,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -9628,50 +9681,50 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -9680,20 +9733,20 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
@@ -9702,56 +9755,56 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
@@ -9760,20 +9813,20 @@
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -9782,20 +9835,20 @@
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -9804,20 +9857,20 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -9826,20 +9879,20 @@
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -9883,10 +9936,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -9895,10 +9948,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -9907,52 +9960,52 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -9960,59 +10013,59 @@
         <v>1</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>187</v>
-      </c>
       <c r="D8" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
@@ -10020,23 +10073,23 @@
         <v>1</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -10044,23 +10097,23 @@
         <v>2</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -10068,23 +10121,23 @@
         <v>3</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="E14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -10092,23 +10145,23 @@
         <v>4</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/file/接口文档-测试项目.xlsx
+++ b/src/main/file/接口文档-测试项目.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="810" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="810" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="API汇总信息" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="320">
   <si>
     <t>汇总信息</t>
   </si>
@@ -2366,6 +2366,26 @@
     "currentLocation" : "上海市,上海市"
   } ]
 }</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>data.id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>data.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2613,7 +2633,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2719,6 +2739,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -7184,7 +7205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -8097,8 +8118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -8372,7 +8393,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>79</v>
+        <v>318</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>125</v>
@@ -8912,6 +8933,7 @@
     <hyperlink ref="A38" r:id="rId1" tooltip="http://119.23.220.163:8080/api/commonuser/getSelfDetail?token=mh8L3fkqVurouLvpmKmWWw%3D%3D"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8919,8 +8941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -9124,8 +9146,8 @@
       <c r="A15" s="6">
         <v>1</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>79</v>
+      <c r="B15" s="47" t="s">
+        <v>319</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>125</v>

--- a/src/main/file/接口文档-测试项目.xlsx
+++ b/src/main/file/接口文档-测试项目.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="810" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="810" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="API汇总信息" sheetId="1" r:id="rId1"/>
@@ -2179,15 +2179,6 @@
   </si>
   <si>
     <t>targetUserId</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "code" : 16019,
-  "msg" : "Success",
-  "detail" : "成功",
-  "data" : null
-}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2590,6 +2581,17 @@
   </si>
   <si>
     <t>STRING</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "code" : 16019,
+  "msg" : "Success",
+  "detail" : "成功",
+  "data" : {
+    "ifAdd" : false
+  }
+}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2837,7 +2839,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2862,6 +2864,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2878,7 +2882,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2896,6 +2900,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2905,57 +2945,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3438,38 +3467,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -3717,38 +3746,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -3987,38 +4016,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -4267,38 +4296,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -4482,13 +4511,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
@@ -4496,48 +4525,48 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4560,7 +4589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C124" sqref="C124:C126"/>
     </sheetView>
   </sheetViews>
@@ -4570,48 +4599,52 @@
     <col min="2" max="2" width="33.5" customWidth="1"/>
     <col min="3" max="3" width="28.5" customWidth="1"/>
     <col min="4" max="4" width="25.83203125" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="52" t="s">
         <v>260</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="40" t="s">
-        <v>302</v>
+      <c r="B4" s="21" t="s">
+        <v>301</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>23</v>
@@ -4740,13 +4773,13 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
@@ -4754,594 +4787,594 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="37" t="s">
-        <v>303</v>
-      </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
+      <c r="A19" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="37"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="37"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="37"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="37"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="37"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="37"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="37"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="37"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="37"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="37"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="37"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="37"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="37"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="37"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="37"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="37"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
+      <c r="A55" s="28"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="37"/>
-      <c r="B56" s="37"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
+      <c r="A56" s="28"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="37"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
+      <c r="A57" s="28"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="37"/>
-      <c r="B58" s="37"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
+      <c r="A58" s="28"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="37"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
+      <c r="A59" s="28"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="37"/>
-      <c r="B60" s="37"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
+      <c r="A60" s="28"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="37"/>
-      <c r="B61" s="37"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
+      <c r="A61" s="28"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="37"/>
-      <c r="B62" s="37"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
+      <c r="A62" s="28"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="37"/>
-      <c r="B63" s="37"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
+      <c r="A63" s="28"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="37"/>
-      <c r="B64" s="37"/>
-      <c r="C64" s="37"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37"/>
+      <c r="A64" s="28"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="37"/>
-      <c r="B65" s="37"/>
-      <c r="C65" s="37"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
+      <c r="A65" s="28"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="37"/>
-      <c r="B66" s="37"/>
-      <c r="C66" s="37"/>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
+      <c r="A66" s="28"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="37"/>
-      <c r="B67" s="37"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
+      <c r="A67" s="28"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" s="37"/>
-      <c r="B68" s="37"/>
-      <c r="C68" s="37"/>
-      <c r="D68" s="37"/>
-      <c r="E68" s="37"/>
+      <c r="A68" s="28"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="37"/>
-      <c r="B69" s="37"/>
-      <c r="C69" s="37"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="37"/>
+      <c r="A69" s="28"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" s="37"/>
-      <c r="B70" s="37"/>
-      <c r="C70" s="37"/>
-      <c r="D70" s="37"/>
-      <c r="E70" s="37"/>
+      <c r="A70" s="28"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" s="37"/>
-      <c r="B71" s="37"/>
-      <c r="C71" s="37"/>
-      <c r="D71" s="37"/>
-      <c r="E71" s="37"/>
+      <c r="A71" s="28"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72" s="37"/>
-      <c r="B72" s="37"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="37"/>
+      <c r="A72" s="28"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="37"/>
-      <c r="B73" s="37"/>
-      <c r="C73" s="37"/>
-      <c r="D73" s="37"/>
-      <c r="E73" s="37"/>
+      <c r="A73" s="28"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="37"/>
-      <c r="B74" s="37"/>
-      <c r="C74" s="37"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
+      <c r="A74" s="28"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="37"/>
-      <c r="B75" s="37"/>
-      <c r="C75" s="37"/>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
+      <c r="A75" s="28"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="37"/>
-      <c r="B76" s="37"/>
-      <c r="C76" s="37"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
+      <c r="A76" s="28"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="37"/>
-      <c r="B77" s="37"/>
-      <c r="C77" s="37"/>
-      <c r="D77" s="37"/>
-      <c r="E77" s="37"/>
+      <c r="A77" s="28"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="37"/>
-      <c r="B78" s="37"/>
-      <c r="C78" s="37"/>
-      <c r="D78" s="37"/>
-      <c r="E78" s="37"/>
+      <c r="A78" s="28"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" s="37"/>
-      <c r="B79" s="37"/>
-      <c r="C79" s="37"/>
-      <c r="D79" s="37"/>
-      <c r="E79" s="37"/>
+      <c r="A79" s="28"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" s="37"/>
-      <c r="B80" s="37"/>
-      <c r="C80" s="37"/>
-      <c r="D80" s="37"/>
-      <c r="E80" s="37"/>
+      <c r="A80" s="28"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" s="37"/>
-      <c r="B81" s="37"/>
-      <c r="C81" s="37"/>
-      <c r="D81" s="37"/>
-      <c r="E81" s="37"/>
+      <c r="A81" s="28"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82" s="37"/>
-      <c r="B82" s="37"/>
-      <c r="C82" s="37"/>
-      <c r="D82" s="37"/>
-      <c r="E82" s="37"/>
+      <c r="A82" s="28"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A83" s="37"/>
-      <c r="B83" s="37"/>
-      <c r="C83" s="37"/>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
+      <c r="A83" s="28"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A84" s="37"/>
-      <c r="B84" s="37"/>
-      <c r="C84" s="37"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
+      <c r="A84" s="28"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" s="37"/>
-      <c r="B85" s="37"/>
-      <c r="C85" s="37"/>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
+      <c r="A85" s="28"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A86" s="37"/>
-      <c r="B86" s="37"/>
-      <c r="C86" s="37"/>
-      <c r="D86" s="37"/>
-      <c r="E86" s="37"/>
+      <c r="A86" s="28"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A87" s="37"/>
-      <c r="B87" s="37"/>
-      <c r="C87" s="37"/>
-      <c r="D87" s="37"/>
-      <c r="E87" s="37"/>
+      <c r="A87" s="28"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A88" s="37"/>
-      <c r="B88" s="37"/>
-      <c r="C88" s="37"/>
-      <c r="D88" s="37"/>
-      <c r="E88" s="37"/>
+      <c r="A88" s="28"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="28"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A89" s="37"/>
-      <c r="B89" s="37"/>
-      <c r="C89" s="37"/>
-      <c r="D89" s="37"/>
-      <c r="E89" s="37"/>
+      <c r="A89" s="28"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A90" s="37"/>
-      <c r="B90" s="37"/>
-      <c r="C90" s="37"/>
-      <c r="D90" s="37"/>
-      <c r="E90" s="37"/>
+      <c r="A90" s="28"/>
+      <c r="B90" s="28"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="28"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A91" s="37"/>
-      <c r="B91" s="37"/>
-      <c r="C91" s="37"/>
-      <c r="D91" s="37"/>
-      <c r="E91" s="37"/>
+      <c r="A91" s="28"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A92" s="37"/>
-      <c r="B92" s="37"/>
-      <c r="C92" s="37"/>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
+      <c r="A92" s="28"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A93" s="37"/>
-      <c r="B93" s="37"/>
-      <c r="C93" s="37"/>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
+      <c r="A93" s="28"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A94" s="37"/>
-      <c r="B94" s="37"/>
-      <c r="C94" s="37"/>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
+      <c r="A94" s="28"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A95" s="37"/>
-      <c r="B95" s="37"/>
-      <c r="C95" s="37"/>
-      <c r="D95" s="37"/>
-      <c r="E95" s="37"/>
+      <c r="A95" s="28"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A96" s="37"/>
-      <c r="B96" s="37"/>
-      <c r="C96" s="37"/>
-      <c r="D96" s="37"/>
-      <c r="E96" s="37"/>
+      <c r="A96" s="28"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="28"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A97" s="37"/>
-      <c r="B97" s="37"/>
-      <c r="C97" s="37"/>
-      <c r="D97" s="37"/>
-      <c r="E97" s="37"/>
+      <c r="A97" s="28"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="28"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A98" s="37"/>
-      <c r="B98" s="37"/>
-      <c r="C98" s="37"/>
-      <c r="D98" s="37"/>
-      <c r="E98" s="37"/>
+      <c r="A98" s="28"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="28"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A99" s="37"/>
-      <c r="B99" s="37"/>
-      <c r="C99" s="37"/>
-      <c r="D99" s="37"/>
-      <c r="E99" s="37"/>
+      <c r="A99" s="28"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="28"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A100" s="37"/>
-      <c r="B100" s="37"/>
-      <c r="C100" s="37"/>
-      <c r="D100" s="37"/>
-      <c r="E100" s="37"/>
+      <c r="A100" s="28"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A101" s="37"/>
-      <c r="B101" s="37"/>
-      <c r="C101" s="37"/>
-      <c r="D101" s="37"/>
-      <c r="E101" s="37"/>
+      <c r="A101" s="28"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="28"/>
+      <c r="D101" s="28"/>
+      <c r="E101" s="28"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A102" s="37"/>
-      <c r="B102" s="37"/>
-      <c r="C102" s="37"/>
-      <c r="D102" s="37"/>
-      <c r="E102" s="37"/>
+      <c r="A102" s="28"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5380,38 +5413,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="52" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="53" t="s">
         <v>263</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -5591,13 +5624,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
@@ -5605,48 +5638,48 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5686,38 +5719,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="52" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="53" t="s">
         <v>263</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -5897,13 +5930,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="30" t="s">
         <v>273</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
@@ -5911,48 +5944,48 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6007,44 +6040,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="21" t="s">
         <v>283</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -6211,13 +6244,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
@@ -6225,62 +6258,62 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6320,38 +6353,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -6694,13 +6727,13 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="32"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
@@ -6708,538 +6741,538 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="31"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="31"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="31"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="31"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="31"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
+      <c r="A48" s="33"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="31"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="31"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="31"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="31"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="31"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="31"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="31"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="31"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="31"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
+      <c r="A58" s="33"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="31"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="31"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="31"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="31"/>
-      <c r="B63" s="31"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
+      <c r="A63" s="33"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="31"/>
-      <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="31"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
+      <c r="A65" s="33"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="31"/>
-      <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
+      <c r="A66" s="33"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="31"/>
-      <c r="B67" s="31"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
+      <c r="A67" s="33"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" s="31"/>
-      <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31"/>
+      <c r="A68" s="33"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="31"/>
-      <c r="B69" s="31"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
+      <c r="A69" s="33"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" s="31"/>
-      <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
+      <c r="A70" s="33"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" s="31"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
+      <c r="A71" s="33"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72" s="31"/>
-      <c r="B72" s="31"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="31"/>
+      <c r="A72" s="33"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="33"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="31"/>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="31"/>
+      <c r="A73" s="33"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="31"/>
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
+      <c r="A74" s="33"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="31"/>
-      <c r="B75" s="31"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="31"/>
+      <c r="A75" s="33"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="33"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="31"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="31"/>
+      <c r="A76" s="33"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="33"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="31"/>
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="31"/>
+      <c r="A77" s="33"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="33"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="31"/>
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
+      <c r="A78" s="33"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" s="31"/>
-      <c r="B79" s="31"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
+      <c r="A79" s="33"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" s="31"/>
-      <c r="B80" s="31"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="31"/>
+      <c r="A80" s="33"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" s="31"/>
-      <c r="B81" s="31"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="31"/>
+      <c r="A81" s="33"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82" s="31"/>
-      <c r="B82" s="31"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="31"/>
+      <c r="A82" s="33"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A83" s="31"/>
-      <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
+      <c r="A83" s="33"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="33"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A84" s="31"/>
-      <c r="B84" s="31"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31"/>
+      <c r="A84" s="33"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" s="31"/>
-      <c r="B85" s="31"/>
-      <c r="C85" s="31"/>
-      <c r="D85" s="31"/>
-      <c r="E85" s="31"/>
+      <c r="A85" s="33"/>
+      <c r="B85" s="33"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="33"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A86" s="31"/>
-      <c r="B86" s="31"/>
-      <c r="C86" s="31"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="31"/>
+      <c r="A86" s="33"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="33"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A87" s="31"/>
-      <c r="B87" s="31"/>
-      <c r="C87" s="31"/>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
+      <c r="A87" s="33"/>
+      <c r="B87" s="33"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="33"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A88" s="31"/>
-      <c r="B88" s="31"/>
-      <c r="C88" s="31"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
+      <c r="A88" s="33"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A89" s="31"/>
-      <c r="B89" s="31"/>
-      <c r="C89" s="31"/>
-      <c r="D89" s="31"/>
-      <c r="E89" s="31"/>
+      <c r="A89" s="33"/>
+      <c r="B89" s="33"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="33"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A90" s="31"/>
-      <c r="B90" s="31"/>
-      <c r="C90" s="31"/>
-      <c r="D90" s="31"/>
-      <c r="E90" s="31"/>
+      <c r="A90" s="33"/>
+      <c r="B90" s="33"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="33"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A91" s="31"/>
-      <c r="B91" s="31"/>
-      <c r="C91" s="31"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="31"/>
+      <c r="A91" s="33"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="33"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A92" s="31"/>
-      <c r="B92" s="31"/>
-      <c r="C92" s="31"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
+      <c r="A92" s="33"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A93" s="31"/>
-      <c r="B93" s="31"/>
-      <c r="C93" s="31"/>
-      <c r="D93" s="31"/>
-      <c r="E93" s="31"/>
+      <c r="A93" s="33"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A94" s="31"/>
-      <c r="B94" s="31"/>
-      <c r="C94" s="31"/>
-      <c r="D94" s="31"/>
-      <c r="E94" s="31"/>
+      <c r="A94" s="33"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A95" s="31"/>
-      <c r="B95" s="31"/>
-      <c r="C95" s="31"/>
-      <c r="D95" s="31"/>
-      <c r="E95" s="31"/>
+      <c r="A95" s="33"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
+      <c r="E95" s="33"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A96" s="31"/>
-      <c r="B96" s="31"/>
-      <c r="C96" s="31"/>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
+      <c r="A96" s="33"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A97" s="31"/>
-      <c r="B97" s="31"/>
-      <c r="C97" s="31"/>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
+      <c r="A97" s="33"/>
+      <c r="B97" s="33"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="33"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A98" s="31"/>
-      <c r="B98" s="31"/>
-      <c r="C98" s="31"/>
-      <c r="D98" s="31"/>
-      <c r="E98" s="31"/>
+      <c r="A98" s="33"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="33"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A99" s="31"/>
-      <c r="B99" s="31"/>
-      <c r="C99" s="31"/>
-      <c r="D99" s="31"/>
-      <c r="E99" s="31"/>
+      <c r="A99" s="33"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="33"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A100" s="31"/>
-      <c r="B100" s="31"/>
-      <c r="C100" s="31"/>
-      <c r="D100" s="31"/>
-      <c r="E100" s="31"/>
+      <c r="A100" s="33"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="33"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A101" s="31"/>
-      <c r="B101" s="31"/>
-      <c r="C101" s="31"/>
-      <c r="D101" s="31"/>
-      <c r="E101" s="31"/>
+      <c r="A101" s="33"/>
+      <c r="B101" s="33"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="33"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A102" s="31"/>
-      <c r="B102" s="31"/>
-      <c r="C102" s="31"/>
-      <c r="D102" s="31"/>
-      <c r="E102" s="31"/>
+      <c r="A102" s="33"/>
+      <c r="B102" s="33"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="33"/>
+      <c r="E102" s="33"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A103" s="31"/>
-      <c r="B103" s="31"/>
-      <c r="C103" s="31"/>
-      <c r="D103" s="31"/>
-      <c r="E103" s="31"/>
+      <c r="A103" s="33"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
+      <c r="E103" s="33"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A104" s="31"/>
-      <c r="B104" s="31"/>
-      <c r="C104" s="31"/>
-      <c r="D104" s="31"/>
-      <c r="E104" s="31"/>
+      <c r="A104" s="33"/>
+      <c r="B104" s="33"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="33"/>
+      <c r="E104" s="33"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A105" s="31"/>
-      <c r="B105" s="31"/>
-      <c r="C105" s="31"/>
-      <c r="D105" s="31"/>
-      <c r="E105" s="31"/>
+      <c r="A105" s="33"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
+      <c r="E105" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7278,38 +7311,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -7608,13 +7641,13 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
@@ -7622,538 +7655,538 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="34" t="s">
         <v>280</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="31"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="31"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="31"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="31"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="31"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
+      <c r="A48" s="33"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="31"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="31"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="31"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="31"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="31"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="31"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="31"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="31"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="31"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
+      <c r="A58" s="33"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="31"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="31"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="31"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="31"/>
-      <c r="B63" s="31"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
+      <c r="A63" s="33"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="31"/>
-      <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="31"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
+      <c r="A65" s="33"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="31"/>
-      <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
+      <c r="A66" s="33"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="31"/>
-      <c r="B67" s="31"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
+      <c r="A67" s="33"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" s="31"/>
-      <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31"/>
+      <c r="A68" s="33"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="31"/>
-      <c r="B69" s="31"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
+      <c r="A69" s="33"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" s="31"/>
-      <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
+      <c r="A70" s="33"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" s="31"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
+      <c r="A71" s="33"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72" s="31"/>
-      <c r="B72" s="31"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="31"/>
+      <c r="A72" s="33"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="33"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="31"/>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="31"/>
+      <c r="A73" s="33"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="31"/>
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
+      <c r="A74" s="33"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="31"/>
-      <c r="B75" s="31"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="31"/>
+      <c r="A75" s="33"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="33"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="31"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="31"/>
+      <c r="A76" s="33"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="33"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="31"/>
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="31"/>
+      <c r="A77" s="33"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="33"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="31"/>
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
+      <c r="A78" s="33"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" s="31"/>
-      <c r="B79" s="31"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
+      <c r="A79" s="33"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" s="31"/>
-      <c r="B80" s="31"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="31"/>
+      <c r="A80" s="33"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" s="31"/>
-      <c r="B81" s="31"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="31"/>
+      <c r="A81" s="33"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82" s="31"/>
-      <c r="B82" s="31"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="31"/>
+      <c r="A82" s="33"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A83" s="31"/>
-      <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
+      <c r="A83" s="33"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="33"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A84" s="31"/>
-      <c r="B84" s="31"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31"/>
+      <c r="A84" s="33"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" s="31"/>
-      <c r="B85" s="31"/>
-      <c r="C85" s="31"/>
-      <c r="D85" s="31"/>
-      <c r="E85" s="31"/>
+      <c r="A85" s="33"/>
+      <c r="B85" s="33"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="33"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A86" s="31"/>
-      <c r="B86" s="31"/>
-      <c r="C86" s="31"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="31"/>
+      <c r="A86" s="33"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="33"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A87" s="31"/>
-      <c r="B87" s="31"/>
-      <c r="C87" s="31"/>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
+      <c r="A87" s="33"/>
+      <c r="B87" s="33"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="33"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A88" s="31"/>
-      <c r="B88" s="31"/>
-      <c r="C88" s="31"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
+      <c r="A88" s="33"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A89" s="31"/>
-      <c r="B89" s="31"/>
-      <c r="C89" s="31"/>
-      <c r="D89" s="31"/>
-      <c r="E89" s="31"/>
+      <c r="A89" s="33"/>
+      <c r="B89" s="33"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="33"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A90" s="31"/>
-      <c r="B90" s="31"/>
-      <c r="C90" s="31"/>
-      <c r="D90" s="31"/>
-      <c r="E90" s="31"/>
+      <c r="A90" s="33"/>
+      <c r="B90" s="33"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="33"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A91" s="31"/>
-      <c r="B91" s="31"/>
-      <c r="C91" s="31"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="31"/>
+      <c r="A91" s="33"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="33"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A92" s="31"/>
-      <c r="B92" s="31"/>
-      <c r="C92" s="31"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
+      <c r="A92" s="33"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A93" s="31"/>
-      <c r="B93" s="31"/>
-      <c r="C93" s="31"/>
-      <c r="D93" s="31"/>
-      <c r="E93" s="31"/>
+      <c r="A93" s="33"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A94" s="31"/>
-      <c r="B94" s="31"/>
-      <c r="C94" s="31"/>
-      <c r="D94" s="31"/>
-      <c r="E94" s="31"/>
+      <c r="A94" s="33"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A95" s="31"/>
-      <c r="B95" s="31"/>
-      <c r="C95" s="31"/>
-      <c r="D95" s="31"/>
-      <c r="E95" s="31"/>
+      <c r="A95" s="33"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
+      <c r="E95" s="33"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A96" s="31"/>
-      <c r="B96" s="31"/>
-      <c r="C96" s="31"/>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
+      <c r="A96" s="33"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A97" s="31"/>
-      <c r="B97" s="31"/>
-      <c r="C97" s="31"/>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
+      <c r="A97" s="33"/>
+      <c r="B97" s="33"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="33"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A98" s="31"/>
-      <c r="B98" s="31"/>
-      <c r="C98" s="31"/>
-      <c r="D98" s="31"/>
-      <c r="E98" s="31"/>
+      <c r="A98" s="33"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="33"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A99" s="31"/>
-      <c r="B99" s="31"/>
-      <c r="C99" s="31"/>
-      <c r="D99" s="31"/>
-      <c r="E99" s="31"/>
+      <c r="A99" s="33"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="33"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A100" s="31"/>
-      <c r="B100" s="31"/>
-      <c r="C100" s="31"/>
-      <c r="D100" s="31"/>
-      <c r="E100" s="31"/>
+      <c r="A100" s="33"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="33"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A101" s="31"/>
-      <c r="B101" s="31"/>
-      <c r="C101" s="31"/>
-      <c r="D101" s="31"/>
-      <c r="E101" s="31"/>
+      <c r="A101" s="33"/>
+      <c r="B101" s="33"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="33"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A102" s="31"/>
-      <c r="B102" s="31"/>
-      <c r="C102" s="31"/>
-      <c r="D102" s="31"/>
-      <c r="E102" s="31"/>
+      <c r="A102" s="33"/>
+      <c r="B102" s="33"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="33"/>
+      <c r="E102" s="33"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A103" s="31"/>
-      <c r="B103" s="31"/>
-      <c r="C103" s="31"/>
-      <c r="D103" s="31"/>
-      <c r="E103" s="31"/>
+      <c r="A103" s="33"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
+      <c r="E103" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8175,7 +8208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -8191,44 +8224,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="21" t="s">
         <v>282</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -8287,7 +8320,7 @@
       <c r="D8" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="20" t="s">
         <v>288</v>
       </c>
       <c r="F8" s="6"/>
@@ -8308,15 +8341,15 @@
       <c r="C9" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="20" t="s">
         <v>287</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="20" t="s">
         <v>289</v>
       </c>
     </row>
@@ -8402,24 +8435,24 @@
       <c r="A16" s="6">
         <v>4</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="C16" s="39" t="s">
-        <v>307</v>
-      </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="E16" s="39" t="s">
-        <v>307</v>
+      <c r="E16" s="20" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>5</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="20" t="s">
         <v>281</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -8453,34 +8486,34 @@
       <c r="A19" s="6">
         <v>7</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="D19" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="E19" s="20" t="s">
         <v>310</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>8</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="D20" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="E20" s="20" t="s">
         <v>314</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -8572,17 +8605,17 @@
       <c r="A26" s="6">
         <v>14</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="D26" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="D26" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="E26" s="39" t="s">
-        <v>320</v>
+      <c r="E26" s="20" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -8742,31 +8775,31 @@
       <c r="A36" s="6">
         <v>24</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="C36" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="D36" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="E36" s="20" t="s">
         <v>317</v>
-      </c>
-      <c r="D36" s="39" t="s">
-        <v>305</v>
-      </c>
-      <c r="E36" s="39" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="6">
         <v>25</v>
       </c>
-      <c r="B37" s="39" t="s">
-        <v>304</v>
+      <c r="B37" s="20" t="s">
+        <v>303</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D37" s="39" t="s">
-        <v>305</v>
+      <c r="D37" s="20" t="s">
+        <v>304</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>143</v>
@@ -8778,272 +8811,272 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="30"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="32"/>
     </row>
     <row r="42" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="48" t="s">
+      <c r="C42" s="44" t="s">
         <v>293</v>
       </c>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
     </row>
     <row r="43" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="B43" s="44"/>
-      <c r="C43" s="42" t="s">
+      <c r="B43" s="37"/>
+      <c r="C43" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="D43" s="41"/>
-      <c r="E43" s="44"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="37"/>
     </row>
     <row r="44" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="45"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="46"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="40"/>
     </row>
     <row r="45" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="45"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="46"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="40"/>
     </row>
     <row r="46" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="45"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="46"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="40"/>
     </row>
     <row r="47" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="45"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="46"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="40"/>
     </row>
     <row r="48" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="45"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="46"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="40"/>
     </row>
     <row r="49" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="45"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="46"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="40"/>
     </row>
     <row r="50" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="45"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="46"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="40"/>
     </row>
     <row r="51" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="45"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="46"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="40"/>
     </row>
     <row r="52" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="45"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="46"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="40"/>
     </row>
     <row r="53" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="45"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="46"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="40"/>
     </row>
     <row r="54" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="45"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="46"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="40"/>
     </row>
     <row r="55" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="45"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="46"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="40"/>
     </row>
     <row r="56" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="45"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="46"/>
+      <c r="A56" s="38"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="40"/>
     </row>
     <row r="57" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="45"/>
-      <c r="B57" s="46"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="46"/>
+      <c r="A57" s="38"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="40"/>
     </row>
     <row r="58" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="45"/>
-      <c r="B58" s="46"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="46"/>
+      <c r="A58" s="38"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="40"/>
     </row>
     <row r="59" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="45"/>
-      <c r="B59" s="46"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="46"/>
+      <c r="A59" s="38"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="40"/>
     </row>
     <row r="60" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="45"/>
-      <c r="B60" s="46"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="46"/>
+      <c r="A60" s="38"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="40"/>
     </row>
     <row r="61" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="45"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="46"/>
+      <c r="A61" s="38"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="40"/>
     </row>
     <row r="62" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="45"/>
-      <c r="B62" s="46"/>
-      <c r="C62" s="45"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="46"/>
+      <c r="A62" s="38"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="40"/>
     </row>
     <row r="63" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="45"/>
-      <c r="B63" s="46"/>
-      <c r="C63" s="45"/>
-      <c r="D63" s="43"/>
-      <c r="E63" s="46"/>
+      <c r="A63" s="38"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="40"/>
     </row>
     <row r="64" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="45"/>
-      <c r="B64" s="46"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="46"/>
+      <c r="A64" s="38"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="40"/>
     </row>
     <row r="65" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="45"/>
-      <c r="B65" s="46"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="43"/>
-      <c r="E65" s="46"/>
+      <c r="A65" s="38"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="40"/>
     </row>
     <row r="66" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="45"/>
-      <c r="B66" s="46"/>
-      <c r="C66" s="45"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="46"/>
+      <c r="A66" s="38"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="40"/>
     </row>
     <row r="67" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="45"/>
-      <c r="B67" s="46"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="46"/>
+      <c r="A67" s="38"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="40"/>
     </row>
     <row r="68" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="45"/>
-      <c r="B68" s="46"/>
-      <c r="C68" s="45"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="46"/>
+      <c r="A68" s="38"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="40"/>
     </row>
     <row r="69" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="45"/>
-      <c r="B69" s="46"/>
-      <c r="C69" s="45"/>
-      <c r="D69" s="43"/>
-      <c r="E69" s="46"/>
+      <c r="A69" s="38"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="40"/>
     </row>
     <row r="70" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="45"/>
-      <c r="B70" s="46"/>
-      <c r="C70" s="45"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="46"/>
+      <c r="A70" s="38"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="40"/>
     </row>
     <row r="71" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="45"/>
-      <c r="B71" s="46"/>
-      <c r="C71" s="45"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="46"/>
+      <c r="A71" s="38"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="40"/>
     </row>
     <row r="72" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="45"/>
-      <c r="B72" s="46"/>
-      <c r="C72" s="45"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="46"/>
+      <c r="A72" s="38"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="40"/>
     </row>
     <row r="73" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="45"/>
-      <c r="B73" s="46"/>
-      <c r="C73" s="45"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="46"/>
+      <c r="A73" s="38"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="40"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="45"/>
-      <c r="B74" s="46"/>
-      <c r="C74" s="45"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="46"/>
+      <c r="A74" s="38"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="40"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="45"/>
-      <c r="B75" s="46"/>
-      <c r="C75" s="45"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="46"/>
+      <c r="A75" s="38"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="40"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="45"/>
-      <c r="B76" s="46"/>
-      <c r="C76" s="45"/>
-      <c r="D76" s="43"/>
-      <c r="E76" s="46"/>
+      <c r="A76" s="38"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="40"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="51"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="51"/>
-      <c r="D77" s="52"/>
-      <c r="E77" s="53"/>
+      <c r="A77" s="41"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="43"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="13"/>
@@ -9357,38 +9390,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -9614,13 +9647,13 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="32"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
@@ -9628,62 +9661,62 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9705,7 +9738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -9721,14 +9754,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -9737,10 +9770,10 @@
       <c r="B2" s="49" t="s">
         <v>295</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -9749,10 +9782,10 @@
       <c r="B3" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -9946,8 +9979,8 @@
       <c r="C14" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D14" s="39" t="s">
-        <v>301</v>
+      <c r="D14" s="20" t="s">
+        <v>300</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>105</v>
@@ -10028,7 +10061,7 @@
       <c r="A18" s="6">
         <v>11</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="20" t="s">
         <v>294</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -10150,13 +10183,13 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="30"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="32"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
@@ -10164,41 +10197,41 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10218,10 +10251,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:E27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -10236,44 +10269,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="21" t="s">
         <v>297</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -10347,7 +10380,7 @@
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="20" t="s">
         <v>298</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -10451,62 +10484,83 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
+    <row r="22" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="57" t="s">
+        <v>321</v>
+      </c>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="60"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="61"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="61"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="61"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="61"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="61"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="58"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="61"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="58"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="61"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="59"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10514,7 +10568,7 @@
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A22:E27"/>
+    <mergeCell ref="A22:E30"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
@@ -10528,7 +10582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -10544,45 +10598,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="40" t="s">
-        <v>300</v>
+      <c r="B4" s="21" t="s">
+        <v>299</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>23</v>
@@ -10735,13 +10789,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
@@ -10749,104 +10803,104 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/src/main/file/接口文档-测试项目.xlsx
+++ b/src/main/file/接口文档-测试项目.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="810" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="810" firstSheet="9" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="API汇总信息" sheetId="1" r:id="rId1"/>
@@ -28,14 +28,15 @@
     <sheet name="前端根据类型获取字典" sheetId="17" r:id="rId14"/>
     <sheet name="用户照片上传接口" sheetId="18" r:id="rId15"/>
     <sheet name="用户头像上传接口" sheetId="20" r:id="rId16"/>
-    <sheet name="打点数据" sheetId="14" r:id="rId17"/>
+    <sheet name="返回码表" sheetId="23" r:id="rId17"/>
+    <sheet name="打点数据" sheetId="14" r:id="rId18"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="366">
   <si>
     <t>汇总信息</t>
   </si>
@@ -2594,12 +2595,164 @@
 }</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>错误码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误值</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>Phone number is null</t>
+  </si>
+  <si>
+    <t>手机号码为空</t>
+  </si>
+  <si>
+    <t>Mobile phone number error</t>
+  </si>
+  <si>
+    <t>手机号码错误</t>
+  </si>
+  <si>
+    <t>Parameter missing</t>
+  </si>
+  <si>
+    <t>参数丢失</t>
+  </si>
+  <si>
+    <t>ther error</t>
+  </si>
+  <si>
+    <t>其他错误</t>
+  </si>
+  <si>
+    <t>No data</t>
+  </si>
+  <si>
+    <t>没有数据</t>
+  </si>
+  <si>
+    <t>Parameter error</t>
+  </si>
+  <si>
+    <t>参数错误</t>
+  </si>
+  <si>
+    <t>Token missing</t>
+  </si>
+  <si>
+    <t>Token is invalid</t>
+  </si>
+  <si>
+    <t>Modify failure</t>
+  </si>
+  <si>
+    <t>操作失败</t>
+  </si>
+  <si>
+    <t>User not login</t>
+  </si>
+  <si>
+    <t>用户没有登录或登录信息过期</t>
+  </si>
+  <si>
+    <t>Upload image Fail</t>
+  </si>
+  <si>
+    <t>图片上传失败</t>
+  </si>
+  <si>
+    <t>System error</t>
+  </si>
+  <si>
+    <t>系统错误</t>
+  </si>
+  <si>
+    <t>Account already exists</t>
+  </si>
+  <si>
+    <t>用户已存在</t>
+  </si>
+  <si>
+    <t>obile phone number has been used</t>
+  </si>
+  <si>
+    <t>手机号码已使用</t>
+  </si>
+  <si>
+    <t>Login failure</t>
+  </si>
+  <si>
+    <t>登录失败</t>
+  </si>
+  <si>
+    <t>Account is not exist</t>
+  </si>
+  <si>
+    <t>账号不存在</t>
+  </si>
+  <si>
+    <t>User children is not exist</t>
+  </si>
+  <si>
+    <t>用户子女信息不存在</t>
+  </si>
+  <si>
+    <t>Target children is null</t>
+  </si>
+  <si>
+    <t>目标用户子女信息为空</t>
+  </si>
+  <si>
+    <t>Token缺失</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token无效</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用位置</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PP</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
@@ -2654,6 +2807,20 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2839,7 +3006,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2866,6 +3033,9 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2954,39 +3124,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3467,38 +3638,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -3746,38 +3917,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -4016,38 +4187,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -4296,38 +4467,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -4511,13 +4682,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
@@ -4525,48 +4696,48 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4606,38 +4777,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="64" t="s">
         <v>260</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="65" t="s">
         <v>260</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -4773,13 +4944,13 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
@@ -4787,594 +4958,594 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="31" t="s">
         <v>302</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
+      <c r="A45" s="31"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
+      <c r="A46" s="31"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
+      <c r="A48" s="31"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
+      <c r="A49" s="31"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
+      <c r="A50" s="31"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="28"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="28"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
+      <c r="A53" s="31"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="28"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
+      <c r="A54" s="31"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="28"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
+      <c r="A55" s="31"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="28"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
+      <c r="A56" s="31"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
+      <c r="A57" s="31"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="28"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
+      <c r="A58" s="31"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="28"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="28"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
+      <c r="A60" s="31"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="28"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
+      <c r="A61" s="31"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="28"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
+      <c r="A62" s="31"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="28"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
+      <c r="A63" s="31"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="28"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
+      <c r="A64" s="31"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="28"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
+      <c r="A65" s="31"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="28"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
+      <c r="A66" s="31"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="28"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
+      <c r="A67" s="31"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" s="28"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
+      <c r="A68" s="31"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="28"/>
-      <c r="B69" s="28"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
+      <c r="A69" s="31"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" s="28"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
+      <c r="A70" s="31"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" s="28"/>
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
+      <c r="A71" s="31"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72" s="28"/>
-      <c r="B72" s="28"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
+      <c r="A72" s="31"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="28"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
+      <c r="A73" s="31"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="28"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
+      <c r="A74" s="31"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="28"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
+      <c r="A75" s="31"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="28"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
+      <c r="A76" s="31"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
+      <c r="A77" s="31"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="28"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
+      <c r="A78" s="31"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" s="28"/>
-      <c r="B79" s="28"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
+      <c r="A79" s="31"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" s="28"/>
-      <c r="B80" s="28"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
+      <c r="A80" s="31"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" s="28"/>
-      <c r="B81" s="28"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
+      <c r="A81" s="31"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82" s="28"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
+      <c r="A82" s="31"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A83" s="28"/>
-      <c r="B83" s="28"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
+      <c r="A83" s="31"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A84" s="28"/>
-      <c r="B84" s="28"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
+      <c r="A84" s="31"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" s="28"/>
-      <c r="B85" s="28"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
+      <c r="A85" s="31"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="31"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A86" s="28"/>
-      <c r="B86" s="28"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
+      <c r="A86" s="31"/>
+      <c r="B86" s="31"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="31"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A87" s="28"/>
-      <c r="B87" s="28"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
+      <c r="A87" s="31"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A88" s="28"/>
-      <c r="B88" s="28"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28"/>
+      <c r="A88" s="31"/>
+      <c r="B88" s="31"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A89" s="28"/>
-      <c r="B89" s="28"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
+      <c r="A89" s="31"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="31"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A90" s="28"/>
-      <c r="B90" s="28"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="28"/>
+      <c r="A90" s="31"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="31"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A91" s="28"/>
-      <c r="B91" s="28"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
+      <c r="A91" s="31"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A92" s="28"/>
-      <c r="B92" s="28"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
+      <c r="A92" s="31"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A93" s="28"/>
-      <c r="B93" s="28"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
+      <c r="A93" s="31"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A94" s="28"/>
-      <c r="B94" s="28"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
+      <c r="A94" s="31"/>
+      <c r="B94" s="31"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A95" s="28"/>
-      <c r="B95" s="28"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
+      <c r="A95" s="31"/>
+      <c r="B95" s="31"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="31"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A96" s="28"/>
-      <c r="B96" s="28"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="28"/>
+      <c r="A96" s="31"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A97" s="28"/>
-      <c r="B97" s="28"/>
-      <c r="C97" s="28"/>
-      <c r="D97" s="28"/>
-      <c r="E97" s="28"/>
+      <c r="A97" s="31"/>
+      <c r="B97" s="31"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A98" s="28"/>
-      <c r="B98" s="28"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
+      <c r="A98" s="31"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="31"/>
+      <c r="E98" s="31"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A99" s="28"/>
-      <c r="B99" s="28"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="28"/>
-      <c r="E99" s="28"/>
+      <c r="A99" s="31"/>
+      <c r="B99" s="31"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="31"/>
+      <c r="E99" s="31"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A100" s="28"/>
-      <c r="B100" s="28"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="28"/>
-      <c r="E100" s="28"/>
+      <c r="A100" s="31"/>
+      <c r="B100" s="31"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="31"/>
+      <c r="E100" s="31"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A101" s="28"/>
-      <c r="B101" s="28"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="28"/>
-      <c r="E101" s="28"/>
+      <c r="A101" s="31"/>
+      <c r="B101" s="31"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="31"/>
+      <c r="E101" s="31"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A102" s="28"/>
-      <c r="B102" s="28"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="28"/>
+      <c r="A102" s="31"/>
+      <c r="B102" s="31"/>
+      <c r="C102" s="31"/>
+      <c r="D102" s="31"/>
+      <c r="E102" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5413,38 +5584,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="64" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="65" t="s">
         <v>263</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -5624,13 +5795,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
@@ -5638,48 +5809,48 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5703,7 +5874,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:E18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -5719,38 +5890,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="64" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="65" t="s">
         <v>263</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -5930,13 +6101,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
@@ -5944,48 +6115,48 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6005,6 +6176,292 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
+    <col min="3" max="3" width="35.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="22">
+        <v>0</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="22">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="22">
+        <v>1003</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="22">
+        <v>1005</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="22">
+        <v>1007</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="22">
+        <v>1009</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="22">
+        <v>1011</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="22">
+        <v>1013</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="D10" s="21"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="22">
+        <v>1015</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="22">
+        <v>1017</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="22">
+        <v>1101</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D13" s="21"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="22">
+        <v>1201</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="22">
+        <v>1211</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="D15" s="21"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="22">
+        <v>1213</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="22">
+        <v>1215</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="22">
+        <v>1217</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="22">
+        <v>1219</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="22">
+        <v>1221</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="22">
+        <v>1223</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="E27" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6040,38 +6497,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -6244,13 +6701,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
@@ -6258,62 +6715,62 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6353,38 +6810,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -6727,13 +7184,13 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="32"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="35"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
@@ -6741,538 +7198,538 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="33"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="33"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="33"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="33"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="33"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="33"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="33"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="33"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="33"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="33"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="33"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="33"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="33"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="33"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="33"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="33"/>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="33"/>
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="33"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="33"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="33"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
+      <c r="A60" s="36"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="33"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="33"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
+      <c r="A62" s="36"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="33"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="33"/>
-      <c r="B64" s="33"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
+      <c r="A64" s="36"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="33"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
+      <c r="A65" s="36"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="33"/>
-      <c r="B66" s="33"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33"/>
+      <c r="A66" s="36"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="33"/>
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
+      <c r="A67" s="36"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" s="33"/>
-      <c r="B68" s="33"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33"/>
+      <c r="A68" s="36"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="33"/>
-      <c r="B69" s="33"/>
-      <c r="C69" s="33"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="33"/>
+      <c r="A69" s="36"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" s="33"/>
-      <c r="B70" s="33"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" s="33"/>
-      <c r="B71" s="33"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="33"/>
+      <c r="A71" s="36"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72" s="33"/>
-      <c r="B72" s="33"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33"/>
-      <c r="E72" s="33"/>
+      <c r="A72" s="36"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="33"/>
-      <c r="B73" s="33"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33"/>
+      <c r="A73" s="36"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="33"/>
-      <c r="B74" s="33"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
+      <c r="A74" s="36"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="33"/>
-      <c r="B75" s="33"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33"/>
-      <c r="E75" s="33"/>
+      <c r="A75" s="36"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="33"/>
-      <c r="B76" s="33"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33"/>
+      <c r="A76" s="36"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="33"/>
-      <c r="B77" s="33"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33"/>
-      <c r="E77" s="33"/>
+      <c r="A77" s="36"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="33"/>
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
+      <c r="A78" s="36"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="36"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" s="33"/>
-      <c r="B79" s="33"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="33"/>
+      <c r="A79" s="36"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="36"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" s="33"/>
-      <c r="B80" s="33"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33"/>
+      <c r="A80" s="36"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" s="33"/>
-      <c r="B81" s="33"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="33"/>
+      <c r="A81" s="36"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82" s="33"/>
-      <c r="B82" s="33"/>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
-      <c r="E82" s="33"/>
+      <c r="A82" s="36"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A83" s="33"/>
-      <c r="B83" s="33"/>
-      <c r="C83" s="33"/>
-      <c r="D83" s="33"/>
-      <c r="E83" s="33"/>
+      <c r="A83" s="36"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A84" s="33"/>
-      <c r="B84" s="33"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
+      <c r="A84" s="36"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" s="33"/>
-      <c r="B85" s="33"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33"/>
+      <c r="A85" s="36"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A86" s="33"/>
-      <c r="B86" s="33"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
+      <c r="A86" s="36"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A87" s="33"/>
-      <c r="B87" s="33"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33"/>
+      <c r="A87" s="36"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="36"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A88" s="33"/>
-      <c r="B88" s="33"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
+      <c r="A88" s="36"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A89" s="33"/>
-      <c r="B89" s="33"/>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="33"/>
+      <c r="A89" s="36"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="36"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A90" s="33"/>
-      <c r="B90" s="33"/>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="33"/>
+      <c r="A90" s="36"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="36"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A91" s="33"/>
-      <c r="B91" s="33"/>
-      <c r="C91" s="33"/>
-      <c r="D91" s="33"/>
-      <c r="E91" s="33"/>
+      <c r="A91" s="36"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="36"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A92" s="33"/>
-      <c r="B92" s="33"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="33"/>
+      <c r="A92" s="36"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="36"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A93" s="33"/>
-      <c r="B93" s="33"/>
-      <c r="C93" s="33"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="33"/>
+      <c r="A93" s="36"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="36"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="36"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A94" s="33"/>
-      <c r="B94" s="33"/>
-      <c r="C94" s="33"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="33"/>
+      <c r="A94" s="36"/>
+      <c r="B94" s="36"/>
+      <c r="C94" s="36"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="36"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A95" s="33"/>
-      <c r="B95" s="33"/>
-      <c r="C95" s="33"/>
-      <c r="D95" s="33"/>
-      <c r="E95" s="33"/>
+      <c r="A95" s="36"/>
+      <c r="B95" s="36"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="36"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A96" s="33"/>
-      <c r="B96" s="33"/>
-      <c r="C96" s="33"/>
-      <c r="D96" s="33"/>
-      <c r="E96" s="33"/>
+      <c r="A96" s="36"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="36"/>
+      <c r="D96" s="36"/>
+      <c r="E96" s="36"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A97" s="33"/>
-      <c r="B97" s="33"/>
-      <c r="C97" s="33"/>
-      <c r="D97" s="33"/>
-      <c r="E97" s="33"/>
+      <c r="A97" s="36"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="36"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A98" s="33"/>
-      <c r="B98" s="33"/>
-      <c r="C98" s="33"/>
-      <c r="D98" s="33"/>
-      <c r="E98" s="33"/>
+      <c r="A98" s="36"/>
+      <c r="B98" s="36"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="36"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A99" s="33"/>
-      <c r="B99" s="33"/>
-      <c r="C99" s="33"/>
-      <c r="D99" s="33"/>
-      <c r="E99" s="33"/>
+      <c r="A99" s="36"/>
+      <c r="B99" s="36"/>
+      <c r="C99" s="36"/>
+      <c r="D99" s="36"/>
+      <c r="E99" s="36"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A100" s="33"/>
-      <c r="B100" s="33"/>
-      <c r="C100" s="33"/>
-      <c r="D100" s="33"/>
-      <c r="E100" s="33"/>
+      <c r="A100" s="36"/>
+      <c r="B100" s="36"/>
+      <c r="C100" s="36"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="36"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A101" s="33"/>
-      <c r="B101" s="33"/>
-      <c r="C101" s="33"/>
-      <c r="D101" s="33"/>
-      <c r="E101" s="33"/>
+      <c r="A101" s="36"/>
+      <c r="B101" s="36"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="36"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A102" s="33"/>
-      <c r="B102" s="33"/>
-      <c r="C102" s="33"/>
-      <c r="D102" s="33"/>
-      <c r="E102" s="33"/>
+      <c r="A102" s="36"/>
+      <c r="B102" s="36"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="36"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A103" s="33"/>
-      <c r="B103" s="33"/>
-      <c r="C103" s="33"/>
-      <c r="D103" s="33"/>
-      <c r="E103" s="33"/>
+      <c r="A103" s="36"/>
+      <c r="B103" s="36"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="36"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A104" s="33"/>
-      <c r="B104" s="33"/>
-      <c r="C104" s="33"/>
-      <c r="D104" s="33"/>
-      <c r="E104" s="33"/>
+      <c r="A104" s="36"/>
+      <c r="B104" s="36"/>
+      <c r="C104" s="36"/>
+      <c r="D104" s="36"/>
+      <c r="E104" s="36"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A105" s="33"/>
-      <c r="B105" s="33"/>
-      <c r="C105" s="33"/>
-      <c r="D105" s="33"/>
-      <c r="E105" s="33"/>
+      <c r="A105" s="36"/>
+      <c r="B105" s="36"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="36"/>
+      <c r="E105" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7311,38 +7768,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -7641,13 +8098,13 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="32"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
@@ -7655,538 +8112,538 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="37" t="s">
         <v>280</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="33"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="33"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="33"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="33"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="33"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="33"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="33"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="33"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="33"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="33"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="33"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="33"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="33"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="33"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="33"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="33"/>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="33"/>
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="33"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="33"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="33"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
+      <c r="A60" s="36"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="33"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="33"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
+      <c r="A62" s="36"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="33"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="33"/>
-      <c r="B64" s="33"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
+      <c r="A64" s="36"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="33"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
+      <c r="A65" s="36"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="33"/>
-      <c r="B66" s="33"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33"/>
+      <c r="A66" s="36"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="33"/>
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
+      <c r="A67" s="36"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" s="33"/>
-      <c r="B68" s="33"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33"/>
+      <c r="A68" s="36"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="33"/>
-      <c r="B69" s="33"/>
-      <c r="C69" s="33"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="33"/>
+      <c r="A69" s="36"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" s="33"/>
-      <c r="B70" s="33"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" s="33"/>
-      <c r="B71" s="33"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="33"/>
+      <c r="A71" s="36"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72" s="33"/>
-      <c r="B72" s="33"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33"/>
-      <c r="E72" s="33"/>
+      <c r="A72" s="36"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="33"/>
-      <c r="B73" s="33"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33"/>
+      <c r="A73" s="36"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="33"/>
-      <c r="B74" s="33"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
+      <c r="A74" s="36"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="33"/>
-      <c r="B75" s="33"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33"/>
-      <c r="E75" s="33"/>
+      <c r="A75" s="36"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="33"/>
-      <c r="B76" s="33"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33"/>
+      <c r="A76" s="36"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="33"/>
-      <c r="B77" s="33"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33"/>
-      <c r="E77" s="33"/>
+      <c r="A77" s="36"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="33"/>
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
+      <c r="A78" s="36"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="36"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" s="33"/>
-      <c r="B79" s="33"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="33"/>
+      <c r="A79" s="36"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="36"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" s="33"/>
-      <c r="B80" s="33"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33"/>
+      <c r="A80" s="36"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" s="33"/>
-      <c r="B81" s="33"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="33"/>
+      <c r="A81" s="36"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82" s="33"/>
-      <c r="B82" s="33"/>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
-      <c r="E82" s="33"/>
+      <c r="A82" s="36"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A83" s="33"/>
-      <c r="B83" s="33"/>
-      <c r="C83" s="33"/>
-      <c r="D83" s="33"/>
-      <c r="E83" s="33"/>
+      <c r="A83" s="36"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A84" s="33"/>
-      <c r="B84" s="33"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
+      <c r="A84" s="36"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" s="33"/>
-      <c r="B85" s="33"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33"/>
+      <c r="A85" s="36"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A86" s="33"/>
-      <c r="B86" s="33"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
+      <c r="A86" s="36"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A87" s="33"/>
-      <c r="B87" s="33"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33"/>
+      <c r="A87" s="36"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="36"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A88" s="33"/>
-      <c r="B88" s="33"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
+      <c r="A88" s="36"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A89" s="33"/>
-      <c r="B89" s="33"/>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="33"/>
+      <c r="A89" s="36"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="36"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A90" s="33"/>
-      <c r="B90" s="33"/>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="33"/>
+      <c r="A90" s="36"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="36"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A91" s="33"/>
-      <c r="B91" s="33"/>
-      <c r="C91" s="33"/>
-      <c r="D91" s="33"/>
-      <c r="E91" s="33"/>
+      <c r="A91" s="36"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="36"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A92" s="33"/>
-      <c r="B92" s="33"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="33"/>
+      <c r="A92" s="36"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="36"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A93" s="33"/>
-      <c r="B93" s="33"/>
-      <c r="C93" s="33"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="33"/>
+      <c r="A93" s="36"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="36"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="36"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A94" s="33"/>
-      <c r="B94" s="33"/>
-      <c r="C94" s="33"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="33"/>
+      <c r="A94" s="36"/>
+      <c r="B94" s="36"/>
+      <c r="C94" s="36"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="36"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A95" s="33"/>
-      <c r="B95" s="33"/>
-      <c r="C95" s="33"/>
-      <c r="D95" s="33"/>
-      <c r="E95" s="33"/>
+      <c r="A95" s="36"/>
+      <c r="B95" s="36"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="36"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A96" s="33"/>
-      <c r="B96" s="33"/>
-      <c r="C96" s="33"/>
-      <c r="D96" s="33"/>
-      <c r="E96" s="33"/>
+      <c r="A96" s="36"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="36"/>
+      <c r="D96" s="36"/>
+      <c r="E96" s="36"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A97" s="33"/>
-      <c r="B97" s="33"/>
-      <c r="C97" s="33"/>
-      <c r="D97" s="33"/>
-      <c r="E97" s="33"/>
+      <c r="A97" s="36"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="36"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A98" s="33"/>
-      <c r="B98" s="33"/>
-      <c r="C98" s="33"/>
-      <c r="D98" s="33"/>
-      <c r="E98" s="33"/>
+      <c r="A98" s="36"/>
+      <c r="B98" s="36"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="36"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A99" s="33"/>
-      <c r="B99" s="33"/>
-      <c r="C99" s="33"/>
-      <c r="D99" s="33"/>
-      <c r="E99" s="33"/>
+      <c r="A99" s="36"/>
+      <c r="B99" s="36"/>
+      <c r="C99" s="36"/>
+      <c r="D99" s="36"/>
+      <c r="E99" s="36"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A100" s="33"/>
-      <c r="B100" s="33"/>
-      <c r="C100" s="33"/>
-      <c r="D100" s="33"/>
-      <c r="E100" s="33"/>
+      <c r="A100" s="36"/>
+      <c r="B100" s="36"/>
+      <c r="C100" s="36"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="36"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A101" s="33"/>
-      <c r="B101" s="33"/>
-      <c r="C101" s="33"/>
-      <c r="D101" s="33"/>
-      <c r="E101" s="33"/>
+      <c r="A101" s="36"/>
+      <c r="B101" s="36"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="36"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A102" s="33"/>
-      <c r="B102" s="33"/>
-      <c r="C102" s="33"/>
-      <c r="D102" s="33"/>
-      <c r="E102" s="33"/>
+      <c r="A102" s="36"/>
+      <c r="B102" s="36"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="36"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A103" s="33"/>
-      <c r="B103" s="33"/>
-      <c r="C103" s="33"/>
-      <c r="D103" s="33"/>
-      <c r="E103" s="33"/>
+      <c r="A103" s="36"/>
+      <c r="B103" s="36"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8224,38 +8681,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -8811,272 +9268,272 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="32"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="35"/>
     </row>
     <row r="42" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="44" t="s">
+      <c r="C42" s="47" t="s">
         <v>293</v>
       </c>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
     </row>
     <row r="43" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="35" t="s">
+      <c r="A43" s="38" t="s">
         <v>291</v>
       </c>
-      <c r="B43" s="37"/>
-      <c r="C43" s="35" t="s">
+      <c r="B43" s="40"/>
+      <c r="C43" s="38" t="s">
         <v>292</v>
       </c>
-      <c r="D43" s="36"/>
-      <c r="E43" s="37"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="40"/>
     </row>
     <row r="44" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="38"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="40"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="43"/>
     </row>
     <row r="45" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="38"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="40"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="43"/>
     </row>
     <row r="46" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="38"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="40"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="43"/>
     </row>
     <row r="47" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="38"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="40"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="43"/>
     </row>
     <row r="48" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="38"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="40"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="43"/>
     </row>
     <row r="49" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="38"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="40"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="43"/>
     </row>
     <row r="50" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="38"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="40"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="43"/>
     </row>
     <row r="51" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="38"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="40"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="43"/>
     </row>
     <row r="52" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="38"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="40"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="43"/>
     </row>
     <row r="53" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="38"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="40"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="43"/>
     </row>
     <row r="54" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="38"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="40"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="43"/>
     </row>
     <row r="55" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="38"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="40"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="43"/>
     </row>
     <row r="56" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="38"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="40"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="43"/>
     </row>
     <row r="57" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="38"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="40"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="43"/>
     </row>
     <row r="58" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="38"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="40"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="43"/>
     </row>
     <row r="59" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="38"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="40"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="43"/>
     </row>
     <row r="60" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="38"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="40"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="43"/>
     </row>
     <row r="61" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="38"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="40"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="43"/>
     </row>
     <row r="62" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="38"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="40"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="43"/>
     </row>
     <row r="63" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="38"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="40"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="43"/>
     </row>
     <row r="64" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="38"/>
-      <c r="B64" s="40"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="40"/>
+      <c r="A64" s="41"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="43"/>
     </row>
     <row r="65" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="38"/>
-      <c r="B65" s="40"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="40"/>
+      <c r="A65" s="41"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="43"/>
     </row>
     <row r="66" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="38"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="40"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="43"/>
     </row>
     <row r="67" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="38"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="38"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="40"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="43"/>
     </row>
     <row r="68" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="38"/>
-      <c r="B68" s="40"/>
-      <c r="C68" s="38"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="40"/>
+      <c r="A68" s="41"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="43"/>
     </row>
     <row r="69" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="38"/>
-      <c r="B69" s="40"/>
-      <c r="C69" s="38"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="40"/>
+      <c r="A69" s="41"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="43"/>
     </row>
     <row r="70" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="38"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="40"/>
+      <c r="A70" s="41"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="43"/>
     </row>
     <row r="71" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="38"/>
-      <c r="B71" s="40"/>
-      <c r="C71" s="38"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="40"/>
+      <c r="A71" s="41"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="43"/>
     </row>
     <row r="72" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="38"/>
-      <c r="B72" s="40"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="40"/>
+      <c r="A72" s="41"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="43"/>
     </row>
     <row r="73" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="38"/>
-      <c r="B73" s="40"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="40"/>
+      <c r="A73" s="41"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="43"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="38"/>
-      <c r="B74" s="40"/>
-      <c r="C74" s="38"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="40"/>
+      <c r="A74" s="41"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="43"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="38"/>
-      <c r="B75" s="40"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="40"/>
+      <c r="A75" s="41"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="43"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="38"/>
-      <c r="B76" s="40"/>
-      <c r="C76" s="38"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="40"/>
+      <c r="A76" s="41"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="43"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="41"/>
-      <c r="B77" s="43"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="42"/>
-      <c r="E77" s="43"/>
+      <c r="A77" s="44"/>
+      <c r="B77" s="46"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="46"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="13"/>
@@ -9373,7 +9830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25:G25"/>
     </sheetView>
   </sheetViews>
@@ -9390,38 +9847,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -9647,13 +10104,13 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
@@ -9661,62 +10118,62 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9738,7 +10195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -9754,38 +10211,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="52" t="s">
         <v>295</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="53" t="s">
         <v>296</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -10183,13 +10640,13 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="32"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="35"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
@@ -10197,41 +10654,41 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10269,38 +10726,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -10484,13 +10941,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
@@ -10498,69 +10955,69 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="55" t="s">
         <v>321</v>
       </c>
       <c r="B22" s="56"/>
       <c r="C22" s="56"/>
       <c r="D22" s="56"/>
-      <c r="E22" s="60"/>
+      <c r="E22" s="57"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="58"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="61"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="60"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="58"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="61"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="60"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="58"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="61"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="60"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="58"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="61"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="60"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="58"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="61"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="60"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="58"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="61"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="60"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="58"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="61"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="60"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="59"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="62"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10598,38 +11055,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -10789,13 +11246,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="32"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="35"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
@@ -10803,104 +11260,104 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="51"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="51"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/src/main/file/接口文档-测试项目.xlsx
+++ b/src/main/file/接口文档-测试项目.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="810" firstSheet="13" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="810" firstSheet="13" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="API汇总信息" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="392">
   <si>
     <t>汇总信息</t>
   </si>
@@ -2773,10 +2773,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>/api/fakeuser/record</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>u</t>
     </r>
@@ -2835,10 +2831,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>startTime</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>起始时间</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2863,10 +2855,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>endTime</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>终止时间</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2980,10 +2968,6 @@
   </si>
   <si>
     <t>最后消息时间</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/fakeuser/login</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3018,6 +3002,50 @@
       </rPr>
       <t>api/fakeuser/login</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/fakeuser/login</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/fakeuser/record</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>startTime</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>endTime</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NT</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3274,7 +3302,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -3312,6 +3340,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3424,8 +3455,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3909,38 +3938,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -4200,38 +4229,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>271</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -4480,38 +4509,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>285</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -4695,13 +4724,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="39" t="s">
         <v>292</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
@@ -4709,48 +4738,48 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4790,38 +4819,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>293</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="54" t="s">
         <v>293</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -4957,13 +4986,13 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="39" t="s">
         <v>296</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="41"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
@@ -4971,594 +5000,594 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="29"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="29"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
+      <c r="A53" s="32"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="29"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="29"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
+      <c r="A55" s="32"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="29"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
+      <c r="A57" s="32"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="29"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
+      <c r="A58" s="32"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="29"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
+      <c r="A59" s="32"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="29"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
+      <c r="A60" s="32"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="29"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
+      <c r="A61" s="32"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="29"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
+      <c r="A62" s="32"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="29"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
+      <c r="A63" s="32"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="29"/>
-      <c r="B64" s="29"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
+      <c r="A64" s="32"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="29"/>
-      <c r="B65" s="29"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
+      <c r="A65" s="32"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="29"/>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
+      <c r="A66" s="32"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="29"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
+      <c r="A67" s="32"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" s="29"/>
-      <c r="B68" s="29"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29"/>
+      <c r="A68" s="32"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="29"/>
-      <c r="B69" s="29"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
+      <c r="A69" s="32"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" s="29"/>
-      <c r="B70" s="29"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
+      <c r="A70" s="32"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" s="29"/>
-      <c r="B71" s="29"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
+      <c r="A71" s="32"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72" s="29"/>
-      <c r="B72" s="29"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29"/>
+      <c r="A72" s="32"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="29"/>
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
+      <c r="A73" s="32"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="29"/>
-      <c r="B74" s="29"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
+      <c r="A74" s="32"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="29"/>
-      <c r="B75" s="29"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="29"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="29"/>
-      <c r="B76" s="29"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="29"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="32"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="29"/>
-      <c r="B77" s="29"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="29"/>
+      <c r="A77" s="32"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="32"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="29"/>
-      <c r="B78" s="29"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
+      <c r="A78" s="32"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" s="29"/>
-      <c r="B79" s="29"/>
-      <c r="C79" s="29"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
+      <c r="A79" s="32"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" s="29"/>
-      <c r="B80" s="29"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29"/>
+      <c r="A80" s="32"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="32"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" s="29"/>
-      <c r="B81" s="29"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
+      <c r="A81" s="32"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="32"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82" s="29"/>
-      <c r="B82" s="29"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
+      <c r="A82" s="32"/>
+      <c r="B82" s="32"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="32"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A83" s="29"/>
-      <c r="B83" s="29"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="29"/>
+      <c r="A83" s="32"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="32"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A84" s="29"/>
-      <c r="B84" s="29"/>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
+      <c r="A84" s="32"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" s="29"/>
-      <c r="B85" s="29"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29"/>
+      <c r="A85" s="32"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="32"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A86" s="29"/>
-      <c r="B86" s="29"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="29"/>
-      <c r="E86" s="29"/>
+      <c r="A86" s="32"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="32"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A87" s="29"/>
-      <c r="B87" s="29"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="29"/>
+      <c r="A87" s="32"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="32"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A88" s="29"/>
-      <c r="B88" s="29"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="29"/>
-      <c r="E88" s="29"/>
+      <c r="A88" s="32"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="32"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A89" s="29"/>
-      <c r="B89" s="29"/>
-      <c r="C89" s="29"/>
-      <c r="D89" s="29"/>
-      <c r="E89" s="29"/>
+      <c r="A89" s="32"/>
+      <c r="B89" s="32"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="32"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A90" s="29"/>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
+      <c r="A90" s="32"/>
+      <c r="B90" s="32"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="32"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A91" s="29"/>
-      <c r="B91" s="29"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
+      <c r="A91" s="32"/>
+      <c r="B91" s="32"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="32"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A92" s="29"/>
-      <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29"/>
+      <c r="A92" s="32"/>
+      <c r="B92" s="32"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="32"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A93" s="29"/>
-      <c r="B93" s="29"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="29"/>
+      <c r="A93" s="32"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="32"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A94" s="29"/>
-      <c r="B94" s="29"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="29"/>
+      <c r="A94" s="32"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="32"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A95" s="29"/>
-      <c r="B95" s="29"/>
-      <c r="C95" s="29"/>
-      <c r="D95" s="29"/>
-      <c r="E95" s="29"/>
+      <c r="A95" s="32"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="32"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A96" s="29"/>
-      <c r="B96" s="29"/>
-      <c r="C96" s="29"/>
-      <c r="D96" s="29"/>
-      <c r="E96" s="29"/>
+      <c r="A96" s="32"/>
+      <c r="B96" s="32"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="32"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A97" s="29"/>
-      <c r="B97" s="29"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="29"/>
+      <c r="A97" s="32"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="32"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A98" s="29"/>
-      <c r="B98" s="29"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="29"/>
+      <c r="A98" s="32"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="32"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A99" s="29"/>
-      <c r="B99" s="29"/>
-      <c r="C99" s="29"/>
-      <c r="D99" s="29"/>
-      <c r="E99" s="29"/>
+      <c r="A99" s="32"/>
+      <c r="B99" s="32"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="32"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A100" s="29"/>
-      <c r="B100" s="29"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="29"/>
-      <c r="E100" s="29"/>
+      <c r="A100" s="32"/>
+      <c r="B100" s="32"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="32"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A101" s="29"/>
-      <c r="B101" s="29"/>
-      <c r="C101" s="29"/>
-      <c r="D101" s="29"/>
-      <c r="E101" s="29"/>
+      <c r="A101" s="32"/>
+      <c r="B101" s="32"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="32"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A102" s="29"/>
-      <c r="B102" s="29"/>
-      <c r="C102" s="29"/>
-      <c r="D102" s="29"/>
-      <c r="E102" s="29"/>
+      <c r="A102" s="32"/>
+      <c r="B102" s="32"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5597,38 +5626,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -5808,13 +5837,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="39" t="s">
         <v>303</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
@@ -5822,48 +5851,48 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5903,38 +5932,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -6114,13 +6143,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="39" t="s">
         <v>306</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
@@ -6128,48 +6157,48 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6193,7 +6222,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -6208,26 +6237,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>361</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
@@ -6235,13 +6264,13 @@
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="54" t="s">
         <v>362</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
@@ -6249,8 +6278,8 @@
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="68" t="s">
-        <v>363</v>
+      <c r="B4" s="31" t="s">
+        <v>385</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>23</v>
@@ -6317,8 +6346,8 @@
       <c r="A8" s="10">
         <v>1</v>
       </c>
-      <c r="B8" s="67" t="s">
-        <v>364</v>
+      <c r="B8" s="30" t="s">
+        <v>363</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>300</v>
@@ -6333,8 +6362,8 @@
       <c r="G8" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="H8" s="67" t="s">
-        <v>365</v>
+      <c r="H8" s="30" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -6464,13 +6493,13 @@
       <c r="H16" s="28"/>
     </row>
     <row r="17" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="36" t="s">
-        <v>366</v>
-      </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
+      <c r="A17" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
@@ -6498,63 +6527,63 @@
       <c r="H19" s="28"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
@@ -6578,10 +6607,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -6597,26 +6626,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="69" t="s">
-        <v>367</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="B2" s="70" t="s">
+        <v>366</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
@@ -6624,13 +6653,13 @@
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="70" t="s">
-        <v>367</v>
-      </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="B3" s="71" t="s">
+        <v>366</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
@@ -6638,8 +6667,8 @@
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="68" t="s">
-        <v>368</v>
+      <c r="B4" s="31" t="s">
+        <v>367</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>23</v>
@@ -6706,14 +6735,14 @@
       <c r="A8" s="10">
         <v>1</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="D8" s="30" t="s">
         <v>369</v>
-      </c>
-      <c r="C8" s="67" t="s">
-        <v>370</v>
-      </c>
-      <c r="D8" s="67" t="s">
-        <v>371</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>37</v>
@@ -6722,45 +6751,55 @@
       <c r="G8" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="H8" s="67" t="s">
-        <v>365</v>
+      <c r="H8" s="30" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>2</v>
       </c>
-      <c r="B9" s="67" t="s">
-        <v>373</v>
-      </c>
-      <c r="C9" s="67" t="s">
-        <v>374</v>
-      </c>
-      <c r="D9" s="67" t="s">
-        <v>375</v>
+      <c r="B9" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>372</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="67"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="28" t="s">
+      <c r="H9" s="30"/>
+    </row>
+    <row r="10" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10">
+        <v>3</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="28" t="s">
         <v>25</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-    </row>
-    <row r="11" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
@@ -6770,41 +6809,33 @@
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>43</v>
-      </c>
+    <row r="12" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="10">
-        <v>1</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>47</v>
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
@@ -6812,19 +6843,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
@@ -6832,83 +6863,91 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
     </row>
-    <row r="16" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>377</v>
+        <v>51</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>378</v>
+        <v>52</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="E16" s="10"/>
+        <v>53</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
     </row>
     <row r="17" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10">
+        <v>5</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="10">
         <v>6</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
+      <c r="B19" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="11" t="s">
-        <v>58</v>
-      </c>
+      <c r="A20" s="28"/>
       <c r="B20" s="28"/>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
@@ -6917,32 +6956,32 @@
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
     </row>
-    <row r="21" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="36" t="s">
-        <v>376</v>
-      </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
+    <row r="22" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="39" t="s">
+        <v>373</v>
+      </c>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="41"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="11" t="s">
-        <v>99</v>
-      </c>
+      <c r="A23" s="28"/>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
@@ -6952,80 +6991,93 @@
       <c r="H23" s="28"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
+      <c r="A24" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
+      <c r="A25" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A24:E29"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A25:E30"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1"/>
+    <hyperlink ref="A22" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7033,8 +7085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -7048,26 +7100,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
@@ -7075,13 +7127,13 @@
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
@@ -7089,8 +7141,8 @@
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="68" t="s">
-        <v>385</v>
+      <c r="B4" s="31" t="s">
+        <v>384</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>23</v>
@@ -7155,14 +7207,14 @@
       <c r="A8" s="10">
         <v>1</v>
       </c>
-      <c r="B8" s="67" t="s">
-        <v>364</v>
-      </c>
-      <c r="C8" s="67" t="s">
-        <v>386</v>
-      </c>
-      <c r="D8" s="67" t="s">
-        <v>379</v>
+      <c r="B8" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>376</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>37</v>
@@ -7170,8 +7222,8 @@
       <c r="F8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="67" t="s">
-        <v>386</v>
+      <c r="G8" s="30" t="s">
+        <v>382</v>
       </c>
       <c r="H8" s="28"/>
     </row>
@@ -7362,13 +7414,13 @@
       <c r="H19" s="28"/>
     </row>
     <row r="20" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="34" t="s">
-        <v>387</v>
-      </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
+      <c r="A20" s="37" t="s">
+        <v>383</v>
+      </c>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
@@ -7396,123 +7448,123 @@
       <c r="H22" s="28"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="32" t="s">
         <v>360</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
       <c r="F30" s="28"/>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
       <c r="F32" s="28"/>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
       <c r="F33" s="28"/>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
       <c r="F34" s="28"/>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
@@ -7840,38 +7892,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -8093,13 +8145,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="11" t="s">
@@ -8107,90 +8159,90 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="32" t="s">
         <v>360</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8245,38 +8297,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -8619,13 +8671,13 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="11" t="s">
@@ -8633,538 +8685,538 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="39"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="39"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="39"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="39"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="39"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="39"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="39"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="39"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="39"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="39"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="39"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="39"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="39"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="39"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="39"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="39"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="39"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
+      <c r="A50" s="42"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="39"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="39"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
+      <c r="A52" s="42"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="39"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="39"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="39"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="39"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
+      <c r="A56" s="42"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="39"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
+      <c r="A57" s="42"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="39"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="39"/>
+      <c r="A58" s="42"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="39"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
+      <c r="A59" s="42"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="39"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
+      <c r="A60" s="42"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="39"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="39"/>
+      <c r="A61" s="42"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="39"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
+      <c r="A62" s="42"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="39"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="39"/>
-      <c r="B64" s="39"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39"/>
+      <c r="A64" s="42"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="39"/>
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
+      <c r="A65" s="42"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="39"/>
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="39"/>
+      <c r="A66" s="42"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="39"/>
-      <c r="B67" s="39"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
+      <c r="A67" s="42"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" s="39"/>
-      <c r="B68" s="39"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="39"/>
+      <c r="A68" s="42"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="39"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="39"/>
+      <c r="A69" s="42"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" s="39"/>
-      <c r="B70" s="39"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="39"/>
+      <c r="A70" s="42"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" s="39"/>
-      <c r="B71" s="39"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="39"/>
+      <c r="A71" s="42"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72" s="39"/>
-      <c r="B72" s="39"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="39"/>
+      <c r="A72" s="42"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="39"/>
-      <c r="B73" s="39"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="39"/>
+      <c r="A73" s="42"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="39"/>
-      <c r="B74" s="39"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="39"/>
+      <c r="A74" s="42"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="39"/>
-      <c r="B75" s="39"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="39"/>
+      <c r="A75" s="42"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="39"/>
-      <c r="B76" s="39"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="39"/>
+      <c r="A76" s="42"/>
+      <c r="B76" s="42"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="39"/>
-      <c r="B77" s="39"/>
-      <c r="C77" s="39"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="39"/>
+      <c r="A77" s="42"/>
+      <c r="B77" s="42"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="42"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="39"/>
-      <c r="B78" s="39"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="39"/>
+      <c r="A78" s="42"/>
+      <c r="B78" s="42"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="42"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" s="39"/>
-      <c r="B79" s="39"/>
-      <c r="C79" s="39"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="39"/>
+      <c r="A79" s="42"/>
+      <c r="B79" s="42"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" s="39"/>
-      <c r="B80" s="39"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="39"/>
+      <c r="A80" s="42"/>
+      <c r="B80" s="42"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="42"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" s="39"/>
-      <c r="B81" s="39"/>
-      <c r="C81" s="39"/>
-      <c r="D81" s="39"/>
-      <c r="E81" s="39"/>
+      <c r="A81" s="42"/>
+      <c r="B81" s="42"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82" s="39"/>
-      <c r="B82" s="39"/>
-      <c r="C82" s="39"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="39"/>
+      <c r="A82" s="42"/>
+      <c r="B82" s="42"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="42"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A83" s="39"/>
-      <c r="B83" s="39"/>
-      <c r="C83" s="39"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="39"/>
+      <c r="A83" s="42"/>
+      <c r="B83" s="42"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A84" s="39"/>
-      <c r="B84" s="39"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="39"/>
+      <c r="A84" s="42"/>
+      <c r="B84" s="42"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="42"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" s="39"/>
-      <c r="B85" s="39"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="39"/>
-      <c r="E85" s="39"/>
+      <c r="A85" s="42"/>
+      <c r="B85" s="42"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A86" s="39"/>
-      <c r="B86" s="39"/>
-      <c r="C86" s="39"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="39"/>
+      <c r="A86" s="42"/>
+      <c r="B86" s="42"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="42"/>
+      <c r="E86" s="42"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A87" s="39"/>
-      <c r="B87" s="39"/>
-      <c r="C87" s="39"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="39"/>
+      <c r="A87" s="42"/>
+      <c r="B87" s="42"/>
+      <c r="C87" s="42"/>
+      <c r="D87" s="42"/>
+      <c r="E87" s="42"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A88" s="39"/>
-      <c r="B88" s="39"/>
-      <c r="C88" s="39"/>
-      <c r="D88" s="39"/>
-      <c r="E88" s="39"/>
+      <c r="A88" s="42"/>
+      <c r="B88" s="42"/>
+      <c r="C88" s="42"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="42"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A89" s="39"/>
-      <c r="B89" s="39"/>
-      <c r="C89" s="39"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="39"/>
+      <c r="A89" s="42"/>
+      <c r="B89" s="42"/>
+      <c r="C89" s="42"/>
+      <c r="D89" s="42"/>
+      <c r="E89" s="42"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A90" s="39"/>
-      <c r="B90" s="39"/>
-      <c r="C90" s="39"/>
-      <c r="D90" s="39"/>
-      <c r="E90" s="39"/>
+      <c r="A90" s="42"/>
+      <c r="B90" s="42"/>
+      <c r="C90" s="42"/>
+      <c r="D90" s="42"/>
+      <c r="E90" s="42"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A91" s="39"/>
-      <c r="B91" s="39"/>
-      <c r="C91" s="39"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="39"/>
+      <c r="A91" s="42"/>
+      <c r="B91" s="42"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="42"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A92" s="39"/>
-      <c r="B92" s="39"/>
-      <c r="C92" s="39"/>
-      <c r="D92" s="39"/>
-      <c r="E92" s="39"/>
+      <c r="A92" s="42"/>
+      <c r="B92" s="42"/>
+      <c r="C92" s="42"/>
+      <c r="D92" s="42"/>
+      <c r="E92" s="42"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A93" s="39"/>
-      <c r="B93" s="39"/>
-      <c r="C93" s="39"/>
-      <c r="D93" s="39"/>
-      <c r="E93" s="39"/>
+      <c r="A93" s="42"/>
+      <c r="B93" s="42"/>
+      <c r="C93" s="42"/>
+      <c r="D93" s="42"/>
+      <c r="E93" s="42"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A94" s="39"/>
-      <c r="B94" s="39"/>
-      <c r="C94" s="39"/>
-      <c r="D94" s="39"/>
-      <c r="E94" s="39"/>
+      <c r="A94" s="42"/>
+      <c r="B94" s="42"/>
+      <c r="C94" s="42"/>
+      <c r="D94" s="42"/>
+      <c r="E94" s="42"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A95" s="39"/>
-      <c r="B95" s="39"/>
-      <c r="C95" s="39"/>
-      <c r="D95" s="39"/>
-      <c r="E95" s="39"/>
+      <c r="A95" s="42"/>
+      <c r="B95" s="42"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="42"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A96" s="39"/>
-      <c r="B96" s="39"/>
-      <c r="C96" s="39"/>
-      <c r="D96" s="39"/>
-      <c r="E96" s="39"/>
+      <c r="A96" s="42"/>
+      <c r="B96" s="42"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="42"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A97" s="39"/>
-      <c r="B97" s="39"/>
-      <c r="C97" s="39"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="39"/>
+      <c r="A97" s="42"/>
+      <c r="B97" s="42"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="42"/>
+      <c r="E97" s="42"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A98" s="39"/>
-      <c r="B98" s="39"/>
-      <c r="C98" s="39"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="39"/>
+      <c r="A98" s="42"/>
+      <c r="B98" s="42"/>
+      <c r="C98" s="42"/>
+      <c r="D98" s="42"/>
+      <c r="E98" s="42"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A99" s="39"/>
-      <c r="B99" s="39"/>
-      <c r="C99" s="39"/>
-      <c r="D99" s="39"/>
-      <c r="E99" s="39"/>
+      <c r="A99" s="42"/>
+      <c r="B99" s="42"/>
+      <c r="C99" s="42"/>
+      <c r="D99" s="42"/>
+      <c r="E99" s="42"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A100" s="39"/>
-      <c r="B100" s="39"/>
-      <c r="C100" s="39"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="39"/>
+      <c r="A100" s="42"/>
+      <c r="B100" s="42"/>
+      <c r="C100" s="42"/>
+      <c r="D100" s="42"/>
+      <c r="E100" s="42"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A101" s="39"/>
-      <c r="B101" s="39"/>
-      <c r="C101" s="39"/>
-      <c r="D101" s="39"/>
-      <c r="E101" s="39"/>
+      <c r="A101" s="42"/>
+      <c r="B101" s="42"/>
+      <c r="C101" s="42"/>
+      <c r="D101" s="42"/>
+      <c r="E101" s="42"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A102" s="39"/>
-      <c r="B102" s="39"/>
-      <c r="C102" s="39"/>
-      <c r="D102" s="39"/>
-      <c r="E102" s="39"/>
+      <c r="A102" s="42"/>
+      <c r="B102" s="42"/>
+      <c r="C102" s="42"/>
+      <c r="D102" s="42"/>
+      <c r="E102" s="42"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A103" s="39"/>
-      <c r="B103" s="39"/>
-      <c r="C103" s="39"/>
-      <c r="D103" s="39"/>
-      <c r="E103" s="39"/>
+      <c r="A103" s="42"/>
+      <c r="B103" s="42"/>
+      <c r="C103" s="42"/>
+      <c r="D103" s="42"/>
+      <c r="E103" s="42"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A104" s="39"/>
-      <c r="B104" s="39"/>
-      <c r="C104" s="39"/>
-      <c r="D104" s="39"/>
-      <c r="E104" s="39"/>
+      <c r="A104" s="42"/>
+      <c r="B104" s="42"/>
+      <c r="C104" s="42"/>
+      <c r="D104" s="42"/>
+      <c r="E104" s="42"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A105" s="39"/>
-      <c r="B105" s="39"/>
-      <c r="C105" s="39"/>
-      <c r="D105" s="39"/>
-      <c r="E105" s="39"/>
+      <c r="A105" s="42"/>
+      <c r="B105" s="42"/>
+      <c r="C105" s="42"/>
+      <c r="D105" s="42"/>
+      <c r="E105" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9203,38 +9255,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -9533,13 +9585,13 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="11" t="s">
@@ -9547,538 +9599,538 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="39"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="39"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="39"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="39"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="39"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="39"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="39"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="39"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="39"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="39"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="39"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="39"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="39"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="39"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="39"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="39"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="39"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="39"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
+      <c r="A50" s="42"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="39"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="39"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
+      <c r="A52" s="42"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="39"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="39"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="39"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="39"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
+      <c r="A56" s="42"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="39"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
+      <c r="A57" s="42"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="39"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="39"/>
+      <c r="A58" s="42"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="39"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
+      <c r="A59" s="42"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="39"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
+      <c r="A60" s="42"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="39"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="39"/>
+      <c r="A61" s="42"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="39"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
+      <c r="A62" s="42"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="39"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="39"/>
-      <c r="B64" s="39"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39"/>
+      <c r="A64" s="42"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="39"/>
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
+      <c r="A65" s="42"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="39"/>
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="39"/>
+      <c r="A66" s="42"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="39"/>
-      <c r="B67" s="39"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
+      <c r="A67" s="42"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" s="39"/>
-      <c r="B68" s="39"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="39"/>
+      <c r="A68" s="42"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="39"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="39"/>
+      <c r="A69" s="42"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" s="39"/>
-      <c r="B70" s="39"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="39"/>
+      <c r="A70" s="42"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" s="39"/>
-      <c r="B71" s="39"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="39"/>
+      <c r="A71" s="42"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72" s="39"/>
-      <c r="B72" s="39"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="39"/>
+      <c r="A72" s="42"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="39"/>
-      <c r="B73" s="39"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="39"/>
+      <c r="A73" s="42"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="39"/>
-      <c r="B74" s="39"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="39"/>
+      <c r="A74" s="42"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="39"/>
-      <c r="B75" s="39"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="39"/>
+      <c r="A75" s="42"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="39"/>
-      <c r="B76" s="39"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="39"/>
+      <c r="A76" s="42"/>
+      <c r="B76" s="42"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="39"/>
-      <c r="B77" s="39"/>
-      <c r="C77" s="39"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="39"/>
+      <c r="A77" s="42"/>
+      <c r="B77" s="42"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="42"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="39"/>
-      <c r="B78" s="39"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="39"/>
+      <c r="A78" s="42"/>
+      <c r="B78" s="42"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="42"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" s="39"/>
-      <c r="B79" s="39"/>
-      <c r="C79" s="39"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="39"/>
+      <c r="A79" s="42"/>
+      <c r="B79" s="42"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" s="39"/>
-      <c r="B80" s="39"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="39"/>
+      <c r="A80" s="42"/>
+      <c r="B80" s="42"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="42"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" s="39"/>
-      <c r="B81" s="39"/>
-      <c r="C81" s="39"/>
-      <c r="D81" s="39"/>
-      <c r="E81" s="39"/>
+      <c r="A81" s="42"/>
+      <c r="B81" s="42"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82" s="39"/>
-      <c r="B82" s="39"/>
-      <c r="C82" s="39"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="39"/>
+      <c r="A82" s="42"/>
+      <c r="B82" s="42"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="42"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A83" s="39"/>
-      <c r="B83" s="39"/>
-      <c r="C83" s="39"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="39"/>
+      <c r="A83" s="42"/>
+      <c r="B83" s="42"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A84" s="39"/>
-      <c r="B84" s="39"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="39"/>
+      <c r="A84" s="42"/>
+      <c r="B84" s="42"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="42"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" s="39"/>
-      <c r="B85" s="39"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="39"/>
-      <c r="E85" s="39"/>
+      <c r="A85" s="42"/>
+      <c r="B85" s="42"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A86" s="39"/>
-      <c r="B86" s="39"/>
-      <c r="C86" s="39"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="39"/>
+      <c r="A86" s="42"/>
+      <c r="B86" s="42"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="42"/>
+      <c r="E86" s="42"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A87" s="39"/>
-      <c r="B87" s="39"/>
-      <c r="C87" s="39"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="39"/>
+      <c r="A87" s="42"/>
+      <c r="B87" s="42"/>
+      <c r="C87" s="42"/>
+      <c r="D87" s="42"/>
+      <c r="E87" s="42"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A88" s="39"/>
-      <c r="B88" s="39"/>
-      <c r="C88" s="39"/>
-      <c r="D88" s="39"/>
-      <c r="E88" s="39"/>
+      <c r="A88" s="42"/>
+      <c r="B88" s="42"/>
+      <c r="C88" s="42"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="42"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A89" s="39"/>
-      <c r="B89" s="39"/>
-      <c r="C89" s="39"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="39"/>
+      <c r="A89" s="42"/>
+      <c r="B89" s="42"/>
+      <c r="C89" s="42"/>
+      <c r="D89" s="42"/>
+      <c r="E89" s="42"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A90" s="39"/>
-      <c r="B90" s="39"/>
-      <c r="C90" s="39"/>
-      <c r="D90" s="39"/>
-      <c r="E90" s="39"/>
+      <c r="A90" s="42"/>
+      <c r="B90" s="42"/>
+      <c r="C90" s="42"/>
+      <c r="D90" s="42"/>
+      <c r="E90" s="42"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A91" s="39"/>
-      <c r="B91" s="39"/>
-      <c r="C91" s="39"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="39"/>
+      <c r="A91" s="42"/>
+      <c r="B91" s="42"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="42"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A92" s="39"/>
-      <c r="B92" s="39"/>
-      <c r="C92" s="39"/>
-      <c r="D92" s="39"/>
-      <c r="E92" s="39"/>
+      <c r="A92" s="42"/>
+      <c r="B92" s="42"/>
+      <c r="C92" s="42"/>
+      <c r="D92" s="42"/>
+      <c r="E92" s="42"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A93" s="39"/>
-      <c r="B93" s="39"/>
-      <c r="C93" s="39"/>
-      <c r="D93" s="39"/>
-      <c r="E93" s="39"/>
+      <c r="A93" s="42"/>
+      <c r="B93" s="42"/>
+      <c r="C93" s="42"/>
+      <c r="D93" s="42"/>
+      <c r="E93" s="42"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A94" s="39"/>
-      <c r="B94" s="39"/>
-      <c r="C94" s="39"/>
-      <c r="D94" s="39"/>
-      <c r="E94" s="39"/>
+      <c r="A94" s="42"/>
+      <c r="B94" s="42"/>
+      <c r="C94" s="42"/>
+      <c r="D94" s="42"/>
+      <c r="E94" s="42"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A95" s="39"/>
-      <c r="B95" s="39"/>
-      <c r="C95" s="39"/>
-      <c r="D95" s="39"/>
-      <c r="E95" s="39"/>
+      <c r="A95" s="42"/>
+      <c r="B95" s="42"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="42"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A96" s="39"/>
-      <c r="B96" s="39"/>
-      <c r="C96" s="39"/>
-      <c r="D96" s="39"/>
-      <c r="E96" s="39"/>
+      <c r="A96" s="42"/>
+      <c r="B96" s="42"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="42"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A97" s="39"/>
-      <c r="B97" s="39"/>
-      <c r="C97" s="39"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="39"/>
+      <c r="A97" s="42"/>
+      <c r="B97" s="42"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="42"/>
+      <c r="E97" s="42"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A98" s="39"/>
-      <c r="B98" s="39"/>
-      <c r="C98" s="39"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="39"/>
+      <c r="A98" s="42"/>
+      <c r="B98" s="42"/>
+      <c r="C98" s="42"/>
+      <c r="D98" s="42"/>
+      <c r="E98" s="42"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A99" s="39"/>
-      <c r="B99" s="39"/>
-      <c r="C99" s="39"/>
-      <c r="D99" s="39"/>
-      <c r="E99" s="39"/>
+      <c r="A99" s="42"/>
+      <c r="B99" s="42"/>
+      <c r="C99" s="42"/>
+      <c r="D99" s="42"/>
+      <c r="E99" s="42"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A100" s="39"/>
-      <c r="B100" s="39"/>
-      <c r="C100" s="39"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="39"/>
+      <c r="A100" s="42"/>
+      <c r="B100" s="42"/>
+      <c r="C100" s="42"/>
+      <c r="D100" s="42"/>
+      <c r="E100" s="42"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A101" s="39"/>
-      <c r="B101" s="39"/>
-      <c r="C101" s="39"/>
-      <c r="D101" s="39"/>
-      <c r="E101" s="39"/>
+      <c r="A101" s="42"/>
+      <c r="B101" s="42"/>
+      <c r="C101" s="42"/>
+      <c r="D101" s="42"/>
+      <c r="E101" s="42"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A102" s="39"/>
-      <c r="B102" s="39"/>
-      <c r="C102" s="39"/>
-      <c r="D102" s="39"/>
-      <c r="E102" s="39"/>
+      <c r="A102" s="42"/>
+      <c r="B102" s="42"/>
+      <c r="C102" s="42"/>
+      <c r="D102" s="42"/>
+      <c r="E102" s="42"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A103" s="39"/>
-      <c r="B103" s="39"/>
-      <c r="C103" s="39"/>
-      <c r="D103" s="39"/>
-      <c r="E103" s="39"/>
+      <c r="A103" s="42"/>
+      <c r="B103" s="42"/>
+      <c r="C103" s="42"/>
+      <c r="D103" s="42"/>
+      <c r="E103" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10116,38 +10168,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -10703,272 +10755,272 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="36" t="s">
+      <c r="A40" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="38"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="41"/>
     </row>
     <row r="42" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
     </row>
     <row r="43" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="B43" s="42"/>
-      <c r="C43" s="40" t="s">
+      <c r="B43" s="45"/>
+      <c r="C43" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="D43" s="41"/>
-      <c r="E43" s="42"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="45"/>
     </row>
     <row r="44" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="43"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="45"/>
+      <c r="A44" s="46"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="48"/>
     </row>
     <row r="45" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="43"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="45"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="48"/>
     </row>
     <row r="46" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="43"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="45"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="48"/>
     </row>
     <row r="47" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="43"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="45"/>
+      <c r="A47" s="46"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="48"/>
     </row>
     <row r="48" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="43"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="45"/>
+      <c r="A48" s="46"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="48"/>
     </row>
     <row r="49" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="43"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="45"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="48"/>
     </row>
     <row r="50" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="43"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="45"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="48"/>
     </row>
     <row r="51" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="43"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="45"/>
+      <c r="A51" s="46"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="48"/>
     </row>
     <row r="52" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="43"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="45"/>
+      <c r="A52" s="46"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="48"/>
     </row>
     <row r="53" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="43"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="45"/>
+      <c r="A53" s="46"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="48"/>
     </row>
     <row r="54" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="43"/>
-      <c r="B54" s="45"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="45"/>
+      <c r="A54" s="46"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="48"/>
     </row>
     <row r="55" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="43"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="45"/>
+      <c r="A55" s="46"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="48"/>
     </row>
     <row r="56" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="43"/>
-      <c r="B56" s="45"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="44"/>
-      <c r="E56" s="45"/>
+      <c r="A56" s="46"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="48"/>
     </row>
     <row r="57" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="43"/>
-      <c r="B57" s="45"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="45"/>
+      <c r="A57" s="46"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="48"/>
     </row>
     <row r="58" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="43"/>
-      <c r="B58" s="45"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="45"/>
+      <c r="A58" s="46"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="48"/>
     </row>
     <row r="59" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="43"/>
-      <c r="B59" s="45"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="45"/>
+      <c r="A59" s="46"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="48"/>
     </row>
     <row r="60" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="43"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="45"/>
+      <c r="A60" s="46"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="48"/>
     </row>
     <row r="61" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="43"/>
-      <c r="B61" s="45"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="45"/>
+      <c r="A61" s="46"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="48"/>
     </row>
     <row r="62" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="43"/>
-      <c r="B62" s="45"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="45"/>
+      <c r="A62" s="46"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="48"/>
     </row>
     <row r="63" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="43"/>
-      <c r="B63" s="45"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="45"/>
+      <c r="A63" s="46"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="48"/>
     </row>
     <row r="64" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="43"/>
-      <c r="B64" s="45"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="45"/>
+      <c r="A64" s="46"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="48"/>
     </row>
     <row r="65" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="43"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="44"/>
-      <c r="E65" s="45"/>
+      <c r="A65" s="46"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="48"/>
     </row>
     <row r="66" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="43"/>
-      <c r="B66" s="45"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="45"/>
+      <c r="A66" s="46"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="48"/>
     </row>
     <row r="67" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="43"/>
-      <c r="B67" s="45"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="45"/>
+      <c r="A67" s="46"/>
+      <c r="B67" s="48"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="48"/>
     </row>
     <row r="68" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="43"/>
-      <c r="B68" s="45"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="44"/>
-      <c r="E68" s="45"/>
+      <c r="A68" s="46"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="48"/>
     </row>
     <row r="69" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="43"/>
-      <c r="B69" s="45"/>
-      <c r="C69" s="43"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="45"/>
+      <c r="A69" s="46"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="48"/>
     </row>
     <row r="70" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="43"/>
-      <c r="B70" s="45"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="45"/>
+      <c r="A70" s="46"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="47"/>
+      <c r="E70" s="48"/>
     </row>
     <row r="71" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="43"/>
-      <c r="B71" s="45"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="45"/>
+      <c r="A71" s="46"/>
+      <c r="B71" s="48"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="48"/>
     </row>
     <row r="72" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="43"/>
-      <c r="B72" s="45"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="44"/>
-      <c r="E72" s="45"/>
+      <c r="A72" s="46"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="47"/>
+      <c r="E72" s="48"/>
     </row>
     <row r="73" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="43"/>
-      <c r="B73" s="45"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="45"/>
+      <c r="A73" s="46"/>
+      <c r="B73" s="48"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="47"/>
+      <c r="E73" s="48"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="43"/>
-      <c r="B74" s="45"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="45"/>
+      <c r="A74" s="46"/>
+      <c r="B74" s="48"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="47"/>
+      <c r="E74" s="48"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="43"/>
-      <c r="B75" s="45"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="45"/>
+      <c r="A75" s="46"/>
+      <c r="B75" s="48"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="48"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="43"/>
-      <c r="B76" s="45"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="45"/>
+      <c r="A76" s="46"/>
+      <c r="B76" s="48"/>
+      <c r="C76" s="46"/>
+      <c r="D76" s="47"/>
+      <c r="E76" s="48"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="46"/>
-      <c r="B77" s="48"/>
-      <c r="C77" s="46"/>
-      <c r="D77" s="47"/>
-      <c r="E77" s="48"/>
+      <c r="A77" s="49"/>
+      <c r="B77" s="51"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="51"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="21"/>
@@ -11282,38 +11334,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -11539,13 +11591,13 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
@@ -11553,62 +11605,62 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -11646,38 +11698,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -12200,13 +12252,13 @@
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="55" t="s">
+      <c r="A34" s="58" t="s">
         <v>237</v>
       </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="57"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="60"/>
     </row>
     <row r="35" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A35" s="19"/>
@@ -12221,41 +12273,41 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="54"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="54"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
+      <c r="A40" s="57"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="54"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -12293,38 +12345,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -12508,13 +12560,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="s">
@@ -12522,69 +12574,69 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="61" t="s">
         <v>246</v>
       </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="60"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="63"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="61"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="63"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="66"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="61"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="63"/>
+      <c r="A24" s="64"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="66"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="61"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="63"/>
+      <c r="A25" s="64"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="66"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="61"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="63"/>
+      <c r="A26" s="64"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="66"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="61"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="63"/>
+      <c r="A27" s="64"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="61"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="63"/>
+      <c r="A28" s="64"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="66"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="61"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="63"/>
+      <c r="A29" s="64"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="66"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="64"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="66"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -12622,38 +12674,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -12813,13 +12865,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="s">
@@ -12827,104 +12879,104 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/src/main/file/接口文档-测试项目.xlsx
+++ b/src/main/file/接口文档-测试项目.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="810" firstSheet="13" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="810" firstSheet="13" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="API汇总信息" sheetId="1" r:id="rId1"/>
@@ -30,15 +30,16 @@
     <sheet name="真实用户向假用户发消息登记" sheetId="24" r:id="rId16"/>
     <sheet name="按时间查询需要登录的假用户信息" sheetId="25" r:id="rId17"/>
     <sheet name="假用户登录" sheetId="26" r:id="rId18"/>
-    <sheet name="返回码表" sheetId="23" r:id="rId19"/>
-    <sheet name="打点数据" sheetId="14" r:id="rId20"/>
+    <sheet name="获取最新app版本" sheetId="27" r:id="rId19"/>
+    <sheet name="返回码表" sheetId="23" r:id="rId20"/>
+    <sheet name="打点数据" sheetId="14" r:id="rId21"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="405">
   <si>
     <t>汇总信息</t>
   </si>
@@ -3046,6 +3047,117 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/version/get</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取最新版本信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentVersion</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前版本信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>STRING</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>data.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>update</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>data.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>version</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>data.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>url</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要更新</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新版本信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新的链接地址</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>http://119.23.220.163:8080</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/api/version/get</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": 0,
+    "msg": "Success",
+    "detail": "成功",
+    "data": {
+        "update": true,
+        "version": "4.0.1",
+        "url": "http://119.23.220.163:9527/quxiangqin/version/download/com.saku.dateone.apk"
+    }
+}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3302,7 +3414,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -3343,6 +3455,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3460,6 +3573,13 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3938,38 +4058,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -4229,38 +4349,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -4509,38 +4629,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>285</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -4724,13 +4844,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="40" t="s">
         <v>292</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
@@ -4738,48 +4858,48 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="57"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4819,38 +4939,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>293</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>293</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -4986,13 +5106,13 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="40" t="s">
         <v>296</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
@@ -5000,594 +5120,594 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="32"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="32"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="32"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="32"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="32"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="32"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="32"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="32"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="32"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="32"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="32"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="32"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="32"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
+      <c r="A48" s="33"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="32"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="32"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="32"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="32"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="32"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="32"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="32"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="32"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="32"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="32"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
+      <c r="A58" s="33"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="32"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="32"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="32"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="32"/>
-      <c r="B62" s="32"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="32"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
+      <c r="A63" s="33"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="32"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="32"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
+      <c r="A65" s="33"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="32"/>
-      <c r="B66" s="32"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
+      <c r="A66" s="33"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="32"/>
-      <c r="B67" s="32"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
+      <c r="A67" s="33"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" s="32"/>
-      <c r="B68" s="32"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
+      <c r="A68" s="33"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="32"/>
-      <c r="B69" s="32"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="32"/>
+      <c r="A69" s="33"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" s="32"/>
-      <c r="B70" s="32"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32"/>
+      <c r="A70" s="33"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" s="32"/>
-      <c r="B71" s="32"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="32"/>
+      <c r="A71" s="33"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72" s="32"/>
-      <c r="B72" s="32"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="32"/>
+      <c r="A72" s="33"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="33"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="32"/>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
+      <c r="A73" s="33"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="32"/>
-      <c r="B74" s="32"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32"/>
+      <c r="A74" s="33"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="32"/>
-      <c r="B75" s="32"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
+      <c r="A75" s="33"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="33"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="32"/>
-      <c r="B76" s="32"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32"/>
-      <c r="E76" s="32"/>
+      <c r="A76" s="33"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="33"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="32"/>
-      <c r="B77" s="32"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="32"/>
+      <c r="A77" s="33"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="33"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="32"/>
-      <c r="B78" s="32"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="32"/>
+      <c r="A78" s="33"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" s="32"/>
-      <c r="B79" s="32"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
-      <c r="E79" s="32"/>
+      <c r="A79" s="33"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" s="32"/>
-      <c r="B80" s="32"/>
-      <c r="C80" s="32"/>
-      <c r="D80" s="32"/>
-      <c r="E80" s="32"/>
+      <c r="A80" s="33"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" s="32"/>
-      <c r="B81" s="32"/>
-      <c r="C81" s="32"/>
-      <c r="D81" s="32"/>
-      <c r="E81" s="32"/>
+      <c r="A81" s="33"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82" s="32"/>
-      <c r="B82" s="32"/>
-      <c r="C82" s="32"/>
-      <c r="D82" s="32"/>
-      <c r="E82" s="32"/>
+      <c r="A82" s="33"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A83" s="32"/>
-      <c r="B83" s="32"/>
-      <c r="C83" s="32"/>
-      <c r="D83" s="32"/>
-      <c r="E83" s="32"/>
+      <c r="A83" s="33"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="33"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A84" s="32"/>
-      <c r="B84" s="32"/>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="32"/>
+      <c r="A84" s="33"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" s="32"/>
-      <c r="B85" s="32"/>
-      <c r="C85" s="32"/>
-      <c r="D85" s="32"/>
-      <c r="E85" s="32"/>
+      <c r="A85" s="33"/>
+      <c r="B85" s="33"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="33"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A86" s="32"/>
-      <c r="B86" s="32"/>
-      <c r="C86" s="32"/>
-      <c r="D86" s="32"/>
-      <c r="E86" s="32"/>
+      <c r="A86" s="33"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="33"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A87" s="32"/>
-      <c r="B87" s="32"/>
-      <c r="C87" s="32"/>
-      <c r="D87" s="32"/>
-      <c r="E87" s="32"/>
+      <c r="A87" s="33"/>
+      <c r="B87" s="33"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="33"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A88" s="32"/>
-      <c r="B88" s="32"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32"/>
-      <c r="E88" s="32"/>
+      <c r="A88" s="33"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A89" s="32"/>
-      <c r="B89" s="32"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32"/>
-      <c r="E89" s="32"/>
+      <c r="A89" s="33"/>
+      <c r="B89" s="33"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="33"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A90" s="32"/>
-      <c r="B90" s="32"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="32"/>
-      <c r="E90" s="32"/>
+      <c r="A90" s="33"/>
+      <c r="B90" s="33"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="33"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A91" s="32"/>
-      <c r="B91" s="32"/>
-      <c r="C91" s="32"/>
-      <c r="D91" s="32"/>
-      <c r="E91" s="32"/>
+      <c r="A91" s="33"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="33"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A92" s="32"/>
-      <c r="B92" s="32"/>
-      <c r="C92" s="32"/>
-      <c r="D92" s="32"/>
-      <c r="E92" s="32"/>
+      <c r="A92" s="33"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A93" s="32"/>
-      <c r="B93" s="32"/>
-      <c r="C93" s="32"/>
-      <c r="D93" s="32"/>
-      <c r="E93" s="32"/>
+      <c r="A93" s="33"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A94" s="32"/>
-      <c r="B94" s="32"/>
-      <c r="C94" s="32"/>
-      <c r="D94" s="32"/>
-      <c r="E94" s="32"/>
+      <c r="A94" s="33"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A95" s="32"/>
-      <c r="B95" s="32"/>
-      <c r="C95" s="32"/>
-      <c r="D95" s="32"/>
-      <c r="E95" s="32"/>
+      <c r="A95" s="33"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
+      <c r="E95" s="33"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A96" s="32"/>
-      <c r="B96" s="32"/>
-      <c r="C96" s="32"/>
-      <c r="D96" s="32"/>
-      <c r="E96" s="32"/>
+      <c r="A96" s="33"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A97" s="32"/>
-      <c r="B97" s="32"/>
-      <c r="C97" s="32"/>
-      <c r="D97" s="32"/>
-      <c r="E97" s="32"/>
+      <c r="A97" s="33"/>
+      <c r="B97" s="33"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="33"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A98" s="32"/>
-      <c r="B98" s="32"/>
-      <c r="C98" s="32"/>
-      <c r="D98" s="32"/>
-      <c r="E98" s="32"/>
+      <c r="A98" s="33"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="33"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A99" s="32"/>
-      <c r="B99" s="32"/>
-      <c r="C99" s="32"/>
-      <c r="D99" s="32"/>
-      <c r="E99" s="32"/>
+      <c r="A99" s="33"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="33"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A100" s="32"/>
-      <c r="B100" s="32"/>
-      <c r="C100" s="32"/>
-      <c r="D100" s="32"/>
-      <c r="E100" s="32"/>
+      <c r="A100" s="33"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="33"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A101" s="32"/>
-      <c r="B101" s="32"/>
-      <c r="C101" s="32"/>
-      <c r="D101" s="32"/>
-      <c r="E101" s="32"/>
+      <c r="A101" s="33"/>
+      <c r="B101" s="33"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="33"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A102" s="32"/>
-      <c r="B102" s="32"/>
-      <c r="C102" s="32"/>
-      <c r="D102" s="32"/>
-      <c r="E102" s="32"/>
+      <c r="A102" s="33"/>
+      <c r="B102" s="33"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="33"/>
+      <c r="E102" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5626,38 +5746,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -5837,13 +5957,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="40" t="s">
         <v>303</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
@@ -5851,48 +5971,48 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="57"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5932,38 +6052,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -6143,13 +6263,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="40" t="s">
         <v>306</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
@@ -6157,48 +6277,48 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="57"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6237,26 +6357,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>361</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
@@ -6264,13 +6384,13 @@
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>362</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
@@ -6493,13 +6613,13 @@
       <c r="H16" s="28"/>
     </row>
     <row r="17" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="40" t="s">
         <v>365</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
@@ -6527,63 +6647,63 @@
       <c r="H19" s="28"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="57"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="57"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
@@ -6609,7 +6729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -6626,26 +6746,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="71" t="s">
         <v>366</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
@@ -6653,13 +6773,13 @@
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="72" t="s">
         <v>366</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
@@ -6969,13 +7089,13 @@
       <c r="H21" s="28"/>
     </row>
     <row r="22" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="40" t="s">
         <v>373</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="42"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
@@ -7003,63 +7123,63 @@
       <c r="H24" s="28"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="57"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="57"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="57"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="57"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
       <c r="F30" s="28"/>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
@@ -7085,8 +7205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -7100,26 +7220,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
@@ -7127,13 +7247,13 @@
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
@@ -7414,13 +7534,13 @@
       <c r="H19" s="28"/>
     </row>
     <row r="20" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
@@ -7448,123 +7568,123 @@
       <c r="H22" s="28"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="33" t="s">
         <v>360</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
       <c r="F30" s="28"/>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
       <c r="F32" s="28"/>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
       <c r="F33" s="28"/>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
       <c r="F34" s="28"/>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
@@ -7587,287 +7707,436 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E27"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1"/>
-    <col min="3" max="3" width="35.1640625" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="41.5" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="29.83203125" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>1001</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>1003</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>1005</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>1007</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
-        <v>1009</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
-        <v>1011</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
-        <v>1013</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
-        <v>1015</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
-        <v>1017</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
-        <v>1101</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
-        <v>1201</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
-        <v>1211</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
-        <v>1213</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="2">
-        <v>1215</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="2">
-        <v>1217</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="2">
-        <v>1219</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="2">
-        <v>1221</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="2">
-        <v>1223</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="E27" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>393</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>393</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="32"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="10">
+        <v>1</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="H8" s="32"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+    </row>
+    <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="10">
+        <v>1</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="10">
+        <v>2</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="10">
+        <v>3</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="10">
+        <v>4</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="10">
+        <v>3</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>401</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>401</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="10">
+        <v>4</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+    </row>
+    <row r="20" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="74" t="s">
+        <v>403</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="75" t="s">
+        <v>404</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A24:E30"/>
+  </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <hyperlinks>
+    <hyperlink ref="A20" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7892,38 +8161,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -8145,13 +8414,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="11" t="s">
@@ -8159,90 +8428,90 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="33" t="s">
         <v>360</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8262,6 +8531,292 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
+    <col min="3" max="3" width="35.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>1003</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>1005</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>1007</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>1009</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>1011</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>1013</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>1015</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>1017</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>1101</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>1201</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>1211</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>1213</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>1215</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>1217</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>1219</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>1221</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>1223</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="E27" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8297,38 +8852,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -8671,13 +9226,13 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="42"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="11" t="s">
@@ -8685,538 +9240,538 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="42"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="42"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="42"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="42"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="42"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="42"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="42"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="42"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="42"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="42"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="42"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="42"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="42"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="42"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="42"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="42"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="42"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="42"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="42"/>
-      <c r="B56" s="42"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="42"/>
-      <c r="E56" s="42"/>
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="42"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="42"/>
-      <c r="B58" s="42"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="42"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="42"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="42"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="42"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
+      <c r="A62" s="43"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="42"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="42"/>
+      <c r="A63" s="43"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="42"/>
-      <c r="B64" s="42"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="42"/>
-      <c r="E64" s="42"/>
+      <c r="A64" s="43"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="42"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
+      <c r="A65" s="43"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="42"/>
-      <c r="B66" s="42"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="42"/>
-      <c r="E66" s="42"/>
+      <c r="A66" s="43"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="42"/>
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
+      <c r="A67" s="43"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" s="42"/>
-      <c r="B68" s="42"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="42"/>
-      <c r="E68" s="42"/>
+      <c r="A68" s="43"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="42"/>
-      <c r="B69" s="42"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="42"/>
+      <c r="A69" s="43"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="43"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" s="42"/>
-      <c r="B70" s="42"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="42"/>
+      <c r="A70" s="43"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="43"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" s="42"/>
-      <c r="B71" s="42"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="42"/>
+      <c r="A71" s="43"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72" s="42"/>
-      <c r="B72" s="42"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="42"/>
+      <c r="A72" s="43"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="43"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="42"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
+      <c r="A73" s="43"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="42"/>
-      <c r="B74" s="42"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="42"/>
+      <c r="A74" s="43"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="42"/>
-      <c r="B75" s="42"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="42"/>
-      <c r="E75" s="42"/>
+      <c r="A75" s="43"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="42"/>
-      <c r="B76" s="42"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="42"/>
-      <c r="E76" s="42"/>
+      <c r="A76" s="43"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="42"/>
-      <c r="B77" s="42"/>
-      <c r="C77" s="42"/>
-      <c r="D77" s="42"/>
-      <c r="E77" s="42"/>
+      <c r="A77" s="43"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="42"/>
-      <c r="B78" s="42"/>
-      <c r="C78" s="42"/>
-      <c r="D78" s="42"/>
-      <c r="E78" s="42"/>
+      <c r="A78" s="43"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="43"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" s="42"/>
-      <c r="B79" s="42"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="42"/>
+      <c r="A79" s="43"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="43"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" s="42"/>
-      <c r="B80" s="42"/>
-      <c r="C80" s="42"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="42"/>
+      <c r="A80" s="43"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="43"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" s="42"/>
-      <c r="B81" s="42"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="42"/>
+      <c r="A81" s="43"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="43"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82" s="42"/>
-      <c r="B82" s="42"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="42"/>
+      <c r="A82" s="43"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="43"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A83" s="42"/>
-      <c r="B83" s="42"/>
-      <c r="C83" s="42"/>
-      <c r="D83" s="42"/>
-      <c r="E83" s="42"/>
+      <c r="A83" s="43"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="43"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A84" s="42"/>
-      <c r="B84" s="42"/>
-      <c r="C84" s="42"/>
-      <c r="D84" s="42"/>
-      <c r="E84" s="42"/>
+      <c r="A84" s="43"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" s="42"/>
-      <c r="B85" s="42"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="42"/>
-      <c r="E85" s="42"/>
+      <c r="A85" s="43"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="43"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A86" s="42"/>
-      <c r="B86" s="42"/>
-      <c r="C86" s="42"/>
-      <c r="D86" s="42"/>
-      <c r="E86" s="42"/>
+      <c r="A86" s="43"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="43"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A87" s="42"/>
-      <c r="B87" s="42"/>
-      <c r="C87" s="42"/>
-      <c r="D87" s="42"/>
-      <c r="E87" s="42"/>
+      <c r="A87" s="43"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="43"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A88" s="42"/>
-      <c r="B88" s="42"/>
-      <c r="C88" s="42"/>
-      <c r="D88" s="42"/>
-      <c r="E88" s="42"/>
+      <c r="A88" s="43"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="43"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A89" s="42"/>
-      <c r="B89" s="42"/>
-      <c r="C89" s="42"/>
-      <c r="D89" s="42"/>
-      <c r="E89" s="42"/>
+      <c r="A89" s="43"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="43"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A90" s="42"/>
-      <c r="B90" s="42"/>
-      <c r="C90" s="42"/>
-      <c r="D90" s="42"/>
-      <c r="E90" s="42"/>
+      <c r="A90" s="43"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="43"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A91" s="42"/>
-      <c r="B91" s="42"/>
-      <c r="C91" s="42"/>
-      <c r="D91" s="42"/>
-      <c r="E91" s="42"/>
+      <c r="A91" s="43"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="43"/>
+      <c r="E91" s="43"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A92" s="42"/>
-      <c r="B92" s="42"/>
-      <c r="C92" s="42"/>
-      <c r="D92" s="42"/>
-      <c r="E92" s="42"/>
+      <c r="A92" s="43"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="43"/>
+      <c r="E92" s="43"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A93" s="42"/>
-      <c r="B93" s="42"/>
-      <c r="C93" s="42"/>
-      <c r="D93" s="42"/>
-      <c r="E93" s="42"/>
+      <c r="A93" s="43"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="43"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A94" s="42"/>
-      <c r="B94" s="42"/>
-      <c r="C94" s="42"/>
-      <c r="D94" s="42"/>
-      <c r="E94" s="42"/>
+      <c r="A94" s="43"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="43"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A95" s="42"/>
-      <c r="B95" s="42"/>
-      <c r="C95" s="42"/>
-      <c r="D95" s="42"/>
-      <c r="E95" s="42"/>
+      <c r="A95" s="43"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="43"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A96" s="42"/>
-      <c r="B96" s="42"/>
-      <c r="C96" s="42"/>
-      <c r="D96" s="42"/>
-      <c r="E96" s="42"/>
+      <c r="A96" s="43"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="43"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="43"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A97" s="42"/>
-      <c r="B97" s="42"/>
-      <c r="C97" s="42"/>
-      <c r="D97" s="42"/>
-      <c r="E97" s="42"/>
+      <c r="A97" s="43"/>
+      <c r="B97" s="43"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="43"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A98" s="42"/>
-      <c r="B98" s="42"/>
-      <c r="C98" s="42"/>
-      <c r="D98" s="42"/>
-      <c r="E98" s="42"/>
+      <c r="A98" s="43"/>
+      <c r="B98" s="43"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="43"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A99" s="42"/>
-      <c r="B99" s="42"/>
-      <c r="C99" s="42"/>
-      <c r="D99" s="42"/>
-      <c r="E99" s="42"/>
+      <c r="A99" s="43"/>
+      <c r="B99" s="43"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="43"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A100" s="42"/>
-      <c r="B100" s="42"/>
-      <c r="C100" s="42"/>
-      <c r="D100" s="42"/>
-      <c r="E100" s="42"/>
+      <c r="A100" s="43"/>
+      <c r="B100" s="43"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="43"/>
+      <c r="E100" s="43"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A101" s="42"/>
-      <c r="B101" s="42"/>
-      <c r="C101" s="42"/>
-      <c r="D101" s="42"/>
-      <c r="E101" s="42"/>
+      <c r="A101" s="43"/>
+      <c r="B101" s="43"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="43"/>
+      <c r="E101" s="43"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A102" s="42"/>
-      <c r="B102" s="42"/>
-      <c r="C102" s="42"/>
-      <c r="D102" s="42"/>
-      <c r="E102" s="42"/>
+      <c r="A102" s="43"/>
+      <c r="B102" s="43"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="43"/>
+      <c r="E102" s="43"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A103" s="42"/>
-      <c r="B103" s="42"/>
-      <c r="C103" s="42"/>
-      <c r="D103" s="42"/>
-      <c r="E103" s="42"/>
+      <c r="A103" s="43"/>
+      <c r="B103" s="43"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="43"/>
+      <c r="E103" s="43"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A104" s="42"/>
-      <c r="B104" s="42"/>
-      <c r="C104" s="42"/>
-      <c r="D104" s="42"/>
-      <c r="E104" s="42"/>
+      <c r="A104" s="43"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="43"/>
+      <c r="E104" s="43"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A105" s="42"/>
-      <c r="B105" s="42"/>
-      <c r="C105" s="42"/>
-      <c r="D105" s="42"/>
-      <c r="E105" s="42"/>
+      <c r="A105" s="43"/>
+      <c r="B105" s="43"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="43"/>
+      <c r="E105" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9255,38 +9810,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -9585,13 +10140,13 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="42"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="11" t="s">
@@ -9599,538 +10154,538 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="42"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="42"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="42"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="42"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="42"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="42"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="42"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="42"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="42"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="42"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="42"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="42"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="42"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="42"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="42"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="42"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="42"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="42"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="42"/>
-      <c r="B56" s="42"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="42"/>
-      <c r="E56" s="42"/>
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="42"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="42"/>
-      <c r="B58" s="42"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="42"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="42"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="42"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="42"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
+      <c r="A62" s="43"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="42"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="42"/>
+      <c r="A63" s="43"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="42"/>
-      <c r="B64" s="42"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="42"/>
-      <c r="E64" s="42"/>
+      <c r="A64" s="43"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="42"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
+      <c r="A65" s="43"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="42"/>
-      <c r="B66" s="42"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="42"/>
-      <c r="E66" s="42"/>
+      <c r="A66" s="43"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="42"/>
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
+      <c r="A67" s="43"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" s="42"/>
-      <c r="B68" s="42"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="42"/>
-      <c r="E68" s="42"/>
+      <c r="A68" s="43"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="42"/>
-      <c r="B69" s="42"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="42"/>
+      <c r="A69" s="43"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="43"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" s="42"/>
-      <c r="B70" s="42"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="42"/>
+      <c r="A70" s="43"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="43"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" s="42"/>
-      <c r="B71" s="42"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="42"/>
+      <c r="A71" s="43"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72" s="42"/>
-      <c r="B72" s="42"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="42"/>
+      <c r="A72" s="43"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="43"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="42"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
+      <c r="A73" s="43"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="42"/>
-      <c r="B74" s="42"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="42"/>
+      <c r="A74" s="43"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="42"/>
-      <c r="B75" s="42"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="42"/>
-      <c r="E75" s="42"/>
+      <c r="A75" s="43"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="42"/>
-      <c r="B76" s="42"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="42"/>
-      <c r="E76" s="42"/>
+      <c r="A76" s="43"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="42"/>
-      <c r="B77" s="42"/>
-      <c r="C77" s="42"/>
-      <c r="D77" s="42"/>
-      <c r="E77" s="42"/>
+      <c r="A77" s="43"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="42"/>
-      <c r="B78" s="42"/>
-      <c r="C78" s="42"/>
-      <c r="D78" s="42"/>
-      <c r="E78" s="42"/>
+      <c r="A78" s="43"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="43"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" s="42"/>
-      <c r="B79" s="42"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="42"/>
+      <c r="A79" s="43"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="43"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" s="42"/>
-      <c r="B80" s="42"/>
-      <c r="C80" s="42"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="42"/>
+      <c r="A80" s="43"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="43"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" s="42"/>
-      <c r="B81" s="42"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="42"/>
+      <c r="A81" s="43"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="43"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82" s="42"/>
-      <c r="B82" s="42"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="42"/>
+      <c r="A82" s="43"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="43"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A83" s="42"/>
-      <c r="B83" s="42"/>
-      <c r="C83" s="42"/>
-      <c r="D83" s="42"/>
-      <c r="E83" s="42"/>
+      <c r="A83" s="43"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="43"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A84" s="42"/>
-      <c r="B84" s="42"/>
-      <c r="C84" s="42"/>
-      <c r="D84" s="42"/>
-      <c r="E84" s="42"/>
+      <c r="A84" s="43"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" s="42"/>
-      <c r="B85" s="42"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="42"/>
-      <c r="E85" s="42"/>
+      <c r="A85" s="43"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="43"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A86" s="42"/>
-      <c r="B86" s="42"/>
-      <c r="C86" s="42"/>
-      <c r="D86" s="42"/>
-      <c r="E86" s="42"/>
+      <c r="A86" s="43"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="43"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A87" s="42"/>
-      <c r="B87" s="42"/>
-      <c r="C87" s="42"/>
-      <c r="D87" s="42"/>
-      <c r="E87" s="42"/>
+      <c r="A87" s="43"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="43"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A88" s="42"/>
-      <c r="B88" s="42"/>
-      <c r="C88" s="42"/>
-      <c r="D88" s="42"/>
-      <c r="E88" s="42"/>
+      <c r="A88" s="43"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="43"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A89" s="42"/>
-      <c r="B89" s="42"/>
-      <c r="C89" s="42"/>
-      <c r="D89" s="42"/>
-      <c r="E89" s="42"/>
+      <c r="A89" s="43"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="43"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A90" s="42"/>
-      <c r="B90" s="42"/>
-      <c r="C90" s="42"/>
-      <c r="D90" s="42"/>
-      <c r="E90" s="42"/>
+      <c r="A90" s="43"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="43"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A91" s="42"/>
-      <c r="B91" s="42"/>
-      <c r="C91" s="42"/>
-      <c r="D91" s="42"/>
-      <c r="E91" s="42"/>
+      <c r="A91" s="43"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="43"/>
+      <c r="E91" s="43"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A92" s="42"/>
-      <c r="B92" s="42"/>
-      <c r="C92" s="42"/>
-      <c r="D92" s="42"/>
-      <c r="E92" s="42"/>
+      <c r="A92" s="43"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="43"/>
+      <c r="E92" s="43"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A93" s="42"/>
-      <c r="B93" s="42"/>
-      <c r="C93" s="42"/>
-      <c r="D93" s="42"/>
-      <c r="E93" s="42"/>
+      <c r="A93" s="43"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="43"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A94" s="42"/>
-      <c r="B94" s="42"/>
-      <c r="C94" s="42"/>
-      <c r="D94" s="42"/>
-      <c r="E94" s="42"/>
+      <c r="A94" s="43"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="43"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A95" s="42"/>
-      <c r="B95" s="42"/>
-      <c r="C95" s="42"/>
-      <c r="D95" s="42"/>
-      <c r="E95" s="42"/>
+      <c r="A95" s="43"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="43"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A96" s="42"/>
-      <c r="B96" s="42"/>
-      <c r="C96" s="42"/>
-      <c r="D96" s="42"/>
-      <c r="E96" s="42"/>
+      <c r="A96" s="43"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="43"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="43"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A97" s="42"/>
-      <c r="B97" s="42"/>
-      <c r="C97" s="42"/>
-      <c r="D97" s="42"/>
-      <c r="E97" s="42"/>
+      <c r="A97" s="43"/>
+      <c r="B97" s="43"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="43"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A98" s="42"/>
-      <c r="B98" s="42"/>
-      <c r="C98" s="42"/>
-      <c r="D98" s="42"/>
-      <c r="E98" s="42"/>
+      <c r="A98" s="43"/>
+      <c r="B98" s="43"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="43"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A99" s="42"/>
-      <c r="B99" s="42"/>
-      <c r="C99" s="42"/>
-      <c r="D99" s="42"/>
-      <c r="E99" s="42"/>
+      <c r="A99" s="43"/>
+      <c r="B99" s="43"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="43"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A100" s="42"/>
-      <c r="B100" s="42"/>
-      <c r="C100" s="42"/>
-      <c r="D100" s="42"/>
-      <c r="E100" s="42"/>
+      <c r="A100" s="43"/>
+      <c r="B100" s="43"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="43"/>
+      <c r="E100" s="43"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A101" s="42"/>
-      <c r="B101" s="42"/>
-      <c r="C101" s="42"/>
-      <c r="D101" s="42"/>
-      <c r="E101" s="42"/>
+      <c r="A101" s="43"/>
+      <c r="B101" s="43"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="43"/>
+      <c r="E101" s="43"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A102" s="42"/>
-      <c r="B102" s="42"/>
-      <c r="C102" s="42"/>
-      <c r="D102" s="42"/>
-      <c r="E102" s="42"/>
+      <c r="A102" s="43"/>
+      <c r="B102" s="43"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="43"/>
+      <c r="E102" s="43"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A103" s="42"/>
-      <c r="B103" s="42"/>
-      <c r="C103" s="42"/>
-      <c r="D103" s="42"/>
-      <c r="E103" s="42"/>
+      <c r="A103" s="43"/>
+      <c r="B103" s="43"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="43"/>
+      <c r="E103" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10168,38 +10723,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -10755,272 +11310,272 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="41"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="42"/>
     </row>
     <row r="42" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="52" t="s">
+      <c r="C42" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
     </row>
     <row r="43" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="44" t="s">
         <v>178</v>
       </c>
-      <c r="B43" s="45"/>
-      <c r="C43" s="43" t="s">
+      <c r="B43" s="46"/>
+      <c r="C43" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="D43" s="44"/>
-      <c r="E43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="46"/>
     </row>
     <row r="44" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="46"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="48"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="49"/>
     </row>
     <row r="45" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="46"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="48"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="49"/>
     </row>
     <row r="46" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="46"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="48"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="49"/>
     </row>
     <row r="47" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="46"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="48"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="49"/>
     </row>
     <row r="48" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="46"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="48"/>
+      <c r="A48" s="47"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="49"/>
     </row>
     <row r="49" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="46"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="48"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="49"/>
     </row>
     <row r="50" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="46"/>
-      <c r="B50" s="48"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="48"/>
+      <c r="A50" s="47"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="49"/>
     </row>
     <row r="51" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="46"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="48"/>
+      <c r="A51" s="47"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="49"/>
     </row>
     <row r="52" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="46"/>
-      <c r="B52" s="48"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="48"/>
+      <c r="A52" s="47"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="49"/>
     </row>
     <row r="53" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="46"/>
-      <c r="B53" s="48"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="48"/>
+      <c r="A53" s="47"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="49"/>
     </row>
     <row r="54" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="46"/>
-      <c r="B54" s="48"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="48"/>
+      <c r="A54" s="47"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="49"/>
     </row>
     <row r="55" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="46"/>
-      <c r="B55" s="48"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="48"/>
+      <c r="A55" s="47"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="49"/>
     </row>
     <row r="56" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="46"/>
-      <c r="B56" s="48"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="48"/>
+      <c r="A56" s="47"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="49"/>
     </row>
     <row r="57" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="46"/>
-      <c r="B57" s="48"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="48"/>
+      <c r="A57" s="47"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="49"/>
     </row>
     <row r="58" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="46"/>
-      <c r="B58" s="48"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="48"/>
+      <c r="A58" s="47"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="49"/>
     </row>
     <row r="59" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="46"/>
-      <c r="B59" s="48"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="48"/>
+      <c r="A59" s="47"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="49"/>
     </row>
     <row r="60" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="46"/>
-      <c r="B60" s="48"/>
-      <c r="C60" s="46"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="48"/>
+      <c r="A60" s="47"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="49"/>
     </row>
     <row r="61" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="46"/>
-      <c r="B61" s="48"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="48"/>
+      <c r="A61" s="47"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="49"/>
     </row>
     <row r="62" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="46"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="46"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="48"/>
+      <c r="A62" s="47"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="49"/>
     </row>
     <row r="63" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="46"/>
-      <c r="B63" s="48"/>
-      <c r="C63" s="46"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="48"/>
+      <c r="A63" s="47"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="49"/>
     </row>
     <row r="64" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="46"/>
-      <c r="B64" s="48"/>
-      <c r="C64" s="46"/>
-      <c r="D64" s="47"/>
-      <c r="E64" s="48"/>
+      <c r="A64" s="47"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="49"/>
     </row>
     <row r="65" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="46"/>
-      <c r="B65" s="48"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="48"/>
+      <c r="A65" s="47"/>
+      <c r="B65" s="49"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="49"/>
     </row>
     <row r="66" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="46"/>
-      <c r="B66" s="48"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="48"/>
+      <c r="A66" s="47"/>
+      <c r="B66" s="49"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="49"/>
     </row>
     <row r="67" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="46"/>
-      <c r="B67" s="48"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="48"/>
+      <c r="A67" s="47"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="49"/>
     </row>
     <row r="68" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="46"/>
-      <c r="B68" s="48"/>
-      <c r="C68" s="46"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="48"/>
+      <c r="A68" s="47"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="49"/>
     </row>
     <row r="69" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="46"/>
-      <c r="B69" s="48"/>
-      <c r="C69" s="46"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="48"/>
+      <c r="A69" s="47"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="49"/>
     </row>
     <row r="70" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="46"/>
-      <c r="B70" s="48"/>
-      <c r="C70" s="46"/>
-      <c r="D70" s="47"/>
-      <c r="E70" s="48"/>
+      <c r="A70" s="47"/>
+      <c r="B70" s="49"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="48"/>
+      <c r="E70" s="49"/>
     </row>
     <row r="71" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="46"/>
-      <c r="B71" s="48"/>
-      <c r="C71" s="46"/>
-      <c r="D71" s="47"/>
-      <c r="E71" s="48"/>
+      <c r="A71" s="47"/>
+      <c r="B71" s="49"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="49"/>
     </row>
     <row r="72" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="46"/>
-      <c r="B72" s="48"/>
-      <c r="C72" s="46"/>
-      <c r="D72" s="47"/>
-      <c r="E72" s="48"/>
+      <c r="A72" s="47"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="47"/>
+      <c r="D72" s="48"/>
+      <c r="E72" s="49"/>
     </row>
     <row r="73" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="46"/>
-      <c r="B73" s="48"/>
-      <c r="C73" s="46"/>
-      <c r="D73" s="47"/>
-      <c r="E73" s="48"/>
+      <c r="A73" s="47"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="47"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="49"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="46"/>
-      <c r="B74" s="48"/>
-      <c r="C74" s="46"/>
-      <c r="D74" s="47"/>
-      <c r="E74" s="48"/>
+      <c r="A74" s="47"/>
+      <c r="B74" s="49"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="48"/>
+      <c r="E74" s="49"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="46"/>
-      <c r="B75" s="48"/>
-      <c r="C75" s="46"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="48"/>
+      <c r="A75" s="47"/>
+      <c r="B75" s="49"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="49"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="46"/>
-      <c r="B76" s="48"/>
-      <c r="C76" s="46"/>
-      <c r="D76" s="47"/>
-      <c r="E76" s="48"/>
+      <c r="A76" s="47"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="47"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="49"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="49"/>
-      <c r="B77" s="51"/>
-      <c r="C77" s="49"/>
-      <c r="D77" s="50"/>
-      <c r="E77" s="51"/>
+      <c r="A77" s="50"/>
+      <c r="B77" s="52"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="52"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="21"/>
@@ -11334,38 +11889,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -11591,13 +12146,13 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
@@ -11605,62 +12160,62 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="57"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="57"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="57"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="57"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -11698,38 +12253,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -12252,13 +12807,13 @@
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="58" t="s">
+      <c r="A34" s="59" t="s">
         <v>237</v>
       </c>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="60"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="61"/>
     </row>
     <row r="35" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A35" s="19"/>
@@ -12273,41 +12828,41 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="57"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="57"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="57"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="57"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -12345,38 +12900,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -12560,13 +13115,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="s">
@@ -12574,69 +13129,69 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="63"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="64"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="64"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="66"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="64"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="66"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="64"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="66"/>
+      <c r="A25" s="65"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="64"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="66"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="64"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="66"/>
+      <c r="A27" s="65"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="64"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="66"/>
+      <c r="A28" s="65"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="67"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="64"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="66"/>
+      <c r="A29" s="65"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="67"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="67"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="69"/>
+      <c r="A30" s="68"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -12674,38 +13229,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -12865,13 +13420,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="s">
@@ -12879,104 +13434,104 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="5">
